--- a/754 师姐回复.xlsx
+++ b/754 师姐回复.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15814" windowHeight="6840"/>
+    <workbookView windowWidth="15814" windowHeight="6840" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="生物制剂" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292">
   <si>
     <t>英夫利昔单抗致儿童严重过敏性休克1例</t>
   </si>
@@ -5131,6 +5131,9 @@
     <t>对照组采用美沙拉嗪进行治疗，观察组则采用 益生茵联合美沙拉嗪进行治疗，</t>
   </si>
   <si>
+    <t>总病例数100，5ASA 100+益生菌50，含对照</t>
+  </si>
+  <si>
     <t>英夫利昔单抗联合硫唑嘌呤治疗克罗恩病的临床疗效</t>
   </si>
   <si>
@@ -5146,25 +5149,81 @@
     <t>硫唑嘌呤组、英夫利昔组及联合治疗组,每组60例</t>
   </si>
   <si>
+    <t>总180，AZA120+生物制剂120，含对照</t>
+  </si>
+  <si>
     <t>炎症性肠炎病患者应用益生菌联合美沙拉嗪的治疗效果分析</t>
   </si>
   <si>
     <t>文子义</t>
   </si>
   <si>
-    <t>76例IBD（对照和观察各36例</t>
+    <t>76例IBD（对照和观察各38例</t>
   </si>
   <si>
     <t>临床试验39</t>
   </si>
   <si>
-    <t>益生菌加美沙拉嗪</t>
+    <t>对照组口服美沙拉嗪,观察组在对照组基础上服用益生菌</t>
+  </si>
+  <si>
+    <t>总76，5ASA76+益生菌38，含对照</t>
   </si>
   <si>
     <t>Infliximab Combined with Enteral Nutrition for Managing Crohn's Disease Complicated with Intestinal Fistulas.</t>
   </si>
   <si>
-    <t>营养+生物制剂</t>
+    <t>含对照42（20生物制剂+22联合）</t>
+  </si>
+  <si>
+    <r>
+      <t>infliximab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> treatment group (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> = 20) and conventional therapy group (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> = 22</t>
+    </r>
+  </si>
+  <si>
+    <t>总42，生物制剂42+营养22</t>
   </si>
   <si>
     <t>炎症性肠病治疗中益生菌联合美沙拉嗪的应用效果探讨  </t>
@@ -5176,6 +5235,9 @@
     <t>42CD（对照、治疗各21）</t>
   </si>
   <si>
+    <t>总42，美沙拉嗪42+益生菌21</t>
+  </si>
+  <si>
     <t>英夫利昔单抗联合直肠推移黏膜瓣治疗克罗恩病肛瘘的疗效初探</t>
   </si>
   <si>
@@ -5206,6 +5268,9 @@
     <t>对照组给予一般营养治疗、SASP、激素、抗生素，治疗组常规治疗+AZA+利妥昔单抗</t>
   </si>
   <si>
+    <t>每种都算？</t>
+  </si>
+  <si>
     <t>克罗恩病采用英夫利西联合硫唑嘌呤治疗的效果及预后观察</t>
   </si>
   <si>
@@ -5224,6 +5289,9 @@
     <t>雷公藤+AZA</t>
   </si>
   <si>
+    <t>各45例</t>
+  </si>
+  <si>
     <t>美沙拉嗪联合益生菌治疗炎症性肠病临床疗效观察  </t>
   </si>
   <si>
@@ -5266,7 +5334,7 @@
     <t>25+23</t>
   </si>
   <si>
-    <t>EN组)和激素治疗组</t>
+    <t>EN组25例,激素组23例</t>
   </si>
   <si>
     <t>克罗恩病术后口服硫唑嘌呤和美沙拉嗪预防复发的应用价值  </t>
@@ -5275,6 +5343,9 @@
     <t>黄耀庭; 王正廷; 范嵘; 周洁; 王蕾; 钟捷; 江石湖;  </t>
   </si>
   <si>
+    <t>各67？</t>
+  </si>
+  <si>
     <t>英夫利昔单用和联合硫唑嘌呤治疗克罗恩病的疗效分析  </t>
   </si>
   <si>
@@ -5284,6 +5355,9 @@
     <t>现代消化及介入诊疗  </t>
   </si>
   <si>
+    <t>IFX组29例和IFX+AZA组18例</t>
+  </si>
+  <si>
     <t>环磷酰胺联合沙利度胺治疗难治性克罗恩病15例初探</t>
   </si>
   <si>
@@ -5311,12 +5385,18 @@
     <t>32+32</t>
   </si>
   <si>
+    <t>对照组给予硫唑嘌呤口服或静注治疗,治疗组给予英夫利西单抗治疗</t>
+  </si>
+  <si>
     <t>肠内营养与英夫利西单抗诱导中重度克罗恩病缓解的疗效及成本分析</t>
   </si>
   <si>
     <t>朱维铭(1);左芦根(1);李毅(1);曹磊(1);张伟(1);谷云飞(2);胥明(3);李宁(1);黎介寿(1)</t>
   </si>
   <si>
+    <t>EN组入选52例，IFX组48例</t>
+  </si>
+  <si>
     <t>英夫力西和环孢素治疗难治性炎症性肠病的近期疗效比较</t>
   </si>
   <si>
@@ -5326,6 +5406,9 @@
     <t>基础医学与临床</t>
   </si>
   <si>
+    <t>12例验证难治性溃疡性结肠炎(UC)患者中,6例应用英夫力西(IFX);6例应用CsA。6例克罗恩病(CD)患者全部用IFX治疗</t>
+  </si>
+  <si>
     <t>Efficacy of infliximab combined with surgery in the treatment of perianal fistulizing Crohn disease].</t>
   </si>
   <si>
@@ -5335,12 +5418,18 @@
     <t>Zhonghua Wei Chang Wai Ke Za Zhi.</t>
   </si>
   <si>
+    <t>15例手术同时英夫利昔</t>
+  </si>
+  <si>
     <t>英夫利昔单抗联合肠内营养在治疗中重度克罗恩病中的临床优势</t>
   </si>
   <si>
     <t>吴高珏; 龚镭; 胥明; 朱颖炜</t>
   </si>
   <si>
+    <t>12同时生物制剂+营养</t>
+  </si>
+  <si>
     <t>克罗恩病合并髂腰肌脓肿1例  </t>
   </si>
   <si>
@@ -5359,6 +5448,9 @@
     <t>BMC Gastroenterol.</t>
   </si>
   <si>
+    <t>沙利度胺+激素</t>
+  </si>
+  <si>
     <t>益生菌联合美沙拉嗪治疗炎症性肠病的疗效观察  </t>
   </si>
   <si>
@@ -5368,12 +5460,18 @@
     <t>43+43</t>
   </si>
   <si>
+    <t>观察组(n=43)和对照组(n=43),对照组采用美沙拉嗪治疗,观察组在对照组治疗的基础上加用益生菌</t>
+  </si>
+  <si>
     <t>英夫利西联合硫唑嘌呤治疗克罗恩病的临床及内镜随访</t>
   </si>
   <si>
     <t>陈白莉;肖英莲;高翔;何瑶;杨荣萍;陈瑜君;陈旻湖;胡品津</t>
   </si>
   <si>
+    <t>英夫利西联合硫唑嘌呤治疗的20例CD</t>
+  </si>
+  <si>
     <t>英夫利昔单抗与柳氮磺胺吡啶在克罗恩病中的疗效对比  </t>
   </si>
   <si>
@@ -5383,6 +5481,9 @@
     <t>25+25</t>
   </si>
   <si>
+    <t>英夫利昔单抗组)25例和B组(柳氮磺胺吡啶组)25例</t>
+  </si>
+  <si>
     <t>益生菌联合美沙拉嗪对炎症性肠病治疗的临床研究  </t>
   </si>
   <si>
@@ -5390,6 +5491,9 @@
   </si>
   <si>
     <t>30+30</t>
+  </si>
+  <si>
+    <t>总60,5ASA60+益生菌30</t>
   </si>
   <si>
     <t>英夫利西联合肠道微生态制剂治疗难治性克罗恩病的临床观察  </t>
@@ -5462,7 +5566,7 @@
     </r>
   </si>
   <si>
-    <t>剂英夫利西单克隆抗体（ＩFX）联合硫唑嘌呤或甲氨蝶呤或巯基嘌呤</t>
+    <t>40例CD+非具体免疫抑制剂</t>
   </si>
   <si>
     <t>替硝唑联合美沙拉嗪治疗炎症性肠病的临床效果分析</t>
@@ -5537,7 +5641,7 @@
     <t>IBD80（CD19+UC61）</t>
   </si>
   <si>
-    <t>SASP、激素</t>
+    <t>80例炎症性肠病患者应用SASP、美沙拉嗪以及加用激素的近期疗效</t>
   </si>
   <si>
     <t>以间断发热伴发育迟缓为首发表现的儿童克罗恩病1例报告及文献复习</t>
@@ -8213,11 +8317,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8282,6 +8386,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -8289,16 +8401,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8311,10 +8429,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8334,39 +8484,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -8381,26 +8500,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8413,14 +8516,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8430,6 +8534,14 @@
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="36">
@@ -8459,13 +8571,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8477,133 +8661,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8621,25 +8685,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8746,8 +8858,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8767,6 +8879,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -8778,15 +8899,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8808,11 +8920,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8834,9 +8944,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8848,10 +8960,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8860,137 +8972,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9077,6 +9189,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -11075,7 +11205,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="51008915"/>
+          <a:off x="0" y="53692425"/>
           <a:ext cx="191135" cy="57785"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11117,7 +11247,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="52123340"/>
+          <a:off x="0" y="54806850"/>
           <a:ext cx="191135" cy="102235"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11159,7 +11289,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="53079650"/>
+          <a:off x="0" y="55763160"/>
           <a:ext cx="191135" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11201,7 +11331,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="58336815"/>
+          <a:off x="0" y="61494035"/>
           <a:ext cx="191135" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13628,7 +13758,7 @@
   <sheetPr/>
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="A70" sqref="$A70:$XFD70"/>
     </sheetView>
   </sheetViews>
@@ -13747,13 +13877,13 @@
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="100.2" spans="1:7">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="48" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="7">
@@ -14019,7 +14149,7 @@
       <c r="E17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="40" t="s">
         <v>87</v>
       </c>
       <c r="G17" s="7" t="s">
@@ -14067,7 +14197,7 @@
       <c r="E19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="40" t="s">
         <v>97</v>
       </c>
       <c r="G19" s="7" t="s">
@@ -15175,7 +15305,7 @@
       <c r="E3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="40" t="s">
         <v>1186</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -15463,13 +15593,13 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="87" spans="1:7">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="35" t="s">
         <v>1224</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="35" t="s">
         <v>1225</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="35" t="s">
         <v>1226</v>
       </c>
       <c r="D7" s="7">
@@ -15478,7 +15608,7 @@
       <c r="E7" s="6" t="s">
         <v>1227</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="36" t="s">
         <v>68</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -15829,13 +15959,16 @@
   <sheetPr/>
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A45" sqref="$A45:$XFD45"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72072072072072" defaultRowHeight="14.1"/>
+  <cols>
+    <col min="1" max="16384" width="8.72072072072072" style="30"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="112.6" spans="1:8">
+    <row r="1" ht="112.6" spans="1:9">
       <c r="A1" s="5" t="s">
         <v>1280</v>
       </c>
@@ -15857,37 +15990,43 @@
       <c r="G1" s="6" t="s">
         <v>1284</v>
       </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="87.75" spans="1:7">
+      <c r="H1" s="29"/>
+      <c r="I1" s="30" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="2" s="29" customFormat="1" ht="87.75" spans="1:9">
       <c r="A2" s="8" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="D2" s="7">
         <v>2016</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>852</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="87.75" spans="1:7">
+        <v>1290</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="3" s="29" customFormat="1" ht="87.75" spans="1:9">
       <c r="A3" s="8" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>779</v>
@@ -15896,18 +16035,21 @@
         <v>2016</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="198.45" spans="1:7">
+        <v>1296</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="4" s="29" customFormat="1" ht="198.45" spans="1:9">
       <c r="A4" s="7" t="s">
-        <v>1295</v>
+        <v>1298</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -15915,92 +16057,101 @@
         <v>2016</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1045</v>
+        <v>1299</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="87.75" spans="1:7">
-      <c r="A5" s="29" t="s">
-        <v>1297</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C5" s="29" t="s">
+      <c r="G4" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="5" s="29" customFormat="1" ht="87.75" spans="1:9">
+      <c r="A5" s="35" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>273</v>
       </c>
       <c r="D5" s="7">
         <v>2015</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1299</v>
-      </c>
-      <c r="F5" s="30" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F5" s="36" t="s">
         <v>1201</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>1228</v>
       </c>
-    </row>
-    <row r="6" customFormat="1" ht="87.75" spans="1:8">
+      <c r="I5" s="29" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="6" s="30" customFormat="1" ht="87.75" spans="1:8">
       <c r="A6" s="17" t="s">
-        <v>1300</v>
+        <v>1306</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>1301</v>
+        <v>1307</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>1302</v>
+        <v>1308</v>
       </c>
       <c r="D6" s="7">
         <v>2015</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1303</v>
+        <v>1309</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>804</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>1304</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="125.05" spans="1:8">
+        <v>1310</v>
+      </c>
+      <c r="H6" s="29"/>
+    </row>
+    <row r="7" s="29" customFormat="1" ht="125.05" spans="1:9">
       <c r="A7" s="17" t="s">
-        <v>1305</v>
+        <v>1311</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>1306</v>
+        <v>1312</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>1307</v>
+        <v>1313</v>
       </c>
       <c r="D7" s="7">
         <v>2015</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1308</v>
+        <v>1314</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>980</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>1309</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" customFormat="1" ht="87.75" spans="1:8">
+        <v>1315</v>
+      </c>
+      <c r="H7" s="31"/>
+      <c r="I7" s="29" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="8" s="30" customFormat="1" ht="87.75" spans="1:8">
       <c r="A8" s="17" t="s">
-        <v>1310</v>
+        <v>1317</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>1311</v>
+        <v>1318</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>61</v>
@@ -16015,40 +16166,42 @@
         <v>781</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>1312</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="285.45" spans="1:9">
-      <c r="A9" s="31" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31">
+        <v>1319</v>
+      </c>
+      <c r="H8" s="29"/>
+    </row>
+    <row r="9" s="29" customFormat="1" ht="285.45" spans="1:9">
+      <c r="A9" s="37" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37">
         <v>2015</v>
       </c>
-      <c r="E9" s="31" t="s">
-        <v>1314</v>
-      </c>
-      <c r="F9" s="31" t="s">
+      <c r="E9" s="37" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F9" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="31" t="s">
-        <v>1315</v>
+      <c r="G9" s="37" t="s">
+        <v>1322</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="84.85" spans="1:7">
+      <c r="I9" s="7" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="10" s="29" customFormat="1" ht="99" spans="1:7">
       <c r="A10" s="19" t="s">
-        <v>1316</v>
+        <v>1324</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>1317</v>
+        <v>1325</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D10" s="19">
         <v>2014</v>
@@ -16057,18 +16210,18 @@
         <v>84</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>1319</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" ht="99" spans="1:8">
+        <v>1327</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="11" s="30" customFormat="1" ht="99" spans="1:8">
       <c r="A11" s="19" t="s">
-        <v>1321</v>
+        <v>1329</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>1322</v>
+        <v>1330</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>503</v>
@@ -16080,17 +16233,17 @@
         <v>105</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>1323</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" customFormat="1" ht="99" spans="1:8">
+        <v>1331</v>
+      </c>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+    </row>
+    <row r="12" s="30" customFormat="1" ht="99" spans="1:8">
       <c r="A12" s="19" t="s">
-        <v>1324</v>
+        <v>1332</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>1325</v>
+        <v>1333</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>901</v>
@@ -16102,18 +16255,18 @@
         <v>64</v>
       </c>
       <c r="F12" s="19"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" customFormat="1" ht="99" spans="1:8">
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+    </row>
+    <row r="13" s="30" customFormat="1" ht="99" spans="1:8">
       <c r="A13" s="19" t="s">
-        <v>1326</v>
+        <v>1334</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>1327</v>
+        <v>1335</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>1328</v>
+        <v>1336</v>
       </c>
       <c r="D13" s="19">
         <v>2014</v>
@@ -16122,19 +16275,19 @@
         <v>48</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>1329</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1330</v>
-      </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" customFormat="1" ht="99" spans="1:8">
+        <v>1337</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" s="30" customFormat="1" ht="99" spans="1:8">
       <c r="A14" s="19" t="s">
-        <v>1331</v>
+        <v>1339</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>1332</v>
+        <v>1340</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>464</v>
@@ -16146,18 +16299,20 @@
         <v>67</v>
       </c>
       <c r="F14" s="19"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="99" spans="1:6">
+      <c r="G14" s="29"/>
+      <c r="H14" s="29" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="15" s="29" customFormat="1" ht="99" spans="1:7">
       <c r="A15" s="19" t="s">
-        <v>1333</v>
+        <v>1342</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>1334</v>
+        <v>1343</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>1335</v>
+        <v>1344</v>
       </c>
       <c r="D15" s="19">
         <v>2014</v>
@@ -16166,13 +16321,16 @@
         <v>47</v>
       </c>
       <c r="F15" s="19"/>
-    </row>
-    <row r="16" customFormat="1" ht="84.85" spans="1:8">
+      <c r="G15" s="29" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="16" s="30" customFormat="1" ht="84.85" spans="1:8">
       <c r="A16" s="19" t="s">
-        <v>1336</v>
+        <v>1346</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>1337</v>
+        <v>1347</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>45</v>
@@ -16184,15 +16342,15 @@
         <v>15</v>
       </c>
       <c r="F16" s="19"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" customFormat="1" ht="99" spans="1:8">
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+    </row>
+    <row r="17" s="30" customFormat="1" ht="99" spans="1:8">
       <c r="A17" s="19" t="s">
-        <v>1338</v>
+        <v>1348</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>1339</v>
+        <v>1349</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>205</v>
@@ -16204,20 +16362,20 @@
         <v>24</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>1340</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" customFormat="1" ht="99" spans="1:8">
+        <v>1350</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+    </row>
+    <row r="18" s="30" customFormat="1" ht="113.15" spans="1:8">
       <c r="A18" s="19" t="s">
-        <v>1341</v>
+        <v>1351</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>1342</v>
+        <v>1352</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>1343</v>
+        <v>1353</v>
       </c>
       <c r="D18" s="19">
         <v>2013</v>
@@ -16226,17 +16384,19 @@
         <v>64</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>1344</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="155.15" spans="1:6">
+        <v>1354</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H18" s="29"/>
+    </row>
+    <row r="19" s="29" customFormat="1" ht="155.15" spans="1:7">
       <c r="A19" s="19" t="s">
-        <v>1345</v>
+        <v>1356</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>1346</v>
+        <v>1357</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>237</v>
@@ -16248,16 +16408,19 @@
         <v>100</v>
       </c>
       <c r="F19" s="19"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="99" spans="1:6">
+      <c r="G19" s="29" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="20" s="29" customFormat="1" ht="197.55" spans="1:7">
       <c r="A20" s="19" t="s">
-        <v>1347</v>
+        <v>1359</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>1348</v>
+        <v>1360</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>1349</v>
+        <v>1361</v>
       </c>
       <c r="D20" s="19">
         <v>2013</v>
@@ -16266,16 +16429,19 @@
         <v>18</v>
       </c>
       <c r="F20" s="19"/>
-    </row>
-    <row r="21" customFormat="1" ht="211.7" spans="1:8">
+      <c r="G20" s="29" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="21" s="30" customFormat="1" ht="211.7" spans="1:8">
       <c r="A21" s="19" t="s">
-        <v>1350</v>
+        <v>1363</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>1351</v>
+        <v>1364</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>1352</v>
+        <v>1365</v>
       </c>
       <c r="D21" s="19">
         <v>2013</v>
@@ -16284,15 +16450,17 @@
         <v>15</v>
       </c>
       <c r="F21" s="19"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" customFormat="1" ht="99" spans="1:8">
+      <c r="G21" s="29" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H21" s="29"/>
+    </row>
+    <row r="22" s="30" customFormat="1" ht="99" spans="1:8">
       <c r="A22" s="19" t="s">
-        <v>1353</v>
+        <v>1367</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>1354</v>
+        <v>1368</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>1267</v>
@@ -16304,15 +16472,17 @@
         <v>12</v>
       </c>
       <c r="F22" s="19"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="70.7" spans="1:6">
+      <c r="G22" s="29" t="s">
+        <v>1369</v>
+      </c>
+      <c r="H22" s="29"/>
+    </row>
+    <row r="23" s="29" customFormat="1" ht="70.7" spans="1:6">
       <c r="A23" s="19" t="s">
-        <v>1355</v>
+        <v>1370</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>1356</v>
+        <v>1371</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>178</v>
@@ -16324,18 +16494,18 @@
         <v>1</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" ht="240" spans="1:8">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="24" s="30" customFormat="1" ht="240" spans="1:8">
       <c r="A24" s="19" t="s">
-        <v>1358</v>
+        <v>1373</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>1359</v>
+        <v>1374</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>1360</v>
+        <v>1375</v>
       </c>
       <c r="D24" s="19">
         <v>2013</v>
@@ -16344,15 +16514,17 @@
         <v>1</v>
       </c>
       <c r="F24" s="19"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" customFormat="1" ht="84.85" spans="1:8">
+      <c r="G24" s="29" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H24" s="29"/>
+    </row>
+    <row r="25" s="30" customFormat="1" ht="169.3" spans="1:8">
       <c r="A25" s="19" t="s">
-        <v>1361</v>
+        <v>1377</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>1362</v>
+        <v>1378</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>1231</v>
@@ -16364,17 +16536,19 @@
         <v>86</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>1363</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" customFormat="1" ht="113.15" spans="1:8">
+        <v>1379</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>1380</v>
+      </c>
+      <c r="H25" s="29"/>
+    </row>
+    <row r="26" s="30" customFormat="1" ht="113.15" spans="1:8">
       <c r="A26" s="19" t="s">
-        <v>1364</v>
+        <v>1381</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>1365</v>
+        <v>1382</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>45</v>
@@ -16386,15 +16560,17 @@
         <v>20</v>
       </c>
       <c r="F26" s="19"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="99" spans="1:6">
+      <c r="G26" s="29" t="s">
+        <v>1383</v>
+      </c>
+      <c r="H26" s="29"/>
+    </row>
+    <row r="27" s="29" customFormat="1" ht="99" spans="1:7">
       <c r="A27" s="19" t="s">
-        <v>1366</v>
+        <v>1384</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>1367</v>
+        <v>1385</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>654</v>
@@ -16406,15 +16582,18 @@
         <v>50</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" ht="84.85" spans="1:6">
+        <v>1386</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="28" s="30" customFormat="1" ht="84.85" spans="1:7">
       <c r="A28" s="19" t="s">
-        <v>1369</v>
+        <v>1388</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>1370</v>
+        <v>1389</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>1251</v>
@@ -16426,18 +16605,21 @@
         <v>60</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" ht="113.15" spans="1:8">
+        <v>1390</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="29" s="30" customFormat="1" ht="113.15" spans="1:8">
       <c r="A29" s="19" t="s">
-        <v>1372</v>
+        <v>1392</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>1373</v>
+        <v>1393</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>1374</v>
+        <v>1394</v>
       </c>
       <c r="D29" s="19">
         <v>2010</v>
@@ -16446,15 +16628,15 @@
         <v>1</v>
       </c>
       <c r="F29" s="19"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" customFormat="1" ht="84.85" spans="1:8">
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+    </row>
+    <row r="30" s="30" customFormat="1" ht="84.85" spans="1:8">
       <c r="A30" s="19" t="s">
-        <v>1375</v>
+        <v>1395</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>1376</v>
+        <v>1396</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>45</v>
@@ -16466,15 +16648,15 @@
         <v>2</v>
       </c>
       <c r="F30" s="19"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="70.7" spans="1:6">
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+    </row>
+    <row r="31" s="29" customFormat="1" ht="70.7" spans="1:6">
       <c r="A31" s="19" t="s">
-        <v>1377</v>
+        <v>1397</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>1378</v>
+        <v>1398</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>178</v>
@@ -16487,15 +16669,15 @@
       </c>
       <c r="F31" s="19"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="84.85" spans="1:8">
+    <row r="32" s="29" customFormat="1" ht="84.85" spans="1:8">
       <c r="A32" s="19" t="s">
-        <v>1379</v>
+        <v>1399</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>1380</v>
+        <v>1400</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>1381</v>
+        <v>1401</v>
       </c>
       <c r="D32" s="19">
         <v>2003</v>
@@ -16508,15 +16690,15 @@
         <v>377</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="84.85" spans="1:8">
+    <row r="33" s="29" customFormat="1" ht="84.85" spans="1:8">
       <c r="A33" s="19" t="s">
-        <v>1382</v>
+        <v>1402</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>1383</v>
+        <v>1403</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>1384</v>
+        <v>1404</v>
       </c>
       <c r="D33" s="19">
         <v>2001</v>
@@ -16527,15 +16709,15 @@
       <c r="F33" s="19"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" customFormat="1" ht="84.85" spans="1:8">
+    <row r="34" s="30" customFormat="1" ht="84.85" spans="1:8">
       <c r="A34" s="19" t="s">
-        <v>1385</v>
+        <v>1405</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>1386</v>
+        <v>1406</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>1387</v>
+        <v>1407</v>
       </c>
       <c r="D34" s="19">
         <v>1996</v>
@@ -16544,15 +16726,15 @@
         <v>1</v>
       </c>
       <c r="F34" s="19"/>
-      <c r="G34" s="1"/>
+      <c r="G34" s="29"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="125.05" spans="1:9">
+    <row r="35" s="29" customFormat="1" ht="125.05" spans="1:9">
       <c r="A35" s="5" t="s">
-        <v>1388</v>
+        <v>1408</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>1389</v>
+        <v>1409</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>45</v>
@@ -16567,40 +16749,40 @@
         <v>989</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>1390</v>
+        <v>1410</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" s="1" customFormat="1" ht="87.75" spans="1:7">
+    <row r="36" s="29" customFormat="1" ht="87.75" spans="1:7">
       <c r="A36" s="8" t="s">
-        <v>1391</v>
+        <v>1411</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>1392</v>
+        <v>1412</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>1393</v>
+        <v>1413</v>
       </c>
       <c r="D36" s="7">
         <v>2016</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>1394</v>
+        <v>1414</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>1012</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="87.75" spans="1:7">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="37" s="29" customFormat="1" ht="87.75" spans="1:7">
       <c r="A37" s="17" t="s">
-        <v>1396</v>
+        <v>1416</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>1397</v>
+        <v>1417</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>779</v>
@@ -16609,21 +16791,21 @@
         <v>2015</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>1398</v>
+        <v>1418</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>971</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="75.3" spans="1:7">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="38" s="29" customFormat="1" ht="75.3" spans="1:7">
       <c r="A38" s="17" t="s">
-        <v>1399</v>
+        <v>1419</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>1400</v>
+        <v>1420</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>1140</v>
@@ -16632,21 +16814,21 @@
         <v>2015</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>1401</v>
+        <v>1421</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>822</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="39" s="2" customFormat="1" ht="87.75" spans="1:7">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="39" s="31" customFormat="1" ht="87.75" spans="1:7">
       <c r="A39" s="13" t="s">
-        <v>1403</v>
+        <v>1423</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>1404</v>
+        <v>1424</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>35</v>
@@ -16655,68 +16837,68 @@
         <v>2016</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>1405</v>
+        <v>1425</v>
       </c>
       <c r="F39" s="16" t="s">
         <v>1020</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="40" s="3" customFormat="1" ht="100.2" spans="1:8">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="40" s="32" customFormat="1" ht="100.2" spans="1:8">
       <c r="A40" s="13" t="s">
-        <v>1407</v>
+        <v>1427</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>1408</v>
+        <v>1428</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1307</v>
+        <v>1313</v>
       </c>
       <c r="D40" s="15">
         <v>2015</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>1409</v>
+        <v>1429</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>1410</v>
-      </c>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" s="2" customFormat="1" ht="62.9" spans="1:7">
+        <v>1430</v>
+      </c>
+      <c r="H40" s="31"/>
+    </row>
+    <row r="41" s="31" customFormat="1" ht="100.2" spans="1:7">
       <c r="A41" s="13" t="s">
-        <v>1411</v>
+        <v>1431</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>1412</v>
+        <v>1432</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>1413</v>
+        <v>1433</v>
       </c>
       <c r="D41" s="15">
         <v>2015</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>1414</v>
+        <v>1434</v>
       </c>
       <c r="F41" s="16" t="s">
         <v>401</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="42" s="3" customFormat="1" ht="100.2" spans="1:8">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="42" s="32" customFormat="1" ht="100.2" spans="1:8">
       <c r="A42" s="13" t="s">
-        <v>1416</v>
+        <v>1436</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>1417</v>
+        <v>1437</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>1267</v>
@@ -16731,19 +16913,19 @@
         <v>93</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>1418</v>
-      </c>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" s="24" customFormat="1" ht="62.9" spans="1:8">
-      <c r="A43" s="32" t="s">
-        <v>1419</v>
-      </c>
-      <c r="B43" s="33" t="s">
-        <v>1420</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>1421</v>
+        <v>1438</v>
+      </c>
+      <c r="H42" s="31"/>
+    </row>
+    <row r="43" s="33" customFormat="1" ht="62.9" spans="1:8">
+      <c r="A43" s="38" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B43" s="39" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>1441</v>
       </c>
       <c r="D43" s="25">
         <v>2016</v>
@@ -16755,44 +16937,44 @@
         <v>93</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>1422</v>
-      </c>
-      <c r="H43" s="24" t="s">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="44" s="24" customFormat="1" ht="50.45" spans="1:7">
-      <c r="A44" s="32" t="s">
-        <v>1424</v>
-      </c>
-      <c r="B44" s="33" t="s">
-        <v>1425</v>
-      </c>
-      <c r="C44" s="33" t="s">
-        <v>1426</v>
+        <v>1442</v>
+      </c>
+      <c r="H43" s="33" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="44" s="33" customFormat="1" ht="50.45" spans="1:7">
+      <c r="A44" s="38" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B44" s="39" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>1446</v>
       </c>
       <c r="D44" s="25">
         <v>2016</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>1427</v>
+        <v>1447</v>
       </c>
       <c r="F44" s="25" t="s">
         <v>4</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="45" s="4" customFormat="1" ht="42.45" spans="1:8">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="45" s="34" customFormat="1" ht="42.45" spans="1:8">
       <c r="A45" s="26" t="s">
-        <v>1429</v>
+        <v>1449</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>1430</v>
+        <v>1450</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>1431</v>
+        <v>1451</v>
       </c>
       <c r="D45" s="26">
         <v>2005</v>
@@ -16801,9 +16983,9 @@
         <v>3</v>
       </c>
       <c r="F45" s="26"/>
-      <c r="G45" s="24"/>
+      <c r="G45" s="33"/>
       <c r="H45" s="25" t="s">
-        <v>1432</v>
+        <v>1452</v>
       </c>
     </row>
   </sheetData>
@@ -16917,10 +17099,10 @@
   <sheetData>
     <row r="1" customFormat="1" ht="62.15" spans="1:8">
       <c r="A1" s="5" t="s">
-        <v>1433</v>
+        <v>1453</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1434</v>
+        <v>1454</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>865</v>
@@ -16929,92 +17111,92 @@
         <v>2016</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>1435</v>
+        <v>1455</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>1436</v>
+        <v>1456</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>1437</v>
+        <v>1457</v>
       </c>
       <c r="H1" s="1"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="49.7" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>1438</v>
+        <v>1458</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1439</v>
+        <v>1459</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>1440</v>
+        <v>1460</v>
       </c>
       <c r="D2" s="7">
         <v>2016</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1441</v>
+        <v>1461</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>1442</v>
+        <v>1462</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>1443</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="49.7" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>1444</v>
+        <v>1464</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1445</v>
+        <v>1465</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>1446</v>
+        <v>1466</v>
       </c>
       <c r="D3" s="7">
         <v>2016</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1447</v>
+        <v>1467</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>1136</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>1448</v>
+        <v>1468</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="75.3" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>1449</v>
+        <v>1469</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1450</v>
+        <v>1470</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>1451</v>
+        <v>1471</v>
       </c>
       <c r="D4" s="7">
         <v>2016</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>1452</v>
+        <v>1472</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>1453</v>
+        <v>1473</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>1454</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="62.9" spans="1:7">
       <c r="A5" s="8" t="s">
-        <v>1455</v>
+        <v>1475</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>1456</v>
+        <v>1476</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>1185</v>
@@ -17023,159 +17205,159 @@
         <v>2016</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1457</v>
+        <v>1477</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>1458</v>
+        <v>1478</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>1448</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="75.3" spans="1:7">
       <c r="A6" s="13" t="s">
-        <v>1459</v>
+        <v>1479</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>1460</v>
+        <v>1480</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1461</v>
+        <v>1481</v>
       </c>
       <c r="D6" s="15">
         <v>2016</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>1462</v>
+        <v>1482</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>416</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>1463</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="38.05" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>1464</v>
+        <v>1484</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1465</v>
+        <v>1485</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>1466</v>
+        <v>1486</v>
       </c>
       <c r="D7" s="7">
         <v>2016</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1467</v>
+        <v>1487</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>358</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>1468</v>
+        <v>1488</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="38.05" spans="1:7">
       <c r="A8" s="8" t="s">
-        <v>1469</v>
+        <v>1489</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1470</v>
+        <v>1490</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>1471</v>
+        <v>1491</v>
       </c>
       <c r="D8" s="7">
         <v>2016</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1472</v>
+        <v>1492</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>1033</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>1448</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="125.05" spans="1:7">
       <c r="A9" s="8" t="s">
-        <v>1473</v>
+        <v>1493</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1474</v>
+        <v>1494</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1475</v>
+        <v>1495</v>
       </c>
       <c r="D9" s="7">
         <v>2016</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1476</v>
+        <v>1496</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>841</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>1477</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="75.3" spans="1:7">
       <c r="A10" s="10" t="s">
-        <v>1478</v>
+        <v>1498</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>865</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1479</v>
+        <v>1499</v>
       </c>
       <c r="D10" s="7">
         <v>2015</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1480</v>
+        <v>1500</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>1442</v>
+        <v>1462</v>
       </c>
       <c r="G10" s="7"/>
     </row>
     <row r="11" customFormat="1" ht="50.45" spans="1:8">
       <c r="A11" s="8" t="s">
-        <v>1481</v>
+        <v>1501</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1482</v>
+        <v>1502</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1483</v>
+        <v>1503</v>
       </c>
       <c r="D11" s="7">
         <v>2015</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1484</v>
+        <v>1504</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>1263</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>1485</v>
+        <v>1505</v>
       </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" customFormat="1" ht="62.9" spans="1:8">
       <c r="A12" s="17" t="s">
-        <v>1486</v>
+        <v>1506</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>1487</v>
+        <v>1507</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>814</v>
@@ -17190,42 +17372,42 @@
         <v>1273</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>1488</v>
+        <v>1508</v>
       </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="50.45" spans="1:7">
       <c r="A13" s="17" t="s">
-        <v>1489</v>
+        <v>1509</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>1490</v>
+        <v>1510</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>1307</v>
+        <v>1313</v>
       </c>
       <c r="D13" s="7">
         <v>2015</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>1491</v>
+        <v>1511</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>787</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>1492</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="75.3" spans="1:7">
       <c r="A14" s="17" t="s">
-        <v>1493</v>
+        <v>1513</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>1494</v>
+        <v>1514</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>1307</v>
+        <v>1313</v>
       </c>
       <c r="D14" s="7">
         <v>2015</v>
@@ -17237,18 +17419,18 @@
         <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>1495</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="70.7" spans="1:8">
       <c r="A15" s="19" t="s">
-        <v>1496</v>
+        <v>1516</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>1497</v>
+        <v>1517</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>1498</v>
+        <v>1518</v>
       </c>
       <c r="D15" s="19">
         <v>2014</v>
@@ -17262,10 +17444,10 @@
     </row>
     <row r="16" customFormat="1" ht="70.7" spans="1:8">
       <c r="A16" s="19" t="s">
-        <v>1499</v>
+        <v>1519</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>1500</v>
+        <v>1520</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>267</v>
@@ -17282,13 +17464,13 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="70.7" spans="1:6">
       <c r="A17" s="19" t="s">
-        <v>1501</v>
+        <v>1521</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>1502</v>
+        <v>1522</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>1503</v>
+        <v>1523</v>
       </c>
       <c r="D17" s="19">
         <v>2014</v>
@@ -17300,10 +17482,10 @@
     </row>
     <row r="18" customFormat="1" ht="56.55" spans="1:8">
       <c r="A18" s="19" t="s">
-        <v>1504</v>
+        <v>1524</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>1505</v>
+        <v>1525</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>654</v>
@@ -17320,10 +17502,10 @@
     </row>
     <row r="19" customFormat="1" ht="56.55" spans="1:8">
       <c r="A19" s="19" t="s">
-        <v>1506</v>
+        <v>1526</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>1507</v>
+        <v>1527</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>512</v>
@@ -17340,13 +17522,13 @@
     </row>
     <row r="20" s="1" customFormat="1" ht="70.7" spans="1:7">
       <c r="A20" s="19" t="s">
-        <v>1508</v>
+        <v>1528</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>1509</v>
+        <v>1529</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>1510</v>
+        <v>1530</v>
       </c>
       <c r="D20" s="19">
         <v>2014</v>
@@ -17358,18 +17540,18 @@
         <v>951</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>1511</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="70.7" spans="1:8">
       <c r="A21" s="19" t="s">
-        <v>1512</v>
+        <v>1532</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>1513</v>
+        <v>1533</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>1514</v>
+        <v>1534</v>
       </c>
       <c r="D21" s="19">
         <v>2014</v>
@@ -17383,10 +17565,10 @@
     </row>
     <row r="22" s="4" customFormat="1" ht="84.85" spans="1:8">
       <c r="A22" s="26" t="s">
-        <v>1515</v>
+        <v>1535</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>1516</v>
+        <v>1536</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>441</v>
@@ -17399,19 +17581,19 @@
       </c>
       <c r="F22" s="26"/>
       <c r="G22" s="24" t="s">
-        <v>1517</v>
+        <v>1537</v>
       </c>
       <c r="H22" s="24"/>
     </row>
     <row r="23" customFormat="1" ht="56.55" spans="1:8">
       <c r="A23" s="19" t="s">
-        <v>1518</v>
+        <v>1538</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>1519</v>
+        <v>1539</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>1520</v>
+        <v>1540</v>
       </c>
       <c r="D23" s="19">
         <v>2014</v>
@@ -17425,13 +17607,13 @@
     </row>
     <row r="24" customFormat="1" ht="99" spans="1:8">
       <c r="A24" s="19" t="s">
-        <v>1521</v>
+        <v>1541</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>1522</v>
+        <v>1542</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>1523</v>
+        <v>1543</v>
       </c>
       <c r="D24" s="19">
         <v>2013</v>
@@ -17440,20 +17622,20 @@
         <v>83</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>1524</v>
+        <v>1544</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" customFormat="1" ht="56.55" spans="1:8">
       <c r="A25" s="19" t="s">
-        <v>1525</v>
+        <v>1545</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>1526</v>
+        <v>1546</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>1527</v>
+        <v>1547</v>
       </c>
       <c r="D25" s="19">
         <v>2013</v>
@@ -17467,10 +17649,10 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="70.7" spans="1:6">
       <c r="A26" s="19" t="s">
-        <v>1528</v>
+        <v>1548</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>1529</v>
+        <v>1549</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>657</v>
@@ -17485,10 +17667,10 @@
     </row>
     <row r="27" customFormat="1" ht="70.7" spans="1:8">
       <c r="A27" s="19" t="s">
-        <v>1530</v>
+        <v>1550</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>1531</v>
+        <v>1551</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>178</v>
@@ -17505,13 +17687,13 @@
     </row>
     <row r="28" customFormat="1" ht="70.7" spans="1:8">
       <c r="A28" s="19" t="s">
-        <v>1532</v>
+        <v>1552</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>1533</v>
+        <v>1553</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>1498</v>
+        <v>1518</v>
       </c>
       <c r="D28" s="19">
         <v>2013</v>
@@ -17525,10 +17707,10 @@
     </row>
     <row r="29" customFormat="1" ht="70.7" spans="1:8">
       <c r="A29" s="19" t="s">
-        <v>1534</v>
+        <v>1554</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>1535</v>
+        <v>1555</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>512</v>
@@ -17545,13 +17727,13 @@
     </row>
     <row r="30" customFormat="1" ht="56.55" spans="1:8">
       <c r="A30" s="19" t="s">
-        <v>1536</v>
+        <v>1556</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>1537</v>
+        <v>1557</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>1538</v>
+        <v>1558</v>
       </c>
       <c r="D30" s="19">
         <v>2012</v>
@@ -17560,17 +17742,17 @@
         <v>162</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>1539</v>
+        <v>1559</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="70.7" spans="1:6">
       <c r="A31" s="19" t="s">
-        <v>1540</v>
+        <v>1560</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>1541</v>
+        <v>1561</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>497</v>
@@ -17582,15 +17764,15 @@
         <v>69</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>1542</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="56.55" spans="1:8">
       <c r="A32" s="19" t="s">
-        <v>1543</v>
+        <v>1563</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>1544</v>
+        <v>1564</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>229</v>
@@ -17607,13 +17789,13 @@
     </row>
     <row r="33" customFormat="1" ht="42.45" spans="1:8">
       <c r="A33" s="19" t="s">
-        <v>1545</v>
+        <v>1565</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>1546</v>
+        <v>1566</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>1547</v>
+        <v>1567</v>
       </c>
       <c r="D33" s="19">
         <v>2012</v>
@@ -17627,13 +17809,13 @@
     </row>
     <row r="34" customFormat="1" ht="56.55" spans="1:8">
       <c r="A34" s="19" t="s">
-        <v>1548</v>
+        <v>1568</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>1549</v>
+        <v>1569</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>1550</v>
+        <v>1570</v>
       </c>
       <c r="D34" s="19">
         <v>2012</v>
@@ -17647,13 +17829,13 @@
     </row>
     <row r="35" customFormat="1" ht="84.85" spans="1:8">
       <c r="A35" s="19" t="s">
-        <v>1551</v>
+        <v>1571</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>1552</v>
+        <v>1572</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>1553</v>
+        <v>1573</v>
       </c>
       <c r="D35" s="19">
         <v>2012</v>
@@ -17667,13 +17849,13 @@
     </row>
     <row r="36" customFormat="1" ht="84.85" spans="1:8">
       <c r="A36" s="19" t="s">
-        <v>1554</v>
+        <v>1574</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>1555</v>
+        <v>1575</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D36" s="19">
         <v>2012</v>
@@ -17687,13 +17869,13 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="42.45" spans="1:6">
       <c r="A37" s="19" t="s">
-        <v>1556</v>
+        <v>1576</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>1557</v>
+        <v>1577</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>1558</v>
+        <v>1578</v>
       </c>
       <c r="D37" s="19">
         <v>2012</v>
@@ -17705,10 +17887,10 @@
     </row>
     <row r="38" s="1" customFormat="1" ht="99" spans="1:6">
       <c r="A38" s="19" t="s">
-        <v>1559</v>
+        <v>1579</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>1560</v>
+        <v>1580</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>178</v>
@@ -17723,13 +17905,13 @@
     </row>
     <row r="39" customFormat="1" ht="42.45" spans="1:8">
       <c r="A39" s="19" t="s">
-        <v>1561</v>
+        <v>1581</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>1562</v>
+        <v>1582</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>1563</v>
+        <v>1583</v>
       </c>
       <c r="D39" s="19">
         <v>2012</v>
@@ -17743,13 +17925,13 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="70.7" spans="1:6">
       <c r="A40" s="19" t="s">
-        <v>1564</v>
+        <v>1584</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>1565</v>
+        <v>1585</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>1566</v>
+        <v>1586</v>
       </c>
       <c r="D40" s="19">
         <v>2011</v>
@@ -17761,13 +17943,13 @@
     </row>
     <row r="41" s="1" customFormat="1" ht="84.85" spans="1:6">
       <c r="A41" s="19" t="s">
-        <v>1567</v>
+        <v>1587</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>1568</v>
+        <v>1588</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>1569</v>
+        <v>1589</v>
       </c>
       <c r="D41" s="19">
         <v>2011</v>
@@ -17779,13 +17961,13 @@
     </row>
     <row r="42" customFormat="1" ht="56.55" spans="1:8">
       <c r="A42" s="19" t="s">
-        <v>1570</v>
+        <v>1590</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>1571</v>
+        <v>1591</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>1572</v>
+        <v>1592</v>
       </c>
       <c r="D42" s="19">
         <v>2011</v>
@@ -17799,10 +17981,10 @@
     </row>
     <row r="43" s="1" customFormat="1" ht="56.55" spans="1:6">
       <c r="A43" s="19" t="s">
-        <v>1573</v>
+        <v>1593</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>1574</v>
+        <v>1594</v>
       </c>
       <c r="C43" s="19" t="s">
         <v>1251</v>
@@ -17817,13 +17999,13 @@
     </row>
     <row r="44" customFormat="1" ht="70.7" spans="1:8">
       <c r="A44" s="19" t="s">
-        <v>1575</v>
+        <v>1595</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>1576</v>
+        <v>1596</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>1547</v>
+        <v>1567</v>
       </c>
       <c r="D44" s="19">
         <v>2011</v>
@@ -17837,13 +18019,13 @@
     </row>
     <row r="45" customFormat="1" ht="42.45" spans="1:8">
       <c r="A45" s="19" t="s">
-        <v>1577</v>
+        <v>1597</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>1578</v>
+        <v>1598</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>1579</v>
+        <v>1599</v>
       </c>
       <c r="D45" s="19">
         <v>2011</v>
@@ -17857,13 +18039,13 @@
     </row>
     <row r="46" s="1" customFormat="1" ht="56.55" spans="1:6">
       <c r="A46" s="19" t="s">
-        <v>1580</v>
+        <v>1600</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>1581</v>
+        <v>1601</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>1582</v>
+        <v>1602</v>
       </c>
       <c r="D46" s="19">
         <v>2011</v>
@@ -17875,13 +18057,13 @@
     </row>
     <row r="47" customFormat="1" ht="56.55" spans="1:8">
       <c r="A47" s="19" t="s">
-        <v>1583</v>
+        <v>1603</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>1584</v>
+        <v>1604</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>1585</v>
+        <v>1605</v>
       </c>
       <c r="D47" s="19">
         <v>2011</v>
@@ -17895,13 +18077,13 @@
     </row>
     <row r="48" customFormat="1" ht="42.45" spans="1:8">
       <c r="A48" s="19" t="s">
-        <v>1586</v>
+        <v>1606</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>1587</v>
+        <v>1607</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>1588</v>
+        <v>1608</v>
       </c>
       <c r="D48" s="19">
         <v>2011</v>
@@ -17915,10 +18097,10 @@
     </row>
     <row r="49" customFormat="1" ht="42.45" spans="1:8">
       <c r="A49" s="19" t="s">
-        <v>1589</v>
+        <v>1609</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>1590</v>
+        <v>1610</v>
       </c>
       <c r="C49" s="19" t="s">
         <v>1257</v>
@@ -17935,10 +18117,10 @@
     </row>
     <row r="50" customFormat="1" ht="42.45" spans="1:8">
       <c r="A50" s="19" t="s">
-        <v>1591</v>
+        <v>1611</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>1592</v>
+        <v>1612</v>
       </c>
       <c r="C50" s="19" t="s">
         <v>438</v>
@@ -17955,13 +18137,13 @@
     </row>
     <row r="51" s="1" customFormat="1" ht="42.45" spans="1:6">
       <c r="A51" s="19" t="s">
-        <v>1545</v>
+        <v>1565</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>1593</v>
+        <v>1613</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>1547</v>
+        <v>1567</v>
       </c>
       <c r="D51" s="19">
         <v>2011</v>
@@ -17973,10 +18155,10 @@
     </row>
     <row r="52" s="1" customFormat="1" ht="56.55" spans="1:6">
       <c r="A52" s="19" t="s">
-        <v>1594</v>
+        <v>1614</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>1595</v>
+        <v>1615</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>1093</v>
@@ -17991,13 +18173,13 @@
     </row>
     <row r="53" customFormat="1" ht="70.7" spans="1:6">
       <c r="A53" s="19" t="s">
-        <v>1596</v>
+        <v>1616</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>1597</v>
+        <v>1617</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>1598</v>
+        <v>1618</v>
       </c>
       <c r="D53" s="19">
         <v>2010</v>
@@ -18006,18 +18188,18 @@
         <v>132</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>1599</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="54" customFormat="1" ht="84.85" spans="1:8">
       <c r="A54" s="19" t="s">
-        <v>1600</v>
+        <v>1620</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>1601</v>
+        <v>1621</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>1602</v>
+        <v>1622</v>
       </c>
       <c r="D54" s="19">
         <v>2010</v>
@@ -18031,13 +18213,13 @@
     </row>
     <row r="55" customFormat="1" ht="99" spans="1:8">
       <c r="A55" s="19" t="s">
-        <v>1603</v>
+        <v>1623</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>1604</v>
+        <v>1624</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>1335</v>
+        <v>1344</v>
       </c>
       <c r="D55" s="19">
         <v>2010</v>
@@ -18051,13 +18233,13 @@
     </row>
     <row r="56" s="1" customFormat="1" ht="56.55" spans="1:6">
       <c r="A56" s="19" t="s">
-        <v>1605</v>
+        <v>1625</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>1597</v>
+        <v>1617</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>1566</v>
+        <v>1586</v>
       </c>
       <c r="D56" s="19">
         <v>2010</v>
@@ -18069,10 +18251,10 @@
     </row>
     <row r="57" customFormat="1" ht="56.55" spans="1:8">
       <c r="A57" s="19" t="s">
-        <v>1606</v>
+        <v>1626</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>1607</v>
+        <v>1627</v>
       </c>
       <c r="C57" s="19" t="s">
         <v>1093</v>
@@ -18089,10 +18271,10 @@
     </row>
     <row r="58" customFormat="1" ht="56.55" spans="1:8">
       <c r="A58" s="19" t="s">
-        <v>1608</v>
+        <v>1628</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>1609</v>
+        <v>1629</v>
       </c>
       <c r="C58" s="19" t="s">
         <v>438</v>
@@ -18109,13 +18291,13 @@
     </row>
     <row r="59" s="1" customFormat="1" ht="99" spans="1:6">
       <c r="A59" s="19" t="s">
-        <v>1610</v>
+        <v>1630</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>1611</v>
+        <v>1631</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>1563</v>
+        <v>1583</v>
       </c>
       <c r="D59" s="19">
         <v>2010</v>
@@ -18127,13 +18309,13 @@
     </row>
     <row r="60" s="1" customFormat="1" ht="56.55" spans="1:6">
       <c r="A60" s="19" t="s">
-        <v>1612</v>
+        <v>1632</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>1613</v>
+        <v>1633</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>1614</v>
+        <v>1634</v>
       </c>
       <c r="D60" s="19">
         <v>2010</v>
@@ -18145,10 +18327,10 @@
     </row>
     <row r="61" s="1" customFormat="1" ht="99" spans="1:6">
       <c r="A61" s="19" t="s">
-        <v>1615</v>
+        <v>1635</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>1616</v>
+        <v>1636</v>
       </c>
       <c r="C61" s="19" t="s">
         <v>205</v>
@@ -18163,13 +18345,13 @@
     </row>
     <row r="62" customFormat="1" ht="84.85" spans="1:8">
       <c r="A62" s="19" t="s">
-        <v>1617</v>
+        <v>1637</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>1618</v>
+        <v>1638</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>1619</v>
+        <v>1639</v>
       </c>
       <c r="D62" s="19">
         <v>2009</v>
@@ -18183,10 +18365,10 @@
     </row>
     <row r="63" customFormat="1" ht="99" spans="1:8">
       <c r="A63" s="19" t="s">
-        <v>1620</v>
+        <v>1640</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>1621</v>
+        <v>1641</v>
       </c>
       <c r="C63" s="19" t="s">
         <v>181</v>
@@ -18203,10 +18385,10 @@
     </row>
     <row r="64" s="1" customFormat="1" ht="42.45" spans="1:6">
       <c r="A64" s="19" t="s">
-        <v>1622</v>
+        <v>1642</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>1623</v>
+        <v>1643</v>
       </c>
       <c r="C64" s="19" t="s">
         <v>906</v>
@@ -18221,10 +18403,10 @@
     </row>
     <row r="65" customFormat="1" ht="70.7" spans="1:8">
       <c r="A65" s="19" t="s">
-        <v>1624</v>
+        <v>1644</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>1625</v>
+        <v>1645</v>
       </c>
       <c r="C65" s="19" t="s">
         <v>229</v>
@@ -18241,10 +18423,10 @@
     </row>
     <row r="66" customFormat="1" ht="70.7" spans="1:8">
       <c r="A66" s="19" t="s">
-        <v>1626</v>
+        <v>1646</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>1627</v>
+        <v>1647</v>
       </c>
       <c r="C66" s="19" t="s">
         <v>509</v>
@@ -18261,13 +18443,13 @@
     </row>
     <row r="67" s="1" customFormat="1" ht="42.45" spans="1:6">
       <c r="A67" s="19" t="s">
-        <v>1628</v>
+        <v>1648</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>1629</v>
+        <v>1649</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>1572</v>
+        <v>1592</v>
       </c>
       <c r="D67" s="19">
         <v>2009</v>
@@ -18279,10 +18461,10 @@
     </row>
     <row r="68" s="1" customFormat="1" ht="56.55" spans="1:6">
       <c r="A68" s="19" t="s">
-        <v>1630</v>
+        <v>1650</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>1631</v>
+        <v>1651</v>
       </c>
       <c r="C68" s="19" t="s">
         <v>494</v>
@@ -18297,10 +18479,10 @@
     </row>
     <row r="69" s="1" customFormat="1" ht="42.45" spans="1:6">
       <c r="A69" s="19" t="s">
-        <v>1632</v>
+        <v>1652</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>1633</v>
+        <v>1653</v>
       </c>
       <c r="C69" s="19" t="s">
         <v>494</v>
@@ -18315,10 +18497,10 @@
     </row>
     <row r="70" s="1" customFormat="1" ht="70.7" spans="1:6">
       <c r="A70" s="19" t="s">
-        <v>1634</v>
+        <v>1654</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>1635</v>
+        <v>1655</v>
       </c>
       <c r="C70" s="19" t="s">
         <v>583</v>
@@ -18333,13 +18515,13 @@
     </row>
     <row r="71" s="1" customFormat="1" ht="70.7" spans="1:6">
       <c r="A71" s="19" t="s">
-        <v>1636</v>
+        <v>1656</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>1637</v>
+        <v>1657</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>1335</v>
+        <v>1344</v>
       </c>
       <c r="D71" s="19">
         <v>2008</v>
@@ -18351,13 +18533,13 @@
     </row>
     <row r="72" s="1" customFormat="1" ht="42.45" spans="1:6">
       <c r="A72" s="19" t="s">
-        <v>1638</v>
+        <v>1658</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>1639</v>
+        <v>1659</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>1640</v>
+        <v>1660</v>
       </c>
       <c r="D72" s="19">
         <v>2008</v>
@@ -18369,13 +18551,13 @@
     </row>
     <row r="73" s="1" customFormat="1" ht="42.45" spans="1:6">
       <c r="A73" s="19" t="s">
-        <v>1641</v>
+        <v>1661</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>1642</v>
+        <v>1662</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>1643</v>
+        <v>1663</v>
       </c>
       <c r="D73" s="19">
         <v>2008</v>
@@ -18387,13 +18569,13 @@
     </row>
     <row r="74" s="1" customFormat="1" ht="70.7" spans="1:6">
       <c r="A74" s="19" t="s">
-        <v>1644</v>
+        <v>1664</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>1645</v>
+        <v>1665</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>1328</v>
+        <v>1336</v>
       </c>
       <c r="D74" s="19">
         <v>2008</v>
@@ -18405,13 +18587,13 @@
     </row>
     <row r="75" s="1" customFormat="1" ht="56.55" spans="1:6">
       <c r="A75" s="19" t="s">
-        <v>1646</v>
+        <v>1666</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>1520</v>
+        <v>1540</v>
       </c>
       <c r="D75" s="19">
         <v>2008</v>
@@ -18423,10 +18605,10 @@
     </row>
     <row r="76" customFormat="1" ht="42.45" spans="1:8">
       <c r="A76" s="19" t="s">
-        <v>1648</v>
+        <v>1668</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>332</v>
@@ -18443,13 +18625,13 @@
     </row>
     <row r="77" s="1" customFormat="1" ht="42.45" spans="1:6">
       <c r="A77" s="19" t="s">
-        <v>1589</v>
+        <v>1609</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>1650</v>
+        <v>1670</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>1566</v>
+        <v>1586</v>
       </c>
       <c r="D77" s="19">
         <v>2008</v>
@@ -18461,10 +18643,10 @@
     </row>
     <row r="78" customFormat="1" ht="56.55" spans="1:8">
       <c r="A78" s="19" t="s">
-        <v>1651</v>
+        <v>1671</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="C78" s="19" t="s">
         <v>654</v>
@@ -18481,13 +18663,13 @@
     </row>
     <row r="79" customFormat="1" ht="56.55" spans="1:8">
       <c r="A79" s="19" t="s">
-        <v>1653</v>
+        <v>1673</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>1654</v>
+        <v>1674</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>1655</v>
+        <v>1675</v>
       </c>
       <c r="D79" s="19">
         <v>2007</v>
@@ -18501,10 +18683,10 @@
     </row>
     <row r="80" customFormat="1" ht="42.45" spans="1:8">
       <c r="A80" s="19" t="s">
-        <v>1656</v>
+        <v>1676</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>1657</v>
+        <v>1677</v>
       </c>
       <c r="C80" s="19" t="s">
         <v>205</v>
@@ -18521,13 +18703,13 @@
     </row>
     <row r="81" customFormat="1" ht="56.55" spans="1:8">
       <c r="A81" s="19" t="s">
-        <v>1658</v>
+        <v>1678</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>1659</v>
+        <v>1679</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>1660</v>
+        <v>1680</v>
       </c>
       <c r="D81" s="19">
         <v>2007</v>
@@ -18541,13 +18723,13 @@
     </row>
     <row r="82" s="1" customFormat="1" ht="42.45" spans="1:6">
       <c r="A82" s="19" t="s">
-        <v>1661</v>
+        <v>1681</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>1662</v>
+        <v>1682</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>1663</v>
+        <v>1683</v>
       </c>
       <c r="D82" s="19">
         <v>2007</v>
@@ -18559,13 +18741,13 @@
     </row>
     <row r="83" customFormat="1" ht="56.55" spans="1:8">
       <c r="A83" s="19" t="s">
-        <v>1664</v>
+        <v>1684</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>1665</v>
+        <v>1685</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>1666</v>
+        <v>1686</v>
       </c>
       <c r="D83" s="19">
         <v>2007</v>
@@ -18579,13 +18761,13 @@
     </row>
     <row r="84" s="1" customFormat="1" ht="56.55" spans="1:6">
       <c r="A84" s="19" t="s">
-        <v>1667</v>
+        <v>1687</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>1668</v>
+        <v>1688</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>1669</v>
+        <v>1689</v>
       </c>
       <c r="D84" s="19">
         <v>2007</v>
@@ -18597,10 +18779,10 @@
     </row>
     <row r="85" s="1" customFormat="1" ht="56.55" spans="1:6">
       <c r="A85" s="19" t="s">
-        <v>1670</v>
+        <v>1690</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>1671</v>
+        <v>1691</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>321</v>
@@ -18615,10 +18797,10 @@
     </row>
     <row r="86" s="1" customFormat="1" ht="42.45" spans="1:6">
       <c r="A86" s="19" t="s">
-        <v>1630</v>
+        <v>1650</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>1672</v>
+        <v>1692</v>
       </c>
       <c r="C86" s="19" t="s">
         <v>612</v>
@@ -18633,13 +18815,13 @@
     </row>
     <row r="87" s="1" customFormat="1" ht="113.15" spans="1:6">
       <c r="A87" s="19" t="s">
-        <v>1673</v>
+        <v>1693</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>1674</v>
+        <v>1694</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>1675</v>
+        <v>1695</v>
       </c>
       <c r="D87" s="19">
         <v>2006</v>
@@ -18651,10 +18833,10 @@
     </row>
     <row r="88" s="1" customFormat="1" ht="56.55" spans="1:6">
       <c r="A88" s="19" t="s">
-        <v>1676</v>
+        <v>1696</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>1677</v>
+        <v>1697</v>
       </c>
       <c r="C88" s="19" t="s">
         <v>205</v>
@@ -18669,13 +18851,13 @@
     </row>
     <row r="89" customFormat="1" ht="70.7" spans="1:8">
       <c r="A89" s="19" t="s">
-        <v>1678</v>
+        <v>1698</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>1679</v>
+        <v>1699</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>1680</v>
+        <v>1700</v>
       </c>
       <c r="D89" s="19">
         <v>2006</v>
@@ -18689,13 +18871,13 @@
     </row>
     <row r="90" customFormat="1" ht="56.55" spans="1:8">
       <c r="A90" s="19" t="s">
-        <v>1681</v>
+        <v>1701</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>1682</v>
+        <v>1702</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>1683</v>
+        <v>1703</v>
       </c>
       <c r="D90" s="19">
         <v>2006</v>
@@ -18709,10 +18891,10 @@
     </row>
     <row r="91" s="1" customFormat="1" ht="56.55" spans="1:6">
       <c r="A91" s="19" t="s">
-        <v>1684</v>
+        <v>1704</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>1685</v>
+        <v>1705</v>
       </c>
       <c r="C91" s="19" t="s">
         <v>197</v>
@@ -18727,10 +18909,10 @@
     </row>
     <row r="92" s="1" customFormat="1" ht="42.45" spans="1:6">
       <c r="A92" s="19" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>1687</v>
+        <v>1707</v>
       </c>
       <c r="C92" s="19" t="s">
         <v>1257</v>
@@ -18745,13 +18927,13 @@
     </row>
     <row r="93" s="1" customFormat="1" ht="56.55" spans="1:9">
       <c r="A93" s="19" t="s">
-        <v>1688</v>
+        <v>1708</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>1689</v>
+        <v>1709</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>1690</v>
+        <v>1710</v>
       </c>
       <c r="D93" s="19">
         <v>2006</v>
@@ -18764,10 +18946,10 @@
     </row>
     <row r="94" s="1" customFormat="1" ht="56.55" spans="1:6">
       <c r="A94" s="19" t="s">
-        <v>1691</v>
+        <v>1711</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>1692</v>
+        <v>1712</v>
       </c>
       <c r="C94" s="19" t="s">
         <v>254</v>
@@ -18782,10 +18964,10 @@
     </row>
     <row r="95" s="1" customFormat="1" ht="56.55" spans="1:6">
       <c r="A95" s="19" t="s">
-        <v>1693</v>
+        <v>1713</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>1694</v>
+        <v>1714</v>
       </c>
       <c r="C95" s="19" t="s">
         <v>536</v>
@@ -18800,10 +18982,10 @@
     </row>
     <row r="96" customFormat="1" ht="70.7" spans="1:8">
       <c r="A96" s="19" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>1696</v>
+        <v>1716</v>
       </c>
       <c r="C96" s="19" t="s">
         <v>648</v>
@@ -18820,10 +19002,10 @@
     </row>
     <row r="97" s="1" customFormat="1" ht="84.85" spans="1:6">
       <c r="A97" s="19" t="s">
-        <v>1697</v>
+        <v>1717</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>1698</v>
+        <v>1718</v>
       </c>
       <c r="C97" s="19" t="s">
         <v>205</v>
@@ -18838,13 +19020,13 @@
     </row>
     <row r="98" customFormat="1" ht="56.55" spans="1:7">
       <c r="A98" s="19" t="s">
-        <v>1699</v>
+        <v>1719</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>1700</v>
+        <v>1720</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>1701</v>
+        <v>1721</v>
       </c>
       <c r="D98" s="19">
         <v>2005</v>
@@ -18857,13 +19039,13 @@
     </row>
     <row r="99" s="1" customFormat="1" ht="42.45" spans="1:6">
       <c r="A99" s="19" t="s">
-        <v>1702</v>
+        <v>1722</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>1703</v>
+        <v>1723</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>1704</v>
+        <v>1724</v>
       </c>
       <c r="D99" s="19">
         <v>2004</v>
@@ -18875,13 +19057,13 @@
     </row>
     <row r="100" s="4" customFormat="1" ht="56.55" spans="1:7">
       <c r="A100" s="26" t="s">
-        <v>1705</v>
+        <v>1725</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>1706</v>
+        <v>1726</v>
       </c>
       <c r="C100" s="26" t="s">
-        <v>1707</v>
+        <v>1727</v>
       </c>
       <c r="D100" s="26">
         <v>2004</v>
@@ -18896,13 +19078,13 @@
     </row>
     <row r="101" customFormat="1" ht="56.55" spans="1:8">
       <c r="A101" s="19" t="s">
-        <v>1708</v>
+        <v>1728</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>1709</v>
+        <v>1729</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>1710</v>
+        <v>1730</v>
       </c>
       <c r="D101" s="19">
         <v>2003</v>
@@ -18916,13 +19098,13 @@
     </row>
     <row r="102" customFormat="1" ht="42.45" spans="1:8">
       <c r="A102" s="19" t="s">
-        <v>1664</v>
+        <v>1684</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>1711</v>
+        <v>1731</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="D102" s="19">
         <v>2003</v>
@@ -18936,10 +19118,10 @@
     </row>
     <row r="103" s="1" customFormat="1" ht="70.7" spans="1:8">
       <c r="A103" s="19" t="s">
-        <v>1664</v>
+        <v>1684</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>1713</v>
+        <v>1733</v>
       </c>
       <c r="C103" s="19" t="s">
         <v>202</v>
@@ -18955,13 +19137,13 @@
     </row>
     <row r="104" s="1" customFormat="1" ht="70.7" spans="1:8">
       <c r="A104" s="19" t="s">
-        <v>1714</v>
+        <v>1734</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="D104" s="19">
         <v>2003</v>
@@ -18974,13 +19156,13 @@
     </row>
     <row r="105" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A105" s="19" t="s">
-        <v>1717</v>
+        <v>1737</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>1718</v>
+        <v>1738</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>1719</v>
+        <v>1739</v>
       </c>
       <c r="D105" s="19">
         <v>2002</v>
@@ -18993,10 +19175,10 @@
     </row>
     <row r="106" customFormat="1" ht="70.7" spans="1:8">
       <c r="A106" s="19" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>1721</v>
+        <v>1741</v>
       </c>
       <c r="C106" s="19" t="s">
         <v>220</v>
@@ -19013,13 +19195,13 @@
     </row>
     <row r="107" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A107" s="19" t="s">
-        <v>1722</v>
+        <v>1742</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>1724</v>
+        <v>1744</v>
       </c>
       <c r="D107" s="19">
         <v>2000</v>
@@ -19032,10 +19214,10 @@
     </row>
     <row r="108" customFormat="1" ht="42.45" spans="1:8">
       <c r="A108" s="19" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>1726</v>
+        <v>1746</v>
       </c>
       <c r="C108" s="19" t="s">
         <v>1267</v>
@@ -19052,10 +19234,10 @@
     </row>
     <row r="109" customFormat="1" ht="42.45" spans="1:8">
       <c r="A109" s="19" t="s">
-        <v>1727</v>
+        <v>1747</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>1728</v>
+        <v>1748</v>
       </c>
       <c r="C109" s="19" t="s">
         <v>1093</v>
@@ -19072,13 +19254,13 @@
     </row>
     <row r="110" s="1" customFormat="1" ht="70.7" spans="1:8">
       <c r="A110" s="19" t="s">
-        <v>1729</v>
+        <v>1749</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>1730</v>
+        <v>1750</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>1731</v>
+        <v>1751</v>
       </c>
       <c r="D110" s="19">
         <v>1996</v>
@@ -19091,10 +19273,10 @@
     </row>
     <row r="111" customFormat="1" ht="42.45" spans="1:8">
       <c r="A111" s="19" t="s">
-        <v>1732</v>
+        <v>1752</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>1733</v>
+        <v>1753</v>
       </c>
       <c r="C111" s="19" t="s">
         <v>906</v>
@@ -19111,13 +19293,13 @@
     </row>
     <row r="112" customFormat="1" ht="42.45" spans="1:8">
       <c r="A112" s="19" t="s">
-        <v>1734</v>
+        <v>1754</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>1735</v>
+        <v>1755</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>1498</v>
+        <v>1518</v>
       </c>
       <c r="D112" s="19">
         <v>1995</v>
@@ -19131,13 +19313,13 @@
     </row>
     <row r="113" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A113" s="19" t="s">
-        <v>1736</v>
+        <v>1756</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>1737</v>
+        <v>1757</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>1738</v>
+        <v>1758</v>
       </c>
       <c r="D113" s="19">
         <v>1994</v>
@@ -19150,13 +19332,13 @@
     </row>
     <row r="114" customFormat="1" ht="56.55" spans="1:8">
       <c r="A114" s="19" t="s">
-        <v>1739</v>
+        <v>1759</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>1740</v>
+        <v>1760</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>1741</v>
+        <v>1761</v>
       </c>
       <c r="D114" s="19">
         <v>1993</v>
@@ -19170,13 +19352,13 @@
     </row>
     <row r="115" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A115" s="19" t="s">
-        <v>1742</v>
+        <v>1762</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>1743</v>
+        <v>1763</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>1744</v>
+        <v>1764</v>
       </c>
       <c r="D115" s="19">
         <v>1993</v>
@@ -19189,13 +19371,13 @@
     </row>
     <row r="116" customFormat="1" ht="42.45" spans="1:8">
       <c r="A116" s="19" t="s">
-        <v>1745</v>
+        <v>1765</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>1747</v>
+        <v>1767</v>
       </c>
       <c r="D116" s="19">
         <v>1991</v>
@@ -19209,10 +19391,10 @@
     </row>
     <row r="117" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A117" s="19" t="s">
-        <v>1748</v>
+        <v>1768</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>1749</v>
+        <v>1769</v>
       </c>
       <c r="C117" s="19" t="s">
         <v>1148</v>
@@ -19228,13 +19410,13 @@
     </row>
     <row r="118" customFormat="1" ht="70.7" spans="1:8">
       <c r="A118" s="19" t="s">
-        <v>1750</v>
+        <v>1770</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>1751</v>
+        <v>1771</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="D118" s="19">
         <v>1988</v>
@@ -19248,10 +19430,10 @@
     </row>
     <row r="119" customFormat="1" ht="70.7" spans="1:8">
       <c r="A119" s="19" t="s">
-        <v>1752</v>
+        <v>1772</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>1753</v>
+        <v>1773</v>
       </c>
       <c r="C119" s="19" t="s">
         <v>497</v>
@@ -19268,10 +19450,10 @@
     </row>
     <row r="120" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A120" s="19" t="s">
-        <v>1732</v>
+        <v>1752</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>1754</v>
+        <v>1774</v>
       </c>
       <c r="C120" s="19" t="s">
         <v>541</v>
@@ -19287,13 +19469,13 @@
     </row>
     <row r="121" customFormat="1" ht="56.55" spans="1:8">
       <c r="A121" s="19" t="s">
-        <v>1755</v>
+        <v>1775</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>1756</v>
+        <v>1776</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>1757</v>
+        <v>1777</v>
       </c>
       <c r="D121" s="19">
         <v>1985</v>
@@ -19307,13 +19489,13 @@
     </row>
     <row r="122" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A122" s="19" t="s">
-        <v>1758</v>
+        <v>1778</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>1759</v>
+        <v>1779</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>1760</v>
+        <v>1780</v>
       </c>
       <c r="D122" s="19">
         <v>1984</v>
@@ -19326,10 +19508,10 @@
     </row>
     <row r="123" customFormat="1" ht="42.45" spans="1:8">
       <c r="A123" s="19" t="s">
-        <v>1761</v>
+        <v>1781</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>1762</v>
+        <v>1782</v>
       </c>
       <c r="C123" s="19" t="s">
         <v>558</v>
@@ -19346,13 +19528,13 @@
     </row>
     <row r="124" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A124" s="19" t="s">
-        <v>1763</v>
+        <v>1783</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>1764</v>
+        <v>1784</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>1765</v>
+        <v>1785</v>
       </c>
       <c r="D124" s="19">
         <v>1983</v>
@@ -19365,10 +19547,10 @@
     </row>
     <row r="125" customFormat="1" ht="56.55" spans="1:8">
       <c r="A125" s="19" t="s">
-        <v>1766</v>
+        <v>1786</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>1767</v>
+        <v>1787</v>
       </c>
       <c r="C125" s="19" t="s">
         <v>629</v>
@@ -19385,10 +19567,10 @@
     </row>
     <row r="126" customFormat="1" ht="113.15" spans="1:8">
       <c r="A126" s="19" t="s">
-        <v>1761</v>
+        <v>1781</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>1768</v>
+        <v>1788</v>
       </c>
       <c r="C126" s="19" t="s">
         <v>629</v>
@@ -19405,13 +19587,13 @@
     </row>
     <row r="127" customFormat="1" ht="70.7" spans="1:8">
       <c r="A127" s="19" t="s">
-        <v>1769</v>
+        <v>1789</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>1770</v>
+        <v>1790</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>1771</v>
+        <v>1791</v>
       </c>
       <c r="D127" s="19">
         <v>1981</v>
@@ -19425,11 +19607,11 @@
     </row>
     <row r="128" customFormat="1" ht="42.45" spans="1:8">
       <c r="A128" s="19" t="s">
-        <v>1772</v>
+        <v>1792</v>
       </c>
       <c r="B128" s="19"/>
       <c r="C128" s="19" t="s">
-        <v>1773</v>
+        <v>1793</v>
       </c>
       <c r="D128" s="19">
         <v>1981</v>
@@ -19443,10 +19625,10 @@
     </row>
     <row r="129" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A129" s="19" t="s">
-        <v>1774</v>
+        <v>1794</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>1775</v>
+        <v>1795</v>
       </c>
       <c r="C129" s="19" t="s">
         <v>1197</v>
@@ -19462,13 +19644,13 @@
     </row>
     <row r="130" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A130" s="19" t="s">
-        <v>1776</v>
+        <v>1796</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>1777</v>
+        <v>1797</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>1778</v>
+        <v>1798</v>
       </c>
       <c r="D130" s="19">
         <v>1980</v>
@@ -19481,13 +19663,13 @@
     </row>
     <row r="131" s="1" customFormat="1" ht="70.7" spans="1:8">
       <c r="A131" s="19" t="s">
-        <v>1779</v>
+        <v>1799</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>1780</v>
+        <v>1800</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>1781</v>
+        <v>1801</v>
       </c>
       <c r="D131" s="19">
         <v>1980</v>
@@ -19500,13 +19682,13 @@
     </row>
     <row r="132" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A132" s="19" t="s">
-        <v>1782</v>
+        <v>1802</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>1783</v>
+        <v>1803</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>1757</v>
+        <v>1777</v>
       </c>
       <c r="D132" s="19">
         <v>1980</v>
@@ -19519,10 +19701,10 @@
     </row>
     <row r="133" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A133" s="19" t="s">
-        <v>1784</v>
+        <v>1804</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>1785</v>
+        <v>1805</v>
       </c>
       <c r="C133" s="19" t="s">
         <v>606</v>
@@ -19538,13 +19720,13 @@
     </row>
     <row r="134" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A134" s="19" t="s">
-        <v>1786</v>
+        <v>1806</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>1787</v>
+        <v>1807</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>1744</v>
+        <v>1764</v>
       </c>
       <c r="D134" s="19">
         <v>1979</v>
@@ -19557,13 +19739,13 @@
     </row>
     <row r="135" customFormat="1" ht="113.15" spans="1:8">
       <c r="A135" s="19" t="s">
-        <v>1788</v>
+        <v>1808</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>1789</v>
+        <v>1809</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>1790</v>
+        <v>1810</v>
       </c>
       <c r="D135" s="19">
         <v>1979</v>
@@ -19577,28 +19759,28 @@
     </row>
     <row r="136" s="24" customFormat="1" ht="74.55" spans="1:8">
       <c r="A136" s="27" t="s">
-        <v>1791</v>
+        <v>1811</v>
       </c>
       <c r="B136" s="28" t="s">
-        <v>1792</v>
+        <v>1812</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>1793</v>
+        <v>1813</v>
       </c>
       <c r="D136" s="25">
         <v>2016</v>
       </c>
       <c r="E136" s="25" t="s">
-        <v>1794</v>
+        <v>1814</v>
       </c>
       <c r="F136" s="25" t="s">
         <v>93</v>
       </c>
       <c r="G136" s="25" t="s">
-        <v>1795</v>
+        <v>1815</v>
       </c>
       <c r="H136" s="24" t="s">
-        <v>1796</v>
+        <v>1816</v>
       </c>
     </row>
   </sheetData>
@@ -19783,37 +19965,37 @@
   <sheetData>
     <row r="1" ht="50.45" spans="1:8">
       <c r="A1" s="5" t="s">
-        <v>1797</v>
+        <v>1817</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1798</v>
+        <v>1818</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>1799</v>
+        <v>1819</v>
       </c>
       <c r="D1" s="7">
         <v>2016</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>1800</v>
+        <v>1820</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>93</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>1801</v>
+        <v>1821</v>
       </c>
       <c r="H1" s="1"/>
     </row>
     <row r="2" customFormat="1" ht="62.9" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>1802</v>
+        <v>1822</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1803</v>
+        <v>1823</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>1804</v>
+        <v>1824</v>
       </c>
       <c r="D2" s="7">
         <v>2016</v>
@@ -19829,13 +20011,13 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="62.9" spans="1:7">
       <c r="A3" s="10" t="s">
-        <v>1805</v>
+        <v>1825</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1806</v>
+        <v>1826</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>1807</v>
+        <v>1827</v>
       </c>
       <c r="D3" s="7">
         <v>2015</v>
@@ -19847,30 +20029,30 @@
         <v>406</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>1808</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="50.45" spans="1:8">
       <c r="A4" s="13" t="s">
-        <v>1809</v>
+        <v>1829</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>1810</v>
+        <v>1830</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1811</v>
+        <v>1831</v>
       </c>
       <c r="D4" s="15">
         <v>2015</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>1812</v>
+        <v>1832</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>1458</v>
+        <v>1478</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>1813</v>
+        <v>1833</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>1149</v>
@@ -19878,42 +20060,42 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="87.75" spans="1:7">
       <c r="A5" s="17" t="s">
-        <v>1814</v>
+        <v>1834</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>1815</v>
+        <v>1835</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>1816</v>
+        <v>1836</v>
       </c>
       <c r="D5" s="7">
         <v>2015</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1817</v>
+        <v>1837</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>1818</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="38.05" spans="1:9">
       <c r="A6" s="8" t="s">
-        <v>1819</v>
+        <v>1839</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1820</v>
+        <v>1840</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>1821</v>
+        <v>1841</v>
       </c>
       <c r="D6" s="7">
         <v>2015</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1822</v>
+        <v>1842</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>93</v>
@@ -19923,13 +20105,13 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="67.3" spans="1:9">
       <c r="A7" s="10" t="s">
-        <v>1823</v>
+        <v>1843</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>1179</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1824</v>
+        <v>1844</v>
       </c>
       <c r="D7" s="7">
         <v>2015</v>
@@ -19938,7 +20120,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>1825</v>
+        <v>1845</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>1149</v>
@@ -19947,10 +20129,10 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="99" spans="1:6">
       <c r="A8" s="19" t="s">
-        <v>1826</v>
+        <v>1846</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>1827</v>
+        <v>1847</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>247</v>
@@ -19965,13 +20147,13 @@
     </row>
     <row r="9" customFormat="1" ht="127.3" spans="1:8">
       <c r="A9" s="19" t="s">
-        <v>1828</v>
+        <v>1848</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>1829</v>
+        <v>1849</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>1830</v>
+        <v>1850</v>
       </c>
       <c r="D9" s="19">
         <v>2014</v>
@@ -19985,10 +20167,10 @@
     </row>
     <row r="10" customFormat="1" ht="113.15" spans="1:8">
       <c r="A10" s="19" t="s">
-        <v>1831</v>
+        <v>1851</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>1832</v>
+        <v>1852</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>311</v>
@@ -20005,10 +20187,10 @@
     </row>
     <row r="11" customFormat="1" ht="70.7" spans="1:8">
       <c r="A11" s="19" t="s">
-        <v>1833</v>
+        <v>1853</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>1834</v>
+        <v>1854</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>205</v>
@@ -20025,13 +20207,13 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="70.7" spans="1:6">
       <c r="A12" s="19" t="s">
-        <v>1835</v>
+        <v>1855</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>1836</v>
+        <v>1856</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>1837</v>
+        <v>1857</v>
       </c>
       <c r="D12" s="19">
         <v>2014</v>
@@ -20043,13 +20225,13 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="56.55" spans="1:6">
       <c r="A13" s="19" t="s">
-        <v>1838</v>
+        <v>1858</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>1839</v>
+        <v>1859</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>1840</v>
+        <v>1860</v>
       </c>
       <c r="D13" s="19">
         <v>2013</v>
@@ -20061,13 +20243,13 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="70.7" spans="1:9">
       <c r="A14" s="19" t="s">
-        <v>1841</v>
+        <v>1861</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>1842</v>
+        <v>1862</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>1760</v>
+        <v>1780</v>
       </c>
       <c r="D14" s="19">
         <v>2013</v>
@@ -20082,13 +20264,13 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="99" spans="1:6">
       <c r="A15" s="19" t="s">
-        <v>1843</v>
+        <v>1863</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>1844</v>
+        <v>1864</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>1845</v>
+        <v>1865</v>
       </c>
       <c r="D15" s="19">
         <v>2013</v>
@@ -20100,13 +20282,13 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="70.7" spans="1:9">
       <c r="A16" s="19" t="s">
-        <v>1846</v>
+        <v>1866</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>1847</v>
+        <v>1867</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>1848</v>
+        <v>1868</v>
       </c>
       <c r="D16" s="19">
         <v>2013</v>
@@ -20119,10 +20301,10 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="84.85" spans="1:6">
       <c r="A17" s="19" t="s">
-        <v>1849</v>
+        <v>1869</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>1850</v>
+        <v>1870</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>1090</v>
@@ -20137,10 +20319,10 @@
     </row>
     <row r="18" customFormat="1" ht="70.7" spans="1:8">
       <c r="A18" s="19" t="s">
-        <v>1851</v>
+        <v>1871</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>1852</v>
+        <v>1872</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>229</v>
@@ -20157,13 +20339,13 @@
     </row>
     <row r="19" customFormat="1" ht="169.3" spans="1:8">
       <c r="A19" s="19" t="s">
-        <v>1853</v>
+        <v>1873</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>1854</v>
+        <v>1874</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>1855</v>
+        <v>1875</v>
       </c>
       <c r="D19" s="19">
         <v>2013</v>
@@ -20177,10 +20359,10 @@
     </row>
     <row r="20" customFormat="1" ht="70.7" spans="1:8">
       <c r="A20" s="19" t="s">
-        <v>1856</v>
+        <v>1876</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>1857</v>
+        <v>1877</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>273</v>
@@ -20197,13 +20379,13 @@
     </row>
     <row r="21" customFormat="1" ht="99" spans="1:8">
       <c r="A21" s="19" t="s">
-        <v>1858</v>
+        <v>1878</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>1859</v>
+        <v>1879</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>1527</v>
+        <v>1547</v>
       </c>
       <c r="D21" s="19">
         <v>2012</v>
@@ -20217,10 +20399,10 @@
     </row>
     <row r="22" customFormat="1" ht="56.55" spans="1:8">
       <c r="A22" s="19" t="s">
-        <v>1860</v>
+        <v>1880</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>1861</v>
+        <v>1881</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>512</v>
@@ -20237,10 +20419,10 @@
     </row>
     <row r="23" customFormat="1" ht="42.45" spans="1:8">
       <c r="A23" s="19" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>1863</v>
+        <v>1883</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>515</v>
@@ -20257,13 +20439,13 @@
     </row>
     <row r="24" customFormat="1" ht="99" spans="1:8">
       <c r="A24" s="19" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>1866</v>
+        <v>1886</v>
       </c>
       <c r="D24" s="19">
         <v>2012</v>
@@ -20277,13 +20459,13 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="56.55" spans="1:6">
       <c r="A25" s="19" t="s">
-        <v>1867</v>
+        <v>1887</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>1868</v>
+        <v>1888</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>1719</v>
+        <v>1739</v>
       </c>
       <c r="D25" s="19">
         <v>2012</v>
@@ -20295,10 +20477,10 @@
     </row>
     <row r="26" customFormat="1" ht="99" spans="1:8">
       <c r="A26" s="19" t="s">
-        <v>1869</v>
+        <v>1889</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>1870</v>
+        <v>1890</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>567</v>
@@ -20315,13 +20497,13 @@
     </row>
     <row r="27" customFormat="1" ht="42.45" spans="1:8">
       <c r="A27" s="19" t="s">
-        <v>1871</v>
+        <v>1891</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>1872</v>
+        <v>1892</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>1873</v>
+        <v>1893</v>
       </c>
       <c r="D27" s="19">
         <v>2012</v>
@@ -20335,10 +20517,10 @@
     </row>
     <row r="28" customFormat="1" ht="56.55" spans="1:8">
       <c r="A28" s="19" t="s">
-        <v>1874</v>
+        <v>1894</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>1875</v>
+        <v>1895</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>587</v>
@@ -20355,13 +20537,13 @@
     </row>
     <row r="29" customFormat="1" ht="56.55" spans="1:8">
       <c r="A29" s="19" t="s">
-        <v>1876</v>
+        <v>1896</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>1877</v>
+        <v>1897</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="D29" s="19">
         <v>2012</v>
@@ -20375,10 +20557,10 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="70.7" spans="1:6">
       <c r="A30" s="19" t="s">
-        <v>1878</v>
+        <v>1898</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>1879</v>
+        <v>1899</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>205</v>
@@ -20393,10 +20575,10 @@
     </row>
     <row r="31" customFormat="1" ht="113.15" spans="1:8">
       <c r="A31" s="19" t="s">
-        <v>1880</v>
+        <v>1900</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>1881</v>
+        <v>1901</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>648</v>
@@ -20413,10 +20595,10 @@
     </row>
     <row r="32" s="1" customFormat="1" ht="42.45" spans="1:6">
       <c r="A32" s="19" t="s">
-        <v>1882</v>
+        <v>1902</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>1883</v>
+        <v>1903</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>202</v>
@@ -20431,13 +20613,13 @@
     </row>
     <row r="33" customFormat="1" ht="99" spans="1:8">
       <c r="A33" s="19" t="s">
-        <v>1884</v>
+        <v>1904</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>1885</v>
+        <v>1905</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>1886</v>
+        <v>1906</v>
       </c>
       <c r="D33" s="19">
         <v>2011</v>
@@ -20451,13 +20633,13 @@
     </row>
     <row r="34" s="1" customFormat="1" ht="42.45" spans="1:6">
       <c r="A34" s="19" t="s">
-        <v>1887</v>
+        <v>1907</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>1888</v>
+        <v>1908</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>1889</v>
+        <v>1909</v>
       </c>
       <c r="D34" s="19">
         <v>2011</v>
@@ -20469,13 +20651,13 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="84.85" spans="1:6">
       <c r="A35" s="19" t="s">
-        <v>1890</v>
+        <v>1910</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>1891</v>
+        <v>1911</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>1892</v>
+        <v>1912</v>
       </c>
       <c r="D35" s="19">
         <v>2011</v>
@@ -20487,10 +20669,10 @@
     </row>
     <row r="36" customFormat="1" ht="84.85" spans="1:8">
       <c r="A36" s="19" t="s">
-        <v>1893</v>
+        <v>1913</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>1894</v>
+        <v>1914</v>
       </c>
       <c r="C36" s="19" t="s">
         <v>503</v>
@@ -20507,13 +20689,13 @@
     </row>
     <row r="37" customFormat="1" ht="99" spans="1:8">
       <c r="A37" s="19" t="s">
-        <v>1895</v>
+        <v>1915</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>1896</v>
+        <v>1916</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>1897</v>
+        <v>1917</v>
       </c>
       <c r="D37" s="19">
         <v>2010</v>
@@ -20522,20 +20704,20 @@
         <v>1</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>1898</v>
+        <v>1918</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38" customFormat="1" ht="56.55" spans="1:8">
       <c r="A38" s="19" t="s">
-        <v>1899</v>
+        <v>1919</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>1900</v>
+        <v>1920</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>1901</v>
+        <v>1921</v>
       </c>
       <c r="D38" s="19">
         <v>2010</v>
@@ -20549,10 +20731,10 @@
     </row>
     <row r="39" customFormat="1" ht="84.85" spans="1:8">
       <c r="A39" s="19" t="s">
-        <v>1902</v>
+        <v>1922</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>1903</v>
+        <v>1923</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>205</v>
@@ -20569,10 +20751,10 @@
     </row>
     <row r="40" customFormat="1" ht="84.85" spans="1:9">
       <c r="A40" s="19" t="s">
-        <v>1904</v>
+        <v>1924</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>1905</v>
+        <v>1925</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>494</v>
@@ -20590,10 +20772,10 @@
     </row>
     <row r="41" customFormat="1" ht="56.55" spans="1:8">
       <c r="A41" s="19" t="s">
-        <v>1906</v>
+        <v>1926</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>1907</v>
+        <v>1927</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>704</v>
@@ -20610,10 +20792,10 @@
     </row>
     <row r="42" s="1" customFormat="1" ht="56.55" spans="1:6">
       <c r="A42" s="19" t="s">
-        <v>1908</v>
+        <v>1928</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>1909</v>
+        <v>1929</v>
       </c>
       <c r="C42" s="19" t="s">
         <v>202</v>
@@ -20628,13 +20810,13 @@
     </row>
     <row r="43" customFormat="1" ht="84.85" spans="1:8">
       <c r="A43" s="19" t="s">
-        <v>1910</v>
+        <v>1930</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>1911</v>
+        <v>1931</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>1912</v>
+        <v>1932</v>
       </c>
       <c r="D43" s="19">
         <v>2010</v>
@@ -20648,10 +20830,10 @@
     </row>
     <row r="44" customFormat="1" ht="70.7" spans="1:6">
       <c r="A44" s="19" t="s">
-        <v>1913</v>
+        <v>1933</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>1914</v>
+        <v>1934</v>
       </c>
       <c r="C44" s="19" t="s">
         <v>632</v>
@@ -20666,13 +20848,13 @@
     </row>
     <row r="45" s="1" customFormat="1" ht="42.45" spans="1:6">
       <c r="A45" s="19" t="s">
-        <v>1915</v>
+        <v>1935</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>1916</v>
+        <v>1936</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>1413</v>
+        <v>1433</v>
       </c>
       <c r="D45" s="19">
         <v>2008</v>
@@ -20684,13 +20866,13 @@
     </row>
     <row r="46" s="1" customFormat="1" ht="56.55" spans="1:6">
       <c r="A46" s="19" t="s">
-        <v>1917</v>
+        <v>1937</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>1918</v>
+        <v>1938</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>1919</v>
+        <v>1939</v>
       </c>
       <c r="D46" s="19">
         <v>2008</v>
@@ -20702,13 +20884,13 @@
     </row>
     <row r="47" s="1" customFormat="1" ht="99" spans="1:6">
       <c r="A47" s="19" t="s">
-        <v>1920</v>
+        <v>1940</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>1921</v>
+        <v>1941</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>1922</v>
+        <v>1942</v>
       </c>
       <c r="D47" s="19">
         <v>2008</v>
@@ -20720,10 +20902,10 @@
     </row>
     <row r="48" s="1" customFormat="1" ht="113.15" spans="1:6">
       <c r="A48" s="19" t="s">
-        <v>1923</v>
+        <v>1943</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>1924</v>
+        <v>1944</v>
       </c>
       <c r="C48" s="19" t="s">
         <v>311</v>
@@ -20738,10 +20920,10 @@
     </row>
     <row r="49" s="1" customFormat="1" ht="141" spans="1:6">
       <c r="A49" s="19" t="s">
-        <v>1925</v>
+        <v>1945</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>1926</v>
+        <v>1946</v>
       </c>
       <c r="C49" s="19" t="s">
         <v>494</v>
@@ -20756,10 +20938,10 @@
     </row>
     <row r="50" s="1" customFormat="1" ht="99" spans="1:6">
       <c r="A50" s="19" t="s">
-        <v>1927</v>
+        <v>1947</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>1928</v>
+        <v>1948</v>
       </c>
       <c r="C50" s="19" t="s">
         <v>247</v>
@@ -20774,10 +20956,10 @@
     </row>
     <row r="51" customFormat="1" ht="56.55" spans="1:8">
       <c r="A51" s="19" t="s">
-        <v>1929</v>
+        <v>1949</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>1930</v>
+        <v>1950</v>
       </c>
       <c r="C51" s="19" t="s">
         <v>592</v>
@@ -20794,13 +20976,13 @@
     </row>
     <row r="52" customFormat="1" ht="70.7" spans="1:8">
       <c r="A52" s="19" t="s">
-        <v>1931</v>
+        <v>1951</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>1932</v>
+        <v>1952</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>1335</v>
+        <v>1344</v>
       </c>
       <c r="D52" s="19">
         <v>2008</v>
@@ -20814,13 +20996,13 @@
     </row>
     <row r="53" customFormat="1" ht="42.45" spans="1:8">
       <c r="A53" s="19" t="s">
-        <v>1933</v>
+        <v>1953</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>1934</v>
+        <v>1954</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>1935</v>
+        <v>1955</v>
       </c>
       <c r="D53" s="19">
         <v>2008</v>
@@ -20834,13 +21016,13 @@
     </row>
     <row r="54" customFormat="1" ht="56.55" spans="1:8">
       <c r="A54" s="19" t="s">
-        <v>1936</v>
+        <v>1956</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>1937</v>
+        <v>1957</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>1938</v>
+        <v>1958</v>
       </c>
       <c r="D54" s="19">
         <v>2008</v>
@@ -20854,13 +21036,13 @@
     </row>
     <row r="55" customFormat="1" ht="70.7" spans="1:8">
       <c r="A55" s="19" t="s">
-        <v>1939</v>
+        <v>1959</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>1940</v>
+        <v>1960</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>1941</v>
+        <v>1961</v>
       </c>
       <c r="D55" s="19">
         <v>2008</v>
@@ -20874,13 +21056,13 @@
     </row>
     <row r="56" customFormat="1" ht="84.85" spans="1:8">
       <c r="A56" s="19" t="s">
-        <v>1942</v>
+        <v>1962</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>1943</v>
+        <v>1963</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>1944</v>
+        <v>1964</v>
       </c>
       <c r="D56" s="19">
         <v>2007</v>
@@ -20894,13 +21076,13 @@
     </row>
     <row r="57" customFormat="1" ht="56.55" spans="1:8">
       <c r="A57" s="19" t="s">
-        <v>1945</v>
+        <v>1965</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>1946</v>
+        <v>1966</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>1520</v>
+        <v>1540</v>
       </c>
       <c r="D57" s="19">
         <v>2007</v>
@@ -20914,13 +21096,13 @@
     </row>
     <row r="58" s="1" customFormat="1" ht="70.7" spans="1:6">
       <c r="A58" s="19" t="s">
-        <v>1947</v>
+        <v>1967</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>1948</v>
+        <v>1968</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>1666</v>
+        <v>1686</v>
       </c>
       <c r="D58" s="19">
         <v>2007</v>
@@ -20932,10 +21114,10 @@
     </row>
     <row r="59" customFormat="1" ht="42.45" spans="1:8">
       <c r="A59" s="19" t="s">
-        <v>1949</v>
+        <v>1969</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>1950</v>
+        <v>1970</v>
       </c>
       <c r="C59" s="19" t="s">
         <v>321</v>
@@ -20952,13 +21134,13 @@
     </row>
     <row r="60" customFormat="1" ht="42.45" spans="1:8">
       <c r="A60" s="19" t="s">
-        <v>1929</v>
+        <v>1949</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>1951</v>
+        <v>1971</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>1335</v>
+        <v>1344</v>
       </c>
       <c r="D60" s="19">
         <v>2007</v>
@@ -20972,13 +21154,13 @@
     </row>
     <row r="61" customFormat="1" ht="183.45" spans="1:8">
       <c r="A61" s="19" t="s">
-        <v>1952</v>
+        <v>1972</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>1953</v>
+        <v>1973</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>1954</v>
+        <v>1974</v>
       </c>
       <c r="D61" s="19">
         <v>2007</v>
@@ -20992,13 +21174,13 @@
     </row>
     <row r="62" customFormat="1" ht="70.7" spans="1:8">
       <c r="A62" s="19" t="s">
-        <v>1955</v>
+        <v>1975</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>1956</v>
+        <v>1976</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>1957</v>
+        <v>1977</v>
       </c>
       <c r="D62" s="19">
         <v>2007</v>
@@ -21012,13 +21194,13 @@
     </row>
     <row r="63" s="1" customFormat="1" ht="84.85" spans="1:6">
       <c r="A63" s="19" t="s">
-        <v>1958</v>
+        <v>1978</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>1959</v>
+        <v>1979</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>1660</v>
+        <v>1680</v>
       </c>
       <c r="D63" s="19">
         <v>2007</v>
@@ -21030,10 +21212,10 @@
     </row>
     <row r="64" s="1" customFormat="1" ht="70.7" spans="1:6">
       <c r="A64" s="19" t="s">
-        <v>1960</v>
+        <v>1980</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>1961</v>
+        <v>1981</v>
       </c>
       <c r="C64" s="19" t="s">
         <v>205</v>
@@ -21048,10 +21230,10 @@
     </row>
     <row r="65" customFormat="1" ht="56.55" spans="1:8">
       <c r="A65" s="19" t="s">
-        <v>1962</v>
+        <v>1982</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>1963</v>
+        <v>1983</v>
       </c>
       <c r="C65" s="19" t="s">
         <v>500</v>
@@ -21068,13 +21250,13 @@
     </row>
     <row r="66" s="1" customFormat="1" ht="56.55" spans="1:6">
       <c r="A66" s="19" t="s">
-        <v>1964</v>
+        <v>1984</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>1965</v>
+        <v>1985</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>1957</v>
+        <v>1977</v>
       </c>
       <c r="D66" s="19">
         <v>2007</v>
@@ -21086,10 +21268,10 @@
     </row>
     <row r="67" s="1" customFormat="1" ht="42.45" spans="1:6">
       <c r="A67" s="19" t="s">
-        <v>1966</v>
+        <v>1986</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>1967</v>
+        <v>1987</v>
       </c>
       <c r="C67" s="19" t="s">
         <v>494</v>
@@ -21104,13 +21286,13 @@
     </row>
     <row r="68" s="1" customFormat="1" ht="70.7" spans="1:6">
       <c r="A68" s="19" t="s">
-        <v>1968</v>
+        <v>1988</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>1969</v>
+        <v>1989</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D68" s="19">
         <v>2006</v>
@@ -21122,13 +21304,13 @@
     </row>
     <row r="69" customFormat="1" ht="42.45" spans="1:8">
       <c r="A69" s="19" t="s">
-        <v>1971</v>
+        <v>1991</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>1972</v>
+        <v>1992</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>1973</v>
+        <v>1993</v>
       </c>
       <c r="D69" s="19">
         <v>2006</v>
@@ -21142,13 +21324,13 @@
     </row>
     <row r="70" s="1" customFormat="1" ht="42.45" spans="1:6">
       <c r="A70" s="19" t="s">
-        <v>1974</v>
+        <v>1994</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>1975</v>
+        <v>1995</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>1976</v>
+        <v>1996</v>
       </c>
       <c r="D70" s="19">
         <v>2006</v>
@@ -21160,10 +21342,10 @@
     </row>
     <row r="71" customFormat="1" ht="70.7" spans="1:8">
       <c r="A71" s="19" t="s">
-        <v>1977</v>
+        <v>1997</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>1978</v>
+        <v>1998</v>
       </c>
       <c r="C71" s="19" t="s">
         <v>202</v>
@@ -21180,13 +21362,13 @@
     </row>
     <row r="72" customFormat="1" ht="113.15" spans="1:8">
       <c r="A72" s="19" t="s">
-        <v>1979</v>
+        <v>1999</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>1980</v>
+        <v>2000</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>1981</v>
+        <v>2001</v>
       </c>
       <c r="D72" s="19">
         <v>2005</v>
@@ -21200,13 +21382,13 @@
     </row>
     <row r="73" s="1" customFormat="1" ht="84.85" spans="1:6">
       <c r="A73" s="19" t="s">
-        <v>1982</v>
+        <v>2002</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>1983</v>
+        <v>2003</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>1944</v>
+        <v>1964</v>
       </c>
       <c r="D73" s="19">
         <v>2005</v>
@@ -21218,10 +21400,10 @@
     </row>
     <row r="74" customFormat="1" ht="113.15" spans="1:8">
       <c r="A74" s="19" t="s">
-        <v>1984</v>
+        <v>2004</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>1985</v>
+        <v>2005</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>178</v>
@@ -21238,13 +21420,13 @@
     </row>
     <row r="75" customFormat="1" ht="84.85" spans="1:8">
       <c r="A75" s="19" t="s">
-        <v>1986</v>
+        <v>2006</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>1987</v>
+        <v>2007</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>1988</v>
+        <v>2008</v>
       </c>
       <c r="D75" s="19">
         <v>2005</v>
@@ -21258,13 +21440,13 @@
     </row>
     <row r="76" s="1" customFormat="1" ht="84.85" spans="1:8">
       <c r="A76" s="19" t="s">
-        <v>1989</v>
+        <v>2009</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>1990</v>
+        <v>2010</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>1640</v>
+        <v>1660</v>
       </c>
       <c r="D76" s="19">
         <v>2004</v>
@@ -21277,13 +21459,13 @@
     </row>
     <row r="77" customFormat="1" ht="56.55" spans="1:8">
       <c r="A77" s="19" t="s">
-        <v>1991</v>
+        <v>2011</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>1992</v>
+        <v>2012</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>1690</v>
+        <v>1710</v>
       </c>
       <c r="D77" s="19">
         <v>2004</v>
@@ -21297,13 +21479,13 @@
     </row>
     <row r="78" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A78" s="19" t="s">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>1994</v>
+        <v>2014</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>1995</v>
+        <v>2015</v>
       </c>
       <c r="D78" s="19">
         <v>2004</v>
@@ -21316,10 +21498,10 @@
     </row>
     <row r="79" customFormat="1" ht="56.55" spans="1:8">
       <c r="A79" s="19" t="s">
-        <v>1996</v>
+        <v>2016</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>1997</v>
+        <v>2017</v>
       </c>
       <c r="C79" s="19" t="s">
         <v>45</v>
@@ -21336,13 +21518,13 @@
     </row>
     <row r="80" customFormat="1" ht="42.45" spans="1:8">
       <c r="A80" s="19" t="s">
-        <v>1998</v>
+        <v>2018</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>1999</v>
+        <v>2019</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>2000</v>
+        <v>2020</v>
       </c>
       <c r="D80" s="19">
         <v>2004</v>
@@ -21356,13 +21538,13 @@
     </row>
     <row r="81" customFormat="1" ht="56.55" spans="1:8">
       <c r="A81" s="19" t="s">
-        <v>2001</v>
+        <v>2021</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>2002</v>
+        <v>2022</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>1710</v>
+        <v>1730</v>
       </c>
       <c r="D81" s="19">
         <v>2004</v>
@@ -21376,10 +21558,10 @@
     </row>
     <row r="82" s="1" customFormat="1" ht="84.85" spans="1:8">
       <c r="A82" s="19" t="s">
-        <v>2003</v>
+        <v>2023</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>2004</v>
+        <v>2024</v>
       </c>
       <c r="C82" s="19" t="s">
         <v>45</v>
@@ -21395,13 +21577,13 @@
     </row>
     <row r="83" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A83" s="19" t="s">
-        <v>2005</v>
+        <v>2025</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>2006</v>
+        <v>2026</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>2007</v>
+        <v>2027</v>
       </c>
       <c r="D83" s="19">
         <v>2004</v>
@@ -21414,10 +21596,10 @@
     </row>
     <row r="84" s="1" customFormat="1" ht="99" spans="1:8">
       <c r="A84" s="19" t="s">
-        <v>2008</v>
+        <v>2028</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>2009</v>
+        <v>2029</v>
       </c>
       <c r="C84" s="19" t="s">
         <v>45</v>
@@ -21433,10 +21615,10 @@
     </row>
     <row r="85" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A85" s="19" t="s">
-        <v>2010</v>
+        <v>2030</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>2011</v>
+        <v>2031</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>612</v>
@@ -21452,10 +21634,10 @@
     </row>
     <row r="86" s="1" customFormat="1" ht="84.85" spans="1:8">
       <c r="A86" s="19" t="s">
-        <v>2012</v>
+        <v>2032</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>2013</v>
+        <v>2033</v>
       </c>
       <c r="C86" s="19" t="s">
         <v>205</v>
@@ -21471,11 +21653,11 @@
     </row>
     <row r="87" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A87" s="19" t="s">
-        <v>2014</v>
+        <v>2034</v>
       </c>
       <c r="B87" s="19"/>
       <c r="C87" s="19" t="s">
-        <v>2015</v>
+        <v>2035</v>
       </c>
       <c r="D87" s="19">
         <v>2003</v>
@@ -21488,10 +21670,10 @@
     </row>
     <row r="88" customFormat="1" ht="28.3" spans="1:8">
       <c r="A88" s="19" t="s">
-        <v>2016</v>
+        <v>2036</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>2017</v>
+        <v>2037</v>
       </c>
       <c r="C88" s="19" t="s">
         <v>632</v>
@@ -21508,13 +21690,13 @@
     </row>
     <row r="89" s="1" customFormat="1" ht="70.7" spans="1:8">
       <c r="A89" s="19" t="s">
-        <v>2018</v>
+        <v>2038</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>2019</v>
+        <v>2039</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>2020</v>
+        <v>2040</v>
       </c>
       <c r="D89" s="19">
         <v>2003</v>
@@ -21527,13 +21709,13 @@
     </row>
     <row r="90" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A90" s="19" t="s">
-        <v>2021</v>
+        <v>2041</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>2022</v>
+        <v>2042</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>2023</v>
+        <v>2043</v>
       </c>
       <c r="D90" s="19">
         <v>2002</v>
@@ -21546,13 +21728,13 @@
     </row>
     <row r="91" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A91" s="19" t="s">
-        <v>2024</v>
+        <v>2044</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>2025</v>
+        <v>2045</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>2026</v>
+        <v>2046</v>
       </c>
       <c r="D91" s="19">
         <v>2002</v>
@@ -21565,10 +21747,10 @@
     </row>
     <row r="92" customFormat="1" ht="56.55" spans="1:8">
       <c r="A92" s="19" t="s">
-        <v>2027</v>
+        <v>2047</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>2028</v>
+        <v>2048</v>
       </c>
       <c r="C92" s="19" t="s">
         <v>321</v>
@@ -21585,13 +21767,13 @@
     </row>
     <row r="93" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A93" s="19" t="s">
-        <v>2029</v>
+        <v>2049</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>1944</v>
+        <v>1964</v>
       </c>
       <c r="D93" s="19">
         <v>2002</v>
@@ -21604,10 +21786,10 @@
     </row>
     <row r="94" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A94" s="19" t="s">
-        <v>2031</v>
+        <v>2051</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>2032</v>
+        <v>2052</v>
       </c>
       <c r="C94" s="19" t="s">
         <v>45</v>
@@ -21623,13 +21805,13 @@
     </row>
     <row r="95" customFormat="1" ht="70.7" spans="1:8">
       <c r="A95" s="19" t="s">
-        <v>2033</v>
+        <v>2053</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>2034</v>
+        <v>2054</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>2035</v>
+        <v>2055</v>
       </c>
       <c r="D95" s="19">
         <v>2000</v>
@@ -21643,13 +21825,13 @@
     </row>
     <row r="96" customFormat="1" ht="70.7" spans="1:8">
       <c r="A96" s="19" t="s">
-        <v>2036</v>
+        <v>2056</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>2037</v>
+        <v>2057</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>2038</v>
+        <v>2058</v>
       </c>
       <c r="D96" s="19">
         <v>2000</v>
@@ -21663,13 +21845,13 @@
     </row>
     <row r="97" customFormat="1" ht="70.7" spans="1:8">
       <c r="A97" s="19" t="s">
-        <v>2039</v>
+        <v>2059</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>2040</v>
+        <v>2060</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>2041</v>
+        <v>2061</v>
       </c>
       <c r="D97" s="19">
         <v>2000</v>
@@ -21683,10 +21865,10 @@
     </row>
     <row r="98" customFormat="1" ht="42.45" spans="1:8">
       <c r="A98" s="19" t="s">
-        <v>2042</v>
+        <v>2062</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>2043</v>
+        <v>2063</v>
       </c>
       <c r="C98" s="19" t="s">
         <v>523</v>
@@ -21703,13 +21885,13 @@
     </row>
     <row r="99" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A99" s="19" t="s">
-        <v>2044</v>
+        <v>2064</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>2045</v>
+        <v>2065</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>1941</v>
+        <v>1961</v>
       </c>
       <c r="D99" s="19">
         <v>2000</v>
@@ -21722,10 +21904,10 @@
     </row>
     <row r="100" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A100" s="19" t="s">
-        <v>2046</v>
+        <v>2066</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>2047</v>
+        <v>2067</v>
       </c>
       <c r="C100" s="19" t="s">
         <v>105</v>
@@ -21741,13 +21923,13 @@
     </row>
     <row r="101" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A101" s="19" t="s">
-        <v>2048</v>
+        <v>2068</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>2049</v>
+        <v>2069</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>2050</v>
+        <v>2070</v>
       </c>
       <c r="D101" s="19">
         <v>1999</v>
@@ -21760,13 +21942,13 @@
     </row>
     <row r="102" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A102" s="19" t="s">
-        <v>2051</v>
+        <v>2071</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>2052</v>
+        <v>2072</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>2053</v>
+        <v>2073</v>
       </c>
       <c r="D102" s="19">
         <v>1999</v>
@@ -21779,13 +21961,13 @@
     </row>
     <row r="103" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A103" s="19" t="s">
-        <v>2054</v>
+        <v>2074</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>2055</v>
+        <v>2075</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>2056</v>
+        <v>2076</v>
       </c>
       <c r="D103" s="19">
         <v>1999</v>
@@ -21798,13 +21980,13 @@
     </row>
     <row r="104" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A104" s="19" t="s">
-        <v>2057</v>
+        <v>2077</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>2058</v>
+        <v>2078</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>2059</v>
+        <v>2079</v>
       </c>
       <c r="D104" s="19">
         <v>1998</v>
@@ -21817,10 +21999,10 @@
     </row>
     <row r="105" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A105" s="19" t="s">
-        <v>2060</v>
+        <v>2080</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>2061</v>
+        <v>2081</v>
       </c>
       <c r="C105" s="19" t="s">
         <v>579</v>
@@ -21836,10 +22018,10 @@
     </row>
     <row r="106" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A106" s="19" t="s">
-        <v>2062</v>
+        <v>2082</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>2063</v>
+        <v>2083</v>
       </c>
       <c r="C106" s="19" t="s">
         <v>995</v>
@@ -21855,13 +22037,13 @@
     </row>
     <row r="107" customFormat="1" ht="56.55" spans="1:8">
       <c r="A107" s="19" t="s">
-        <v>2064</v>
+        <v>2084</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>2065</v>
+        <v>2085</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>2066</v>
+        <v>2086</v>
       </c>
       <c r="D107" s="19">
         <v>1998</v>
@@ -21875,13 +22057,13 @@
     </row>
     <row r="108" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A108" s="19" t="s">
-        <v>2067</v>
+        <v>2087</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>2068</v>
+        <v>2088</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>2069</v>
+        <v>2089</v>
       </c>
       <c r="D108" s="19">
         <v>1998</v>
@@ -21894,10 +22076,10 @@
     </row>
     <row r="109" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A109" s="19" t="s">
-        <v>2070</v>
+        <v>2090</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>2071</v>
+        <v>2091</v>
       </c>
       <c r="C109" s="19" t="s">
         <v>564</v>
@@ -21913,10 +22095,10 @@
     </row>
     <row r="110" customFormat="1" ht="70.7" spans="1:8">
       <c r="A110" s="19" t="s">
-        <v>2072</v>
+        <v>2092</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>2073</v>
+        <v>2093</v>
       </c>
       <c r="C110" s="19" t="s">
         <v>311</v>
@@ -21933,10 +22115,10 @@
     </row>
     <row r="111" s="1" customFormat="1" ht="70.7" spans="1:8">
       <c r="A111" s="19" t="s">
-        <v>2074</v>
+        <v>2094</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>2075</v>
+        <v>2095</v>
       </c>
       <c r="C111" s="19" t="s">
         <v>347</v>
@@ -21952,13 +22134,13 @@
     </row>
     <row r="112" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A112" s="19" t="s">
-        <v>2076</v>
+        <v>2096</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>2077</v>
+        <v>2097</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>2078</v>
+        <v>2098</v>
       </c>
       <c r="D112" s="19">
         <v>1997</v>
@@ -21971,10 +22153,10 @@
     </row>
     <row r="113" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A113" s="19" t="s">
-        <v>2079</v>
+        <v>2099</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>2080</v>
+        <v>2100</v>
       </c>
       <c r="C113" s="19" t="s">
         <v>564</v>
@@ -21990,13 +22172,13 @@
     </row>
     <row r="114" customFormat="1" ht="42.45" spans="1:8">
       <c r="A114" s="19" t="s">
-        <v>2081</v>
+        <v>2101</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>2082</v>
+        <v>2102</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>2083</v>
+        <v>2103</v>
       </c>
       <c r="D114" s="19">
         <v>1996</v>
@@ -22010,13 +22192,13 @@
     </row>
     <row r="115" customFormat="1" ht="42.45" spans="1:8">
       <c r="A115" s="19" t="s">
-        <v>2084</v>
+        <v>2104</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>2085</v>
+        <v>2105</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>1701</v>
+        <v>1721</v>
       </c>
       <c r="D115" s="19">
         <v>1996</v>
@@ -22030,13 +22212,13 @@
     </row>
     <row r="116" customFormat="1" ht="42.45" spans="1:8">
       <c r="A116" s="19" t="s">
-        <v>2086</v>
+        <v>2106</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>2087</v>
+        <v>2107</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>2088</v>
+        <v>2108</v>
       </c>
       <c r="D116" s="19">
         <v>1996</v>
@@ -22050,10 +22232,10 @@
     </row>
     <row r="117" customFormat="1" ht="56.55" spans="1:8">
       <c r="A117" s="19" t="s">
-        <v>2089</v>
+        <v>2109</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>2090</v>
+        <v>2110</v>
       </c>
       <c r="C117" s="19" t="s">
         <v>704</v>
@@ -22070,13 +22252,13 @@
     </row>
     <row r="118" customFormat="1" ht="84.85" spans="1:8">
       <c r="A118" s="19" t="s">
-        <v>2091</v>
+        <v>2111</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>2092</v>
+        <v>2112</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>2093</v>
+        <v>2113</v>
       </c>
       <c r="D118" s="19">
         <v>1996</v>
@@ -22090,13 +22272,13 @@
     </row>
     <row r="119" customFormat="1" ht="56.55" spans="1:8">
       <c r="A119" s="19" t="s">
-        <v>2094</v>
+        <v>2114</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>2095</v>
+        <v>2115</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>2096</v>
+        <v>2116</v>
       </c>
       <c r="D119" s="19">
         <v>1995</v>
@@ -22110,13 +22292,13 @@
     </row>
     <row r="120" customFormat="1" ht="56.55" spans="1:8">
       <c r="A120" s="19" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>2099</v>
+        <v>2119</v>
       </c>
       <c r="D120" s="19">
         <v>1995</v>
@@ -22130,13 +22312,13 @@
     </row>
     <row r="121" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A121" s="19" t="s">
-        <v>2100</v>
+        <v>2120</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>2102</v>
+        <v>2122</v>
       </c>
       <c r="D121" s="19">
         <v>1994</v>
@@ -22149,13 +22331,13 @@
     </row>
     <row r="122" customFormat="1" ht="56.55" spans="1:8">
       <c r="A122" s="19" t="s">
-        <v>2103</v>
+        <v>2123</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>2104</v>
+        <v>2124</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>1738</v>
+        <v>1758</v>
       </c>
       <c r="D122" s="19">
         <v>1994</v>
@@ -22169,13 +22351,13 @@
     </row>
     <row r="123" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A123" s="19" t="s">
-        <v>2105</v>
+        <v>2125</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>2106</v>
+        <v>2126</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>1840</v>
+        <v>1860</v>
       </c>
       <c r="D123" s="19">
         <v>1994</v>
@@ -22188,13 +22370,13 @@
     </row>
     <row r="124" customFormat="1" ht="56.55" spans="1:8">
       <c r="A124" s="19" t="s">
-        <v>2107</v>
+        <v>2127</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>2108</v>
+        <v>2128</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>1563</v>
+        <v>1583</v>
       </c>
       <c r="D124" s="19">
         <v>1994</v>
@@ -22208,13 +22390,13 @@
     </row>
     <row r="125" customFormat="1" ht="56.55" spans="1:8">
       <c r="A125" s="19" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>2110</v>
+        <v>2130</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="D125" s="19">
         <v>1994</v>
@@ -22228,13 +22410,13 @@
     </row>
     <row r="126" customFormat="1" ht="56.55" spans="1:8">
       <c r="A126" s="19" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>2113</v>
+        <v>2133</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>2114</v>
+        <v>2134</v>
       </c>
       <c r="D126" s="19">
         <v>1993</v>
@@ -22248,13 +22430,13 @@
     </row>
     <row r="127" customFormat="1" ht="56.55" spans="1:8">
       <c r="A127" s="19" t="s">
-        <v>2115</v>
+        <v>2135</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>2116</v>
+        <v>2136</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>2117</v>
+        <v>2137</v>
       </c>
       <c r="D127" s="19">
         <v>1993</v>
@@ -22268,13 +22450,13 @@
     </row>
     <row r="128" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A128" s="19" t="s">
-        <v>2118</v>
+        <v>2138</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>2119</v>
+        <v>2139</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>1840</v>
+        <v>1860</v>
       </c>
       <c r="D128" s="19">
         <v>1993</v>
@@ -22287,10 +22469,10 @@
     </row>
     <row r="129" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A129" s="19" t="s">
-        <v>2120</v>
+        <v>2140</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>2121</v>
+        <v>2141</v>
       </c>
       <c r="C129" s="19" t="s">
         <v>197</v>
@@ -22306,13 +22488,13 @@
     </row>
     <row r="130" customFormat="1" ht="56.55" spans="1:8">
       <c r="A130" s="19" t="s">
-        <v>2122</v>
+        <v>2142</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>2123</v>
+        <v>2143</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>2124</v>
+        <v>2144</v>
       </c>
       <c r="D130" s="19">
         <v>1993</v>
@@ -22326,13 +22508,13 @@
     </row>
     <row r="131" customFormat="1" ht="42.45" spans="1:8">
       <c r="A131" s="19" t="s">
-        <v>2125</v>
+        <v>2145</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>2126</v>
+        <v>2146</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>2127</v>
+        <v>2147</v>
       </c>
       <c r="D131" s="19">
         <v>1992</v>
@@ -22346,13 +22528,13 @@
     </row>
     <row r="132" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A132" s="19" t="s">
-        <v>2128</v>
+        <v>2148</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>2129</v>
+        <v>2149</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>2130</v>
+        <v>2150</v>
       </c>
       <c r="D132" s="19">
         <v>1992</v>
@@ -22365,13 +22547,13 @@
     </row>
     <row r="133" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A133" s="19" t="s">
-        <v>2131</v>
+        <v>2151</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>2132</v>
+        <v>2152</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>2133</v>
+        <v>2153</v>
       </c>
       <c r="D133" s="19">
         <v>1992</v>
@@ -22384,13 +22566,13 @@
     </row>
     <row r="134" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A134" s="19" t="s">
-        <v>2134</v>
+        <v>2154</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>2135</v>
+        <v>2155</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>2136</v>
+        <v>2156</v>
       </c>
       <c r="D134" s="19">
         <v>1992</v>
@@ -22403,13 +22585,13 @@
     </row>
     <row r="135" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A135" s="19" t="s">
-        <v>2137</v>
+        <v>2157</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>2138</v>
+        <v>2158</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>2139</v>
+        <v>2159</v>
       </c>
       <c r="D135" s="19">
         <v>1991</v>
@@ -22422,13 +22604,13 @@
     </row>
     <row r="136" s="1" customFormat="1" ht="70.7" spans="1:8">
       <c r="A136" s="19" t="s">
-        <v>2140</v>
+        <v>2160</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>2141</v>
+        <v>2161</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>1498</v>
+        <v>1518</v>
       </c>
       <c r="D136" s="19">
         <v>1991</v>
@@ -22441,13 +22623,13 @@
     </row>
     <row r="137" s="1" customFormat="1" ht="99" spans="1:8">
       <c r="A137" s="19" t="s">
-        <v>2142</v>
+        <v>2162</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>2143</v>
+        <v>2163</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>2144</v>
+        <v>2164</v>
       </c>
       <c r="D137" s="19">
         <v>1991</v>
@@ -22460,13 +22642,13 @@
     </row>
     <row r="138" s="3" customFormat="1" ht="70.7" spans="1:8">
       <c r="A138" s="20" t="s">
-        <v>2145</v>
+        <v>2165</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>2146</v>
+        <v>2166</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>2147</v>
+        <v>2167</v>
       </c>
       <c r="D138" s="20">
         <v>1991</v>
@@ -22482,13 +22664,13 @@
     </row>
     <row r="139" s="1" customFormat="1" ht="70.7" spans="1:8">
       <c r="A139" s="19" t="s">
-        <v>2148</v>
+        <v>2168</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>2149</v>
+        <v>2169</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>2150</v>
+        <v>2170</v>
       </c>
       <c r="D139" s="19">
         <v>1990</v>
@@ -22501,10 +22683,10 @@
     </row>
     <row r="140" customFormat="1" ht="70.7" spans="1:8">
       <c r="A140" s="19" t="s">
-        <v>2151</v>
+        <v>2171</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>2152</v>
+        <v>2172</v>
       </c>
       <c r="C140" s="19" t="s">
         <v>598</v>
@@ -22521,10 +22703,10 @@
     </row>
     <row r="141" customFormat="1" ht="84.85" spans="1:8">
       <c r="A141" s="19" t="s">
-        <v>2153</v>
+        <v>2173</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>2154</v>
+        <v>2174</v>
       </c>
       <c r="C141" s="19" t="s">
         <v>615</v>
@@ -22541,13 +22723,13 @@
     </row>
     <row r="142" customFormat="1" ht="42.45" spans="1:8">
       <c r="A142" s="19" t="s">
-        <v>2155</v>
+        <v>2175</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>2156</v>
+        <v>2176</v>
       </c>
       <c r="C142" s="19" t="s">
-        <v>2157</v>
+        <v>2177</v>
       </c>
       <c r="D142" s="19">
         <v>1989</v>
@@ -22561,10 +22743,10 @@
     </row>
     <row r="143" customFormat="1" ht="56.55" spans="1:8">
       <c r="A143" s="19" t="s">
-        <v>2158</v>
+        <v>2178</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>2159</v>
+        <v>2179</v>
       </c>
       <c r="C143" s="19" t="s">
         <v>1148</v>
@@ -22581,10 +22763,10 @@
     </row>
     <row r="144" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A144" s="19" t="s">
-        <v>2160</v>
+        <v>2180</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>2161</v>
+        <v>2181</v>
       </c>
       <c r="C144" s="19" t="s">
         <v>558</v>
@@ -22600,13 +22782,13 @@
     </row>
     <row r="145" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A145" s="19" t="s">
-        <v>2162</v>
+        <v>2182</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>2163</v>
+        <v>2183</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>1919</v>
+        <v>1939</v>
       </c>
       <c r="D145" s="19">
         <v>1988</v>
@@ -22619,13 +22801,13 @@
     </row>
     <row r="146" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A146" s="19" t="s">
-        <v>2164</v>
+        <v>2184</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>2165</v>
+        <v>2185</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>2166</v>
+        <v>2186</v>
       </c>
       <c r="D146" s="19">
         <v>1988</v>
@@ -22638,13 +22820,13 @@
     </row>
     <row r="147" s="1" customFormat="1" ht="70.7" spans="1:8">
       <c r="A147" s="19" t="s">
-        <v>2167</v>
+        <v>2187</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>2168</v>
+        <v>2188</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>2169</v>
+        <v>2189</v>
       </c>
       <c r="D147" s="19">
         <v>1988</v>
@@ -22657,13 +22839,13 @@
     </row>
     <row r="148" customFormat="1" ht="56.55" spans="1:8">
       <c r="A148" s="19" t="s">
-        <v>2170</v>
+        <v>2190</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>2171</v>
+        <v>2191</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>2144</v>
+        <v>2164</v>
       </c>
       <c r="D148" s="19">
         <v>1987</v>
@@ -22677,13 +22859,13 @@
     </row>
     <row r="149" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A149" s="19" t="s">
-        <v>2172</v>
+        <v>2192</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>2173</v>
+        <v>2193</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>2174</v>
+        <v>2194</v>
       </c>
       <c r="D149" s="19">
         <v>1987</v>
@@ -22696,13 +22878,13 @@
     </row>
     <row r="150" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A150" s="19" t="s">
-        <v>2175</v>
+        <v>2195</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>2176</v>
+        <v>2196</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>2102</v>
+        <v>2122</v>
       </c>
       <c r="D150" s="19">
         <v>1987</v>
@@ -22715,10 +22897,10 @@
     </row>
     <row r="151" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A151" s="19" t="s">
-        <v>2177</v>
+        <v>2197</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>2178</v>
+        <v>2198</v>
       </c>
       <c r="C151" s="19" t="s">
         <v>704</v>
@@ -22734,13 +22916,13 @@
     </row>
     <row r="152" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A152" s="19" t="s">
-        <v>2179</v>
+        <v>2199</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>2180</v>
+        <v>2200</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>2181</v>
+        <v>2201</v>
       </c>
       <c r="D152" s="19">
         <v>1987</v>
@@ -22753,10 +22935,10 @@
     </row>
     <row r="153" s="1" customFormat="1" ht="28.3" spans="1:8">
       <c r="A153" s="19" t="s">
-        <v>2182</v>
+        <v>2202</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>2183</v>
+        <v>2203</v>
       </c>
       <c r="C153" s="19" t="s">
         <v>638</v>
@@ -22772,10 +22954,10 @@
     </row>
     <row r="154" customFormat="1" ht="28.3" spans="1:8">
       <c r="A154" s="19" t="s">
-        <v>2184</v>
+        <v>2204</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>2185</v>
+        <v>2205</v>
       </c>
       <c r="C154" s="19" t="s">
         <v>96</v>
@@ -22792,10 +22974,10 @@
     </row>
     <row r="155" s="1" customFormat="1" ht="70.7" spans="1:8">
       <c r="A155" s="19" t="s">
-        <v>2186</v>
+        <v>2206</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>2187</v>
+        <v>2207</v>
       </c>
       <c r="C155" s="19" t="s">
         <v>744</v>
@@ -22811,13 +22993,13 @@
     </row>
     <row r="156" customFormat="1" ht="70.7" spans="1:8">
       <c r="A156" s="19" t="s">
-        <v>2188</v>
+        <v>2208</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>2189</v>
+        <v>2209</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>2190</v>
+        <v>2210</v>
       </c>
       <c r="D156" s="19">
         <v>1987</v>
@@ -22831,13 +23013,13 @@
     </row>
     <row r="157" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A157" s="19" t="s">
-        <v>2191</v>
+        <v>2211</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>2192</v>
+        <v>2212</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>1598</v>
+        <v>1618</v>
       </c>
       <c r="D157" s="19">
         <v>1986</v>
@@ -22850,10 +23032,10 @@
     </row>
     <row r="158" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A158" s="19" t="s">
-        <v>2193</v>
+        <v>2213</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>2194</v>
+        <v>2214</v>
       </c>
       <c r="C158" s="19" t="s">
         <v>629</v>
@@ -22869,13 +23051,13 @@
     </row>
     <row r="159" customFormat="1" ht="42.45" spans="1:8">
       <c r="A159" s="19" t="s">
-        <v>2195</v>
+        <v>2215</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>2196</v>
+        <v>2216</v>
       </c>
       <c r="C159" s="19" t="s">
-        <v>2197</v>
+        <v>2217</v>
       </c>
       <c r="D159" s="19">
         <v>1986</v>
@@ -22889,10 +23071,10 @@
     </row>
     <row r="160" customFormat="1" ht="42.45" spans="1:8">
       <c r="A160" s="19" t="s">
-        <v>2195</v>
+        <v>2215</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>2198</v>
+        <v>2218</v>
       </c>
       <c r="C160" s="19" t="s">
         <v>606</v>
@@ -22909,13 +23091,13 @@
     </row>
     <row r="161" s="1" customFormat="1" ht="70.7" spans="1:8">
       <c r="A161" s="19" t="s">
-        <v>2199</v>
+        <v>2219</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>2200</v>
+        <v>2220</v>
       </c>
       <c r="C161" s="19" t="s">
-        <v>1498</v>
+        <v>1518</v>
       </c>
       <c r="D161" s="19">
         <v>1986</v>
@@ -22928,10 +23110,10 @@
     </row>
     <row r="162" customFormat="1" ht="28.3" spans="1:8">
       <c r="A162" s="19" t="s">
-        <v>2201</v>
+        <v>2221</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>2202</v>
+        <v>2222</v>
       </c>
       <c r="C162" s="19" t="s">
         <v>1090</v>
@@ -22948,13 +23130,13 @@
     </row>
     <row r="163" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A163" s="19" t="s">
-        <v>2203</v>
+        <v>2223</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>2204</v>
+        <v>2224</v>
       </c>
       <c r="C163" s="19" t="s">
-        <v>1660</v>
+        <v>1680</v>
       </c>
       <c r="D163" s="19">
         <v>1986</v>
@@ -22967,13 +23149,13 @@
     </row>
     <row r="164" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A164" s="19" t="s">
-        <v>2205</v>
+        <v>2225</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>2206</v>
+        <v>2226</v>
       </c>
       <c r="C164" s="19" t="s">
-        <v>2207</v>
+        <v>2227</v>
       </c>
       <c r="D164" s="19">
         <v>1985</v>
@@ -22986,13 +23168,13 @@
     </row>
     <row r="165" customFormat="1" ht="84.85" spans="1:8">
       <c r="A165" s="19" t="s">
-        <v>2208</v>
+        <v>2228</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>2209</v>
+        <v>2229</v>
       </c>
       <c r="C165" s="19" t="s">
-        <v>2210</v>
+        <v>2230</v>
       </c>
       <c r="D165" s="19">
         <v>1985</v>
@@ -23006,10 +23188,10 @@
     </row>
     <row r="166" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A166" s="19" t="s">
-        <v>2211</v>
+        <v>2231</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>2212</v>
+        <v>2232</v>
       </c>
       <c r="C166" s="19" t="s">
         <v>629</v>
@@ -23025,13 +23207,13 @@
     </row>
     <row r="167" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A167" s="19" t="s">
-        <v>2213</v>
+        <v>2233</v>
       </c>
       <c r="B167" s="19" t="s">
-        <v>2214</v>
+        <v>2234</v>
       </c>
       <c r="C167" s="19" t="s">
-        <v>1760</v>
+        <v>1780</v>
       </c>
       <c r="D167" s="19">
         <v>1985</v>
@@ -23044,13 +23226,13 @@
     </row>
     <row r="168" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A168" s="19" t="s">
-        <v>2215</v>
+        <v>2235</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>2216</v>
+        <v>2236</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>1690</v>
+        <v>1710</v>
       </c>
       <c r="D168" s="19">
         <v>1984</v>
@@ -23063,13 +23245,13 @@
     </row>
     <row r="169" s="1" customFormat="1" ht="70.7" spans="1:8">
       <c r="A169" s="19" t="s">
-        <v>2217</v>
+        <v>2237</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>2218</v>
+        <v>2238</v>
       </c>
       <c r="C169" s="19" t="s">
-        <v>2219</v>
+        <v>2239</v>
       </c>
       <c r="D169" s="19">
         <v>1984</v>
@@ -23082,13 +23264,13 @@
     </row>
     <row r="170" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A170" s="19" t="s">
-        <v>2220</v>
+        <v>2240</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>2221</v>
+        <v>2241</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>1765</v>
+        <v>1785</v>
       </c>
       <c r="D170" s="19">
         <v>1983</v>
@@ -23101,13 +23283,13 @@
     </row>
     <row r="171" s="1" customFormat="1" ht="70.7" spans="1:8">
       <c r="A171" s="19" t="s">
-        <v>2222</v>
+        <v>2242</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>2223</v>
+        <v>2243</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>2224</v>
+        <v>2244</v>
       </c>
       <c r="D171" s="19">
         <v>1982</v>
@@ -23120,10 +23302,10 @@
     </row>
     <row r="172" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A172" s="19" t="s">
-        <v>2225</v>
+        <v>2245</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>2226</v>
+        <v>2246</v>
       </c>
       <c r="C172" s="19" t="s">
         <v>592</v>
@@ -23139,13 +23321,13 @@
     </row>
     <row r="173" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A173" s="19" t="s">
-        <v>2227</v>
+        <v>2247</v>
       </c>
       <c r="B173" s="19" t="s">
-        <v>2228</v>
+        <v>2248</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>2229</v>
+        <v>2249</v>
       </c>
       <c r="D173" s="19">
         <v>1982</v>
@@ -23158,13 +23340,13 @@
     </row>
     <row r="174" s="1" customFormat="1" ht="84.85" spans="1:8">
       <c r="A174" s="19" t="s">
-        <v>2230</v>
+        <v>2250</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>2231</v>
+        <v>2251</v>
       </c>
       <c r="C174" s="19" t="s">
-        <v>1598</v>
+        <v>1618</v>
       </c>
       <c r="D174" s="19">
         <v>1982</v>
@@ -23177,10 +23359,10 @@
     </row>
     <row r="175" s="1" customFormat="1" ht="70.7" spans="1:8">
       <c r="A175" s="19" t="s">
-        <v>2232</v>
+        <v>2252</v>
       </c>
       <c r="B175" s="19" t="s">
-        <v>2233</v>
+        <v>2253</v>
       </c>
       <c r="C175" s="19" t="s">
         <v>967</v>
@@ -23196,13 +23378,13 @@
     </row>
     <row r="176" customFormat="1" ht="71.45" spans="1:8">
       <c r="A176" s="19" t="s">
-        <v>2234</v>
+        <v>2254</v>
       </c>
       <c r="B176" s="19" t="s">
-        <v>2235</v>
+        <v>2255</v>
       </c>
       <c r="C176" s="19" t="s">
-        <v>2236</v>
+        <v>2256</v>
       </c>
       <c r="D176" s="19">
         <v>1980</v>
@@ -23216,19 +23398,19 @@
     </row>
     <row r="177" s="1" customFormat="1" ht="50.45" spans="1:7">
       <c r="A177" s="8" t="s">
-        <v>2237</v>
+        <v>2257</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>2238</v>
+        <v>2258</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>2239</v>
+        <v>2259</v>
       </c>
       <c r="D177" s="7">
         <v>2016</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>2240</v>
+        <v>2260</v>
       </c>
       <c r="F177" s="12" t="s">
         <v>128</v>
@@ -23239,19 +23421,19 @@
     </row>
     <row r="178" s="1" customFormat="1" ht="62.9" spans="1:7">
       <c r="A178" s="8" t="s">
-        <v>2241</v>
+        <v>2261</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>2242</v>
+        <v>2262</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>2239</v>
+        <v>2259</v>
       </c>
       <c r="D178" s="7">
         <v>2015</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>2243</v>
+        <v>2263</v>
       </c>
       <c r="F178" s="12" t="s">
         <v>810</v>
@@ -23262,10 +23444,10 @@
     </row>
     <row r="179" s="1" customFormat="1" ht="62.9" spans="1:7">
       <c r="A179" s="8" t="s">
-        <v>2244</v>
+        <v>2264</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>2245</v>
+        <v>2265</v>
       </c>
       <c r="C179" s="9" t="s">
         <v>110</v>
@@ -23274,24 +23456,24 @@
         <v>2016</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>2246</v>
+        <v>2266</v>
       </c>
       <c r="F179" s="12" t="s">
         <v>1025</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>2247</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="180" customFormat="1" ht="85.6" spans="1:8">
       <c r="A180" s="19" t="s">
-        <v>2248</v>
+        <v>2268</v>
       </c>
       <c r="B180" s="19" t="s">
-        <v>2249</v>
+        <v>2269</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>2250</v>
+        <v>2270</v>
       </c>
       <c r="D180" s="19">
         <v>2013</v>
@@ -23305,13 +23487,13 @@
     </row>
     <row r="181" s="1" customFormat="1" ht="75.3" spans="1:7">
       <c r="A181" s="8" t="s">
-        <v>2251</v>
+        <v>2271</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>2252</v>
+        <v>2272</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>2253</v>
+        <v>2273</v>
       </c>
       <c r="D181" s="7">
         <v>2016</v>
@@ -23323,15 +23505,15 @@
         <v>410</v>
       </c>
       <c r="G181" s="7" t="s">
-        <v>2254</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="182" s="2" customFormat="1" ht="75.3" spans="1:7">
       <c r="A182" s="21" t="s">
-        <v>2255</v>
+        <v>2275</v>
       </c>
       <c r="B182" s="22" t="s">
-        <v>2256</v>
+        <v>2276</v>
       </c>
       <c r="C182" s="22" t="s">
         <v>190</v>
@@ -23340,7 +23522,7 @@
         <v>2015</v>
       </c>
       <c r="E182" s="15" t="s">
-        <v>2257</v>
+        <v>2277</v>
       </c>
       <c r="F182" s="16" t="s">
         <v>792</v>
@@ -23351,10 +23533,10 @@
     </row>
     <row r="183" s="1" customFormat="1" ht="57.3" spans="1:8">
       <c r="A183" s="19" t="s">
-        <v>2258</v>
+        <v>2278</v>
       </c>
       <c r="B183" s="19" t="s">
-        <v>2259</v>
+        <v>2279</v>
       </c>
       <c r="C183" s="19" t="s">
         <v>564</v>
@@ -23370,10 +23552,10 @@
     </row>
     <row r="184" s="2" customFormat="1" ht="137.45" spans="1:8">
       <c r="A184" s="13" t="s">
-        <v>2260</v>
+        <v>2280</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>2261</v>
+        <v>2281</v>
       </c>
       <c r="C184" s="14" t="s">
         <v>347</v>
@@ -23382,47 +23564,47 @@
         <v>2016</v>
       </c>
       <c r="E184" s="23" t="s">
-        <v>2262</v>
+        <v>2282</v>
       </c>
       <c r="F184" s="16" t="s">
         <v>136</v>
       </c>
       <c r="G184" s="23" t="s">
-        <v>2263</v>
+        <v>2283</v>
       </c>
       <c r="H184" s="24" t="s">
-        <v>2264</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="185" s="2" customFormat="1" ht="100.2" spans="1:7">
       <c r="A185" s="13" t="s">
-        <v>2265</v>
+        <v>2285</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>2266</v>
+        <v>2286</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>2267</v>
+        <v>2287</v>
       </c>
       <c r="D185" s="15">
         <v>2016</v>
       </c>
       <c r="E185" s="15" t="s">
-        <v>2268</v>
+        <v>2288</v>
       </c>
       <c r="F185" s="16" t="s">
         <v>294</v>
       </c>
       <c r="G185" s="25" t="s">
-        <v>2264</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="186" s="4" customFormat="1" ht="99" spans="1:8">
       <c r="A186" s="26" t="s">
-        <v>2269</v>
+        <v>2289</v>
       </c>
       <c r="B186" s="26" t="s">
-        <v>2270</v>
+        <v>2290</v>
       </c>
       <c r="C186" s="26" t="s">
         <v>441</v>
@@ -23434,10 +23616,10 @@
         <v>40</v>
       </c>
       <c r="F186" s="26" t="s">
-        <v>2271</v>
+        <v>2291</v>
       </c>
       <c r="G186" s="24" t="s">
-        <v>2264</v>
+        <v>2284</v>
       </c>
       <c r="H186" s="24"/>
     </row>
@@ -24345,13 +24527,13 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="100.2" spans="1:7">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="47" t="s">
         <v>345</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="48" t="s">
         <v>346</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="48" t="s">
         <v>347</v>
       </c>
       <c r="D2" s="7">
@@ -24558,13 +24740,13 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="75.3" spans="1:7">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="41" t="s">
         <v>378</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="42" t="s">
         <v>379</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="42" t="s">
         <v>380</v>
       </c>
       <c r="D2" s="7">
@@ -24619,13 +24801,13 @@
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="38.05" spans="1:7">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="43" t="s">
         <v>387</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="44" t="s">
         <v>388</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="44" t="s">
         <v>389</v>
       </c>
       <c r="D5" s="7">
@@ -24734,13 +24916,13 @@
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="62.9" spans="1:7">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="45" t="s">
         <v>412</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="46" t="s">
         <v>413</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="46" t="s">
         <v>414</v>
       </c>
       <c r="D10" s="7">
@@ -27122,13 +27304,13 @@
       <c r="H135" s="6"/>
     </row>
     <row r="136" s="4" customFormat="1" ht="112.6" spans="1:8">
-      <c r="A136" s="32" t="s">
+      <c r="A136" s="38" t="s">
         <v>763</v>
       </c>
-      <c r="B136" s="33" t="s">
+      <c r="B136" s="39" t="s">
         <v>764</v>
       </c>
-      <c r="C136" s="33" t="s">
+      <c r="C136" s="39" t="s">
         <v>380</v>
       </c>
       <c r="D136" s="25">
@@ -27513,7 +27695,7 @@
       <c r="E10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="40" t="s">
         <v>832</v>
       </c>
       <c r="G10" s="7" t="s">
@@ -29031,7 +29213,7 @@
       <c r="E22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="34" t="s">
+      <c r="F22" s="40" t="s">
         <v>1052</v>
       </c>
       <c r="G22" s="7" t="s">

--- a/754 师姐回复.xlsx
+++ b/754 师姐回复.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2293">
   <si>
     <t>英夫利昔单抗致儿童严重过敏性休克1例</t>
   </si>
@@ -5177,12 +5177,18 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>infliximab</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> treatment group (</t>
@@ -5192,6 +5198,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>n</t>
@@ -5200,6 +5207,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> = 20) and conventional therapy group (</t>
@@ -5209,6 +5217,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>n</t>
@@ -5217,6 +5226,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> = 22</t>
@@ -5419,6 +5429,9 @@
   </si>
   <si>
     <t>15例手术同时英夫利昔</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>英夫利昔单抗联合肠内营养在治疗中重度克罗恩病中的临床优势</t>
@@ -8316,12 +8329,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8386,14 +8399,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -8402,7 +8407,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8416,14 +8421,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8432,6 +8446,51 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8446,25 +8505,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8485,22 +8528,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -8509,22 +8537,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8536,12 +8549,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="36">
@@ -8571,7 +8589,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8583,19 +8709,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8607,25 +8733,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8637,121 +8763,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8879,11 +8897,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8903,52 +8962,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8960,7 +8978,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -8972,137 +8990,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9197,12 +9215,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -13877,13 +13889,13 @@
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="100.2" spans="1:7">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="46" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="7">
@@ -14149,7 +14161,7 @@
       <c r="E17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="40" t="s">
+      <c r="F17" s="38" t="s">
         <v>87</v>
       </c>
       <c r="G17" s="7" t="s">
@@ -14197,7 +14209,7 @@
       <c r="E19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="38" t="s">
         <v>97</v>
       </c>
       <c r="G19" s="7" t="s">
@@ -15305,7 +15317,7 @@
       <c r="E3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="38" t="s">
         <v>1186</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -15593,13 +15605,13 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="87" spans="1:7">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="33" t="s">
         <v>1224</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="33" t="s">
         <v>1225</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="33" t="s">
         <v>1226</v>
       </c>
       <c r="D7" s="7">
@@ -15608,7 +15620,7 @@
       <c r="E7" s="6" t="s">
         <v>1227</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="34" t="s">
         <v>68</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -15960,7 +15972,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72072072072072" defaultRowHeight="14.1"/>
@@ -16070,13 +16082,13 @@
       </c>
     </row>
     <row r="5" s="29" customFormat="1" ht="87.75" spans="1:9">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="33" t="s">
         <v>1302</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="33" t="s">
         <v>1303</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="33" t="s">
         <v>273</v>
       </c>
       <c r="D5" s="7">
@@ -16085,7 +16097,7 @@
       <c r="E5" s="6" t="s">
         <v>1304</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="34" t="s">
         <v>1201</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -16171,21 +16183,21 @@
       <c r="H8" s="29"/>
     </row>
     <row r="9" s="29" customFormat="1" ht="285.45" spans="1:9">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="35" t="s">
         <v>1320</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37">
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35">
         <v>2015</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="35" t="s">
         <v>1321</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="35" t="s">
         <v>1322</v>
       </c>
       <c r="H9" s="6"/>
@@ -16433,7 +16445,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="21" s="30" customFormat="1" ht="211.7" spans="1:8">
+    <row r="21" s="30" customFormat="1" ht="211.7" spans="1:9">
       <c r="A21" s="19" t="s">
         <v>1363</v>
       </c>
@@ -16454,13 +16466,16 @@
         <v>1366</v>
       </c>
       <c r="H21" s="29"/>
+      <c r="I21" s="30" t="s">
+        <v>1367</v>
+      </c>
     </row>
     <row r="22" s="30" customFormat="1" ht="99" spans="1:8">
       <c r="A22" s="19" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>1267</v>
@@ -16473,16 +16488,16 @@
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="29" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="H22" s="29"/>
     </row>
     <row r="23" s="29" customFormat="1" ht="70.7" spans="1:6">
       <c r="A23" s="19" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>178</v>
@@ -16494,18 +16509,18 @@
         <v>1</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="24" s="30" customFormat="1" ht="240" spans="1:8">
       <c r="A24" s="19" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="D24" s="19">
         <v>2013</v>
@@ -16515,16 +16530,16 @@
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="29" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="H24" s="29"/>
     </row>
     <row r="25" s="30" customFormat="1" ht="169.3" spans="1:8">
       <c r="A25" s="19" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>1231</v>
@@ -16536,19 +16551,19 @@
         <v>86</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="H25" s="29"/>
     </row>
     <row r="26" s="30" customFormat="1" ht="113.15" spans="1:8">
       <c r="A26" s="19" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>45</v>
@@ -16561,16 +16576,16 @@
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="29" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="H26" s="29"/>
     </row>
     <row r="27" s="29" customFormat="1" ht="99" spans="1:7">
       <c r="A27" s="19" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>654</v>
@@ -16582,18 +16597,18 @@
         <v>50</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="28" s="30" customFormat="1" ht="84.85" spans="1:7">
       <c r="A28" s="19" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>1251</v>
@@ -16605,21 +16620,21 @@
         <v>60</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="29" s="30" customFormat="1" ht="113.15" spans="1:8">
       <c r="A29" s="19" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="D29" s="19">
         <v>2010</v>
@@ -16633,10 +16648,10 @@
     </row>
     <row r="30" s="30" customFormat="1" ht="84.85" spans="1:8">
       <c r="A30" s="19" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>45</v>
@@ -16653,10 +16668,10 @@
     </row>
     <row r="31" s="29" customFormat="1" ht="70.7" spans="1:6">
       <c r="A31" s="19" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>178</v>
@@ -16671,13 +16686,13 @@
     </row>
     <row r="32" s="29" customFormat="1" ht="84.85" spans="1:8">
       <c r="A32" s="19" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="D32" s="19">
         <v>2003</v>
@@ -16692,13 +16707,13 @@
     </row>
     <row r="33" s="29" customFormat="1" ht="84.85" spans="1:8">
       <c r="A33" s="19" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="D33" s="19">
         <v>2001</v>
@@ -16711,13 +16726,13 @@
     </row>
     <row r="34" s="30" customFormat="1" ht="84.85" spans="1:8">
       <c r="A34" s="19" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="D34" s="19">
         <v>1996</v>
@@ -16731,10 +16746,10 @@
     </row>
     <row r="35" s="29" customFormat="1" ht="125.05" spans="1:9">
       <c r="A35" s="5" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>45</v>
@@ -16749,40 +16764,40 @@
         <v>989</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
     <row r="36" s="29" customFormat="1" ht="87.75" spans="1:7">
       <c r="A36" s="8" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="D36" s="7">
         <v>2016</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>1012</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="37" s="29" customFormat="1" ht="87.75" spans="1:7">
       <c r="A37" s="17" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>779</v>
@@ -16791,7 +16806,7 @@
         <v>2015</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>971</v>
@@ -16802,10 +16817,10 @@
     </row>
     <row r="38" s="29" customFormat="1" ht="75.3" spans="1:7">
       <c r="A38" s="17" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>1140</v>
@@ -16814,21 +16829,21 @@
         <v>2015</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>822</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="39" s="31" customFormat="1" ht="87.75" spans="1:7">
       <c r="A39" s="13" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>35</v>
@@ -16837,21 +16852,21 @@
         <v>2016</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="F39" s="16" t="s">
         <v>1020</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="40" s="32" customFormat="1" ht="100.2" spans="1:8">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="40" s="31" customFormat="1" ht="100.2" spans="1:7">
       <c r="A40" s="13" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>1313</v>
@@ -16860,45 +16875,44 @@
         <v>2015</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="F40" s="16" t="s">
         <v>1295</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>1430</v>
-      </c>
-      <c r="H40" s="31"/>
+        <v>1431</v>
+      </c>
     </row>
     <row r="41" s="31" customFormat="1" ht="100.2" spans="1:7">
       <c r="A41" s="13" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D41" s="15">
         <v>2015</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="F41" s="16" t="s">
         <v>401</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="42" s="32" customFormat="1" ht="100.2" spans="1:8">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="42" s="31" customFormat="1" ht="100.2" spans="1:7">
       <c r="A42" s="13" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>1267</v>
@@ -16913,19 +16927,18 @@
         <v>93</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>1438</v>
-      </c>
-      <c r="H42" s="31"/>
-    </row>
-    <row r="43" s="33" customFormat="1" ht="62.9" spans="1:8">
-      <c r="A43" s="38" t="s">
         <v>1439</v>
       </c>
-      <c r="B43" s="39" t="s">
+    </row>
+    <row r="43" s="32" customFormat="1" ht="62.9" spans="1:8">
+      <c r="A43" s="36" t="s">
         <v>1440</v>
       </c>
-      <c r="C43" s="39" t="s">
+      <c r="B43" s="37" t="s">
         <v>1441</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>1442</v>
       </c>
       <c r="D43" s="25">
         <v>2016</v>
@@ -16937,44 +16950,44 @@
         <v>93</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>1442</v>
-      </c>
-      <c r="H43" s="33" t="s">
         <v>1443</v>
       </c>
-    </row>
-    <row r="44" s="33" customFormat="1" ht="50.45" spans="1:7">
-      <c r="A44" s="38" t="s">
+      <c r="H43" s="32" t="s">
         <v>1444</v>
       </c>
-      <c r="B44" s="39" t="s">
+    </row>
+    <row r="44" s="32" customFormat="1" ht="50.45" spans="1:7">
+      <c r="A44" s="36" t="s">
         <v>1445</v>
       </c>
-      <c r="C44" s="39" t="s">
+      <c r="B44" s="37" t="s">
         <v>1446</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>1447</v>
       </c>
       <c r="D44" s="25">
         <v>2016</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="F44" s="25" t="s">
         <v>4</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="45" s="34" customFormat="1" ht="42.45" spans="1:8">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="45" s="32" customFormat="1" ht="42.45" spans="1:8">
       <c r="A45" s="26" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="D45" s="26">
         <v>2005</v>
@@ -16983,9 +16996,8 @@
         <v>3</v>
       </c>
       <c r="F45" s="26"/>
-      <c r="G45" s="33"/>
       <c r="H45" s="25" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
   </sheetData>
@@ -17099,10 +17111,10 @@
   <sheetData>
     <row r="1" customFormat="1" ht="62.15" spans="1:8">
       <c r="A1" s="5" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>865</v>
@@ -17111,92 +17123,92 @@
         <v>2016</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="H1" s="1"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="49.7" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="D2" s="7">
         <v>2016</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="49.7" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="D3" s="7">
         <v>2016</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>1136</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="75.3" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="D4" s="7">
         <v>2016</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="62.9" spans="1:7">
       <c r="A5" s="8" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>1185</v>
@@ -17205,159 +17217,159 @@
         <v>2016</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="75.3" spans="1:7">
       <c r="A6" s="13" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="D6" s="15">
         <v>2016</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>416</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="38.05" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="D7" s="7">
         <v>2016</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>358</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="38.05" spans="1:7">
       <c r="A8" s="8" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="D8" s="7">
         <v>2016</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>1033</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="125.05" spans="1:7">
       <c r="A9" s="8" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="D9" s="7">
         <v>2016</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>841</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="75.3" spans="1:7">
       <c r="A10" s="10" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>865</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="D10" s="7">
         <v>2015</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="G10" s="7"/>
     </row>
     <row r="11" customFormat="1" ht="50.45" spans="1:8">
       <c r="A11" s="8" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="D11" s="7">
         <v>2015</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>1263</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" customFormat="1" ht="62.9" spans="1:8">
       <c r="A12" s="17" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>814</v>
@@ -17372,16 +17384,16 @@
         <v>1273</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="50.45" spans="1:7">
       <c r="A13" s="17" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>1313</v>
@@ -17390,21 +17402,21 @@
         <v>2015</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>787</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="75.3" spans="1:7">
       <c r="A14" s="17" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>1313</v>
@@ -17419,18 +17431,18 @@
         <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="70.7" spans="1:8">
       <c r="A15" s="19" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="D15" s="19">
         <v>2014</v>
@@ -17444,10 +17456,10 @@
     </row>
     <row r="16" customFormat="1" ht="70.7" spans="1:8">
       <c r="A16" s="19" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>267</v>
@@ -17464,13 +17476,13 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="70.7" spans="1:6">
       <c r="A17" s="19" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D17" s="19">
         <v>2014</v>
@@ -17482,10 +17494,10 @@
     </row>
     <row r="18" customFormat="1" ht="56.55" spans="1:8">
       <c r="A18" s="19" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>654</v>
@@ -17502,10 +17514,10 @@
     </row>
     <row r="19" customFormat="1" ht="56.55" spans="1:8">
       <c r="A19" s="19" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>512</v>
@@ -17522,13 +17534,13 @@
     </row>
     <row r="20" s="1" customFormat="1" ht="70.7" spans="1:7">
       <c r="A20" s="19" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D20" s="19">
         <v>2014</v>
@@ -17540,18 +17552,18 @@
         <v>951</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="70.7" spans="1:8">
       <c r="A21" s="19" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="D21" s="19">
         <v>2014</v>
@@ -17565,10 +17577,10 @@
     </row>
     <row r="22" s="4" customFormat="1" ht="84.85" spans="1:8">
       <c r="A22" s="26" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>441</v>
@@ -17581,19 +17593,19 @@
       </c>
       <c r="F22" s="26"/>
       <c r="G22" s="24" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="H22" s="24"/>
     </row>
     <row r="23" customFormat="1" ht="56.55" spans="1:8">
       <c r="A23" s="19" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D23" s="19">
         <v>2014</v>
@@ -17607,13 +17619,13 @@
     </row>
     <row r="24" customFormat="1" ht="99" spans="1:8">
       <c r="A24" s="19" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D24" s="19">
         <v>2013</v>
@@ -17622,20 +17634,20 @@
         <v>83</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" customFormat="1" ht="56.55" spans="1:8">
       <c r="A25" s="19" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="D25" s="19">
         <v>2013</v>
@@ -17649,10 +17661,10 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="70.7" spans="1:6">
       <c r="A26" s="19" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>657</v>
@@ -17667,10 +17679,10 @@
     </row>
     <row r="27" customFormat="1" ht="70.7" spans="1:8">
       <c r="A27" s="19" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>178</v>
@@ -17687,13 +17699,13 @@
     </row>
     <row r="28" customFormat="1" ht="70.7" spans="1:8">
       <c r="A28" s="19" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="D28" s="19">
         <v>2013</v>
@@ -17707,10 +17719,10 @@
     </row>
     <row r="29" customFormat="1" ht="70.7" spans="1:8">
       <c r="A29" s="19" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>512</v>
@@ -17727,13 +17739,13 @@
     </row>
     <row r="30" customFormat="1" ht="56.55" spans="1:8">
       <c r="A30" s="19" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="D30" s="19">
         <v>2012</v>
@@ -17742,17 +17754,17 @@
         <v>162</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="70.7" spans="1:6">
       <c r="A31" s="19" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>497</v>
@@ -17764,15 +17776,15 @@
         <v>69</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="56.55" spans="1:8">
       <c r="A32" s="19" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>229</v>
@@ -17789,13 +17801,13 @@
     </row>
     <row r="33" customFormat="1" ht="42.45" spans="1:8">
       <c r="A33" s="19" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="D33" s="19">
         <v>2012</v>
@@ -17809,13 +17821,13 @@
     </row>
     <row r="34" customFormat="1" ht="56.55" spans="1:8">
       <c r="A34" s="19" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="D34" s="19">
         <v>2012</v>
@@ -17829,13 +17841,13 @@
     </row>
     <row r="35" customFormat="1" ht="84.85" spans="1:8">
       <c r="A35" s="19" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="D35" s="19">
         <v>2012</v>
@@ -17849,10 +17861,10 @@
     </row>
     <row r="36" customFormat="1" ht="84.85" spans="1:8">
       <c r="A36" s="19" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="C36" s="19" t="s">
         <v>1326</v>
@@ -17869,13 +17881,13 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="42.45" spans="1:6">
       <c r="A37" s="19" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="D37" s="19">
         <v>2012</v>
@@ -17887,10 +17899,10 @@
     </row>
     <row r="38" s="1" customFormat="1" ht="99" spans="1:6">
       <c r="A38" s="19" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>178</v>
@@ -17905,13 +17917,13 @@
     </row>
     <row r="39" customFormat="1" ht="42.45" spans="1:8">
       <c r="A39" s="19" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="D39" s="19">
         <v>2012</v>
@@ -17925,13 +17937,13 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="70.7" spans="1:6">
       <c r="A40" s="19" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="D40" s="19">
         <v>2011</v>
@@ -17943,13 +17955,13 @@
     </row>
     <row r="41" s="1" customFormat="1" ht="84.85" spans="1:6">
       <c r="A41" s="19" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="D41" s="19">
         <v>2011</v>
@@ -17961,13 +17973,13 @@
     </row>
     <row r="42" customFormat="1" ht="56.55" spans="1:8">
       <c r="A42" s="19" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="D42" s="19">
         <v>2011</v>
@@ -17981,10 +17993,10 @@
     </row>
     <row r="43" s="1" customFormat="1" ht="56.55" spans="1:6">
       <c r="A43" s="19" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="C43" s="19" t="s">
         <v>1251</v>
@@ -17999,13 +18011,13 @@
     </row>
     <row r="44" customFormat="1" ht="70.7" spans="1:8">
       <c r="A44" s="19" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="D44" s="19">
         <v>2011</v>
@@ -18019,13 +18031,13 @@
     </row>
     <row r="45" customFormat="1" ht="42.45" spans="1:8">
       <c r="A45" s="19" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="D45" s="19">
         <v>2011</v>
@@ -18039,13 +18051,13 @@
     </row>
     <row r="46" s="1" customFormat="1" ht="56.55" spans="1:6">
       <c r="A46" s="19" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="D46" s="19">
         <v>2011</v>
@@ -18057,13 +18069,13 @@
     </row>
     <row r="47" customFormat="1" ht="56.55" spans="1:8">
       <c r="A47" s="19" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="D47" s="19">
         <v>2011</v>
@@ -18077,13 +18089,13 @@
     </row>
     <row r="48" customFormat="1" ht="42.45" spans="1:8">
       <c r="A48" s="19" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="D48" s="19">
         <v>2011</v>
@@ -18097,10 +18109,10 @@
     </row>
     <row r="49" customFormat="1" ht="42.45" spans="1:8">
       <c r="A49" s="19" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="C49" s="19" t="s">
         <v>1257</v>
@@ -18117,10 +18129,10 @@
     </row>
     <row r="50" customFormat="1" ht="42.45" spans="1:8">
       <c r="A50" s="19" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="C50" s="19" t="s">
         <v>438</v>
@@ -18137,13 +18149,13 @@
     </row>
     <row r="51" s="1" customFormat="1" ht="42.45" spans="1:6">
       <c r="A51" s="19" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="D51" s="19">
         <v>2011</v>
@@ -18155,10 +18167,10 @@
     </row>
     <row r="52" s="1" customFormat="1" ht="56.55" spans="1:6">
       <c r="A52" s="19" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>1093</v>
@@ -18173,13 +18185,13 @@
     </row>
     <row r="53" customFormat="1" ht="70.7" spans="1:6">
       <c r="A53" s="19" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="D53" s="19">
         <v>2010</v>
@@ -18188,18 +18200,18 @@
         <v>132</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="54" customFormat="1" ht="84.85" spans="1:8">
       <c r="A54" s="19" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="D54" s="19">
         <v>2010</v>
@@ -18213,10 +18225,10 @@
     </row>
     <row r="55" customFormat="1" ht="99" spans="1:8">
       <c r="A55" s="19" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="C55" s="19" t="s">
         <v>1344</v>
@@ -18233,13 +18245,13 @@
     </row>
     <row r="56" s="1" customFormat="1" ht="56.55" spans="1:6">
       <c r="A56" s="19" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="D56" s="19">
         <v>2010</v>
@@ -18251,10 +18263,10 @@
     </row>
     <row r="57" customFormat="1" ht="56.55" spans="1:8">
       <c r="A57" s="19" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="C57" s="19" t="s">
         <v>1093</v>
@@ -18271,10 +18283,10 @@
     </row>
     <row r="58" customFormat="1" ht="56.55" spans="1:8">
       <c r="A58" s="19" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="C58" s="19" t="s">
         <v>438</v>
@@ -18291,13 +18303,13 @@
     </row>
     <row r="59" s="1" customFormat="1" ht="99" spans="1:6">
       <c r="A59" s="19" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="D59" s="19">
         <v>2010</v>
@@ -18309,13 +18321,13 @@
     </row>
     <row r="60" s="1" customFormat="1" ht="56.55" spans="1:6">
       <c r="A60" s="19" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="D60" s="19">
         <v>2010</v>
@@ -18327,10 +18339,10 @@
     </row>
     <row r="61" s="1" customFormat="1" ht="99" spans="1:6">
       <c r="A61" s="19" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="C61" s="19" t="s">
         <v>205</v>
@@ -18345,13 +18357,13 @@
     </row>
     <row r="62" customFormat="1" ht="84.85" spans="1:8">
       <c r="A62" s="19" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="D62" s="19">
         <v>2009</v>
@@ -18365,10 +18377,10 @@
     </row>
     <row r="63" customFormat="1" ht="99" spans="1:8">
       <c r="A63" s="19" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="C63" s="19" t="s">
         <v>181</v>
@@ -18385,10 +18397,10 @@
     </row>
     <row r="64" s="1" customFormat="1" ht="42.45" spans="1:6">
       <c r="A64" s="19" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="C64" s="19" t="s">
         <v>906</v>
@@ -18403,10 +18415,10 @@
     </row>
     <row r="65" customFormat="1" ht="70.7" spans="1:8">
       <c r="A65" s="19" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="C65" s="19" t="s">
         <v>229</v>
@@ -18423,10 +18435,10 @@
     </row>
     <row r="66" customFormat="1" ht="70.7" spans="1:8">
       <c r="A66" s="19" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="C66" s="19" t="s">
         <v>509</v>
@@ -18443,13 +18455,13 @@
     </row>
     <row r="67" s="1" customFormat="1" ht="42.45" spans="1:6">
       <c r="A67" s="19" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="D67" s="19">
         <v>2009</v>
@@ -18461,10 +18473,10 @@
     </row>
     <row r="68" s="1" customFormat="1" ht="56.55" spans="1:6">
       <c r="A68" s="19" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="C68" s="19" t="s">
         <v>494</v>
@@ -18479,10 +18491,10 @@
     </row>
     <row r="69" s="1" customFormat="1" ht="42.45" spans="1:6">
       <c r="A69" s="19" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="C69" s="19" t="s">
         <v>494</v>
@@ -18497,10 +18509,10 @@
     </row>
     <row r="70" s="1" customFormat="1" ht="70.7" spans="1:6">
       <c r="A70" s="19" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="C70" s="19" t="s">
         <v>583</v>
@@ -18515,10 +18527,10 @@
     </row>
     <row r="71" s="1" customFormat="1" ht="70.7" spans="1:6">
       <c r="A71" s="19" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="C71" s="19" t="s">
         <v>1344</v>
@@ -18533,13 +18545,13 @@
     </row>
     <row r="72" s="1" customFormat="1" ht="42.45" spans="1:6">
       <c r="A72" s="19" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="D72" s="19">
         <v>2008</v>
@@ -18551,13 +18563,13 @@
     </row>
     <row r="73" s="1" customFormat="1" ht="42.45" spans="1:6">
       <c r="A73" s="19" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="D73" s="19">
         <v>2008</v>
@@ -18569,10 +18581,10 @@
     </row>
     <row r="74" s="1" customFormat="1" ht="70.7" spans="1:6">
       <c r="A74" s="19" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>1336</v>
@@ -18587,13 +18599,13 @@
     </row>
     <row r="75" s="1" customFormat="1" ht="56.55" spans="1:6">
       <c r="A75" s="19" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D75" s="19">
         <v>2008</v>
@@ -18605,10 +18617,10 @@
     </row>
     <row r="76" customFormat="1" ht="42.45" spans="1:8">
       <c r="A76" s="19" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>332</v>
@@ -18625,13 +18637,13 @@
     </row>
     <row r="77" s="1" customFormat="1" ht="42.45" spans="1:6">
       <c r="A77" s="19" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="D77" s="19">
         <v>2008</v>
@@ -18643,10 +18655,10 @@
     </row>
     <row r="78" customFormat="1" ht="56.55" spans="1:8">
       <c r="A78" s="19" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="C78" s="19" t="s">
         <v>654</v>
@@ -18663,13 +18675,13 @@
     </row>
     <row r="79" customFormat="1" ht="56.55" spans="1:8">
       <c r="A79" s="19" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="D79" s="19">
         <v>2007</v>
@@ -18683,10 +18695,10 @@
     </row>
     <row r="80" customFormat="1" ht="42.45" spans="1:8">
       <c r="A80" s="19" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="C80" s="19" t="s">
         <v>205</v>
@@ -18703,13 +18715,13 @@
     </row>
     <row r="81" customFormat="1" ht="56.55" spans="1:8">
       <c r="A81" s="19" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="D81" s="19">
         <v>2007</v>
@@ -18723,13 +18735,13 @@
     </row>
     <row r="82" s="1" customFormat="1" ht="42.45" spans="1:6">
       <c r="A82" s="19" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="D82" s="19">
         <v>2007</v>
@@ -18741,13 +18753,13 @@
     </row>
     <row r="83" customFormat="1" ht="56.55" spans="1:8">
       <c r="A83" s="19" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D83" s="19">
         <v>2007</v>
@@ -18761,13 +18773,13 @@
     </row>
     <row r="84" s="1" customFormat="1" ht="56.55" spans="1:6">
       <c r="A84" s="19" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="D84" s="19">
         <v>2007</v>
@@ -18779,10 +18791,10 @@
     </row>
     <row r="85" s="1" customFormat="1" ht="56.55" spans="1:6">
       <c r="A85" s="19" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>321</v>
@@ -18797,10 +18809,10 @@
     </row>
     <row r="86" s="1" customFormat="1" ht="42.45" spans="1:6">
       <c r="A86" s="19" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="C86" s="19" t="s">
         <v>612</v>
@@ -18815,13 +18827,13 @@
     </row>
     <row r="87" s="1" customFormat="1" ht="113.15" spans="1:6">
       <c r="A87" s="19" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="D87" s="19">
         <v>2006</v>
@@ -18833,10 +18845,10 @@
     </row>
     <row r="88" s="1" customFormat="1" ht="56.55" spans="1:6">
       <c r="A88" s="19" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="C88" s="19" t="s">
         <v>205</v>
@@ -18851,13 +18863,13 @@
     </row>
     <row r="89" customFormat="1" ht="70.7" spans="1:8">
       <c r="A89" s="19" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="D89" s="19">
         <v>2006</v>
@@ -18871,13 +18883,13 @@
     </row>
     <row r="90" customFormat="1" ht="56.55" spans="1:8">
       <c r="A90" s="19" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="D90" s="19">
         <v>2006</v>
@@ -18891,10 +18903,10 @@
     </row>
     <row r="91" s="1" customFormat="1" ht="56.55" spans="1:6">
       <c r="A91" s="19" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="C91" s="19" t="s">
         <v>197</v>
@@ -18909,10 +18921,10 @@
     </row>
     <row r="92" s="1" customFormat="1" ht="42.45" spans="1:6">
       <c r="A92" s="19" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="C92" s="19" t="s">
         <v>1257</v>
@@ -18927,13 +18939,13 @@
     </row>
     <row r="93" s="1" customFormat="1" ht="56.55" spans="1:9">
       <c r="A93" s="19" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="D93" s="19">
         <v>2006</v>
@@ -18946,10 +18958,10 @@
     </row>
     <row r="94" s="1" customFormat="1" ht="56.55" spans="1:6">
       <c r="A94" s="19" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="C94" s="19" t="s">
         <v>254</v>
@@ -18964,10 +18976,10 @@
     </row>
     <row r="95" s="1" customFormat="1" ht="56.55" spans="1:6">
       <c r="A95" s="19" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="C95" s="19" t="s">
         <v>536</v>
@@ -18982,10 +18994,10 @@
     </row>
     <row r="96" customFormat="1" ht="70.7" spans="1:8">
       <c r="A96" s="19" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="C96" s="19" t="s">
         <v>648</v>
@@ -19002,10 +19014,10 @@
     </row>
     <row r="97" s="1" customFormat="1" ht="84.85" spans="1:6">
       <c r="A97" s="19" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="C97" s="19" t="s">
         <v>205</v>
@@ -19020,13 +19032,13 @@
     </row>
     <row r="98" customFormat="1" ht="56.55" spans="1:7">
       <c r="A98" s="19" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="D98" s="19">
         <v>2005</v>
@@ -19039,13 +19051,13 @@
     </row>
     <row r="99" s="1" customFormat="1" ht="42.45" spans="1:6">
       <c r="A99" s="19" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="D99" s="19">
         <v>2004</v>
@@ -19057,13 +19069,13 @@
     </row>
     <row r="100" s="4" customFormat="1" ht="56.55" spans="1:7">
       <c r="A100" s="26" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="C100" s="26" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="D100" s="26">
         <v>2004</v>
@@ -19078,13 +19090,13 @@
     </row>
     <row r="101" customFormat="1" ht="56.55" spans="1:8">
       <c r="A101" s="19" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="D101" s="19">
         <v>2003</v>
@@ -19098,13 +19110,13 @@
     </row>
     <row r="102" customFormat="1" ht="42.45" spans="1:8">
       <c r="A102" s="19" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="D102" s="19">
         <v>2003</v>
@@ -19118,10 +19130,10 @@
     </row>
     <row r="103" s="1" customFormat="1" ht="70.7" spans="1:8">
       <c r="A103" s="19" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="C103" s="19" t="s">
         <v>202</v>
@@ -19137,13 +19149,13 @@
     </row>
     <row r="104" s="1" customFormat="1" ht="70.7" spans="1:8">
       <c r="A104" s="19" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="D104" s="19">
         <v>2003</v>
@@ -19156,13 +19168,13 @@
     </row>
     <row r="105" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A105" s="19" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="D105" s="19">
         <v>2002</v>
@@ -19175,10 +19187,10 @@
     </row>
     <row r="106" customFormat="1" ht="70.7" spans="1:8">
       <c r="A106" s="19" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="C106" s="19" t="s">
         <v>220</v>
@@ -19195,13 +19207,13 @@
     </row>
     <row r="107" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A107" s="19" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="D107" s="19">
         <v>2000</v>
@@ -19214,10 +19226,10 @@
     </row>
     <row r="108" customFormat="1" ht="42.45" spans="1:8">
       <c r="A108" s="19" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="C108" s="19" t="s">
         <v>1267</v>
@@ -19234,10 +19246,10 @@
     </row>
     <row r="109" customFormat="1" ht="42.45" spans="1:8">
       <c r="A109" s="19" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="C109" s="19" t="s">
         <v>1093</v>
@@ -19254,13 +19266,13 @@
     </row>
     <row r="110" s="1" customFormat="1" ht="70.7" spans="1:8">
       <c r="A110" s="19" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="D110" s="19">
         <v>1996</v>
@@ -19273,10 +19285,10 @@
     </row>
     <row r="111" customFormat="1" ht="42.45" spans="1:8">
       <c r="A111" s="19" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="C111" s="19" t="s">
         <v>906</v>
@@ -19293,13 +19305,13 @@
     </row>
     <row r="112" customFormat="1" ht="42.45" spans="1:8">
       <c r="A112" s="19" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="D112" s="19">
         <v>1995</v>
@@ -19313,13 +19325,13 @@
     </row>
     <row r="113" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A113" s="19" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="D113" s="19">
         <v>1994</v>
@@ -19332,13 +19344,13 @@
     </row>
     <row r="114" customFormat="1" ht="56.55" spans="1:8">
       <c r="A114" s="19" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="D114" s="19">
         <v>1993</v>
@@ -19352,13 +19364,13 @@
     </row>
     <row r="115" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A115" s="19" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="D115" s="19">
         <v>1993</v>
@@ -19371,13 +19383,13 @@
     </row>
     <row r="116" customFormat="1" ht="42.45" spans="1:8">
       <c r="A116" s="19" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="D116" s="19">
         <v>1991</v>
@@ -19391,10 +19403,10 @@
     </row>
     <row r="117" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A117" s="19" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="C117" s="19" t="s">
         <v>1148</v>
@@ -19410,13 +19422,13 @@
     </row>
     <row r="118" customFormat="1" ht="70.7" spans="1:8">
       <c r="A118" s="19" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="D118" s="19">
         <v>1988</v>
@@ -19430,10 +19442,10 @@
     </row>
     <row r="119" customFormat="1" ht="70.7" spans="1:8">
       <c r="A119" s="19" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="C119" s="19" t="s">
         <v>497</v>
@@ -19450,10 +19462,10 @@
     </row>
     <row r="120" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A120" s="19" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="C120" s="19" t="s">
         <v>541</v>
@@ -19469,13 +19481,13 @@
     </row>
     <row r="121" customFormat="1" ht="56.55" spans="1:8">
       <c r="A121" s="19" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="D121" s="19">
         <v>1985</v>
@@ -19489,13 +19501,13 @@
     </row>
     <row r="122" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A122" s="19" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="D122" s="19">
         <v>1984</v>
@@ -19508,10 +19520,10 @@
     </row>
     <row r="123" customFormat="1" ht="42.45" spans="1:8">
       <c r="A123" s="19" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="C123" s="19" t="s">
         <v>558</v>
@@ -19528,13 +19540,13 @@
     </row>
     <row r="124" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A124" s="19" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="D124" s="19">
         <v>1983</v>
@@ -19547,10 +19559,10 @@
     </row>
     <row r="125" customFormat="1" ht="56.55" spans="1:8">
       <c r="A125" s="19" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="C125" s="19" t="s">
         <v>629</v>
@@ -19567,10 +19579,10 @@
     </row>
     <row r="126" customFormat="1" ht="113.15" spans="1:8">
       <c r="A126" s="19" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="C126" s="19" t="s">
         <v>629</v>
@@ -19587,13 +19599,13 @@
     </row>
     <row r="127" customFormat="1" ht="70.7" spans="1:8">
       <c r="A127" s="19" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="D127" s="19">
         <v>1981</v>
@@ -19607,11 +19619,11 @@
     </row>
     <row r="128" customFormat="1" ht="42.45" spans="1:8">
       <c r="A128" s="19" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="B128" s="19"/>
       <c r="C128" s="19" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="D128" s="19">
         <v>1981</v>
@@ -19625,10 +19637,10 @@
     </row>
     <row r="129" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A129" s="19" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="C129" s="19" t="s">
         <v>1197</v>
@@ -19644,13 +19656,13 @@
     </row>
     <row r="130" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A130" s="19" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="D130" s="19">
         <v>1980</v>
@@ -19663,13 +19675,13 @@
     </row>
     <row r="131" s="1" customFormat="1" ht="70.7" spans="1:8">
       <c r="A131" s="19" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="D131" s="19">
         <v>1980</v>
@@ -19682,13 +19694,13 @@
     </row>
     <row r="132" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A132" s="19" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="D132" s="19">
         <v>1980</v>
@@ -19701,10 +19713,10 @@
     </row>
     <row r="133" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A133" s="19" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="C133" s="19" t="s">
         <v>606</v>
@@ -19720,13 +19732,13 @@
     </row>
     <row r="134" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A134" s="19" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="D134" s="19">
         <v>1979</v>
@@ -19739,13 +19751,13 @@
     </row>
     <row r="135" customFormat="1" ht="113.15" spans="1:8">
       <c r="A135" s="19" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="D135" s="19">
         <v>1979</v>
@@ -19759,28 +19771,28 @@
     </row>
     <row r="136" s="24" customFormat="1" ht="74.55" spans="1:8">
       <c r="A136" s="27" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="B136" s="28" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="D136" s="25">
         <v>2016</v>
       </c>
       <c r="E136" s="25" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="F136" s="25" t="s">
         <v>93</v>
       </c>
       <c r="G136" s="25" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="H136" s="24" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
     </row>
   </sheetData>
@@ -19965,37 +19977,37 @@
   <sheetData>
     <row r="1" ht="50.45" spans="1:8">
       <c r="A1" s="5" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="D1" s="7">
         <v>2016</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>93</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="H1" s="1"/>
     </row>
     <row r="2" customFormat="1" ht="62.9" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="D2" s="7">
         <v>2016</v>
@@ -20011,13 +20023,13 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="62.9" spans="1:7">
       <c r="A3" s="10" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="D3" s="7">
         <v>2015</v>
@@ -20029,30 +20041,30 @@
         <v>406</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="50.45" spans="1:8">
       <c r="A4" s="13" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="D4" s="15">
         <v>2015</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>1149</v>
@@ -20060,42 +20072,42 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="87.75" spans="1:7">
       <c r="A5" s="17" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="D5" s="7">
         <v>2015</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="38.05" spans="1:9">
       <c r="A6" s="8" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="D6" s="7">
         <v>2015</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>93</v>
@@ -20105,13 +20117,13 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="67.3" spans="1:9">
       <c r="A7" s="10" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>1179</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="D7" s="7">
         <v>2015</v>
@@ -20120,7 +20132,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>1149</v>
@@ -20129,10 +20141,10 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="99" spans="1:6">
       <c r="A8" s="19" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>247</v>
@@ -20147,13 +20159,13 @@
     </row>
     <row r="9" customFormat="1" ht="127.3" spans="1:8">
       <c r="A9" s="19" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="D9" s="19">
         <v>2014</v>
@@ -20167,10 +20179,10 @@
     </row>
     <row r="10" customFormat="1" ht="113.15" spans="1:8">
       <c r="A10" s="19" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>311</v>
@@ -20187,10 +20199,10 @@
     </row>
     <row r="11" customFormat="1" ht="70.7" spans="1:8">
       <c r="A11" s="19" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>205</v>
@@ -20207,13 +20219,13 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="70.7" spans="1:6">
       <c r="A12" s="19" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="D12" s="19">
         <v>2014</v>
@@ -20225,13 +20237,13 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="56.55" spans="1:6">
       <c r="A13" s="19" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="D13" s="19">
         <v>2013</v>
@@ -20243,13 +20255,13 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="70.7" spans="1:9">
       <c r="A14" s="19" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="D14" s="19">
         <v>2013</v>
@@ -20264,13 +20276,13 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="99" spans="1:6">
       <c r="A15" s="19" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="D15" s="19">
         <v>2013</v>
@@ -20282,13 +20294,13 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="70.7" spans="1:9">
       <c r="A16" s="19" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="D16" s="19">
         <v>2013</v>
@@ -20301,10 +20313,10 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="84.85" spans="1:6">
       <c r="A17" s="19" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>1090</v>
@@ -20319,10 +20331,10 @@
     </row>
     <row r="18" customFormat="1" ht="70.7" spans="1:8">
       <c r="A18" s="19" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>229</v>
@@ -20339,13 +20351,13 @@
     </row>
     <row r="19" customFormat="1" ht="169.3" spans="1:8">
       <c r="A19" s="19" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="D19" s="19">
         <v>2013</v>
@@ -20359,10 +20371,10 @@
     </row>
     <row r="20" customFormat="1" ht="70.7" spans="1:8">
       <c r="A20" s="19" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>273</v>
@@ -20379,13 +20391,13 @@
     </row>
     <row r="21" customFormat="1" ht="99" spans="1:8">
       <c r="A21" s="19" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="D21" s="19">
         <v>2012</v>
@@ -20399,10 +20411,10 @@
     </row>
     <row r="22" customFormat="1" ht="56.55" spans="1:8">
       <c r="A22" s="19" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>512</v>
@@ -20419,10 +20431,10 @@
     </row>
     <row r="23" customFormat="1" ht="42.45" spans="1:8">
       <c r="A23" s="19" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>515</v>
@@ -20439,13 +20451,13 @@
     </row>
     <row r="24" customFormat="1" ht="99" spans="1:8">
       <c r="A24" s="19" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="D24" s="19">
         <v>2012</v>
@@ -20459,13 +20471,13 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="56.55" spans="1:6">
       <c r="A25" s="19" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="D25" s="19">
         <v>2012</v>
@@ -20477,10 +20489,10 @@
     </row>
     <row r="26" customFormat="1" ht="99" spans="1:8">
       <c r="A26" s="19" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>567</v>
@@ -20497,13 +20509,13 @@
     </row>
     <row r="27" customFormat="1" ht="42.45" spans="1:8">
       <c r="A27" s="19" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="D27" s="19">
         <v>2012</v>
@@ -20517,10 +20529,10 @@
     </row>
     <row r="28" customFormat="1" ht="56.55" spans="1:8">
       <c r="A28" s="19" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>587</v>
@@ -20537,13 +20549,13 @@
     </row>
     <row r="29" customFormat="1" ht="56.55" spans="1:8">
       <c r="A29" s="19" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="D29" s="19">
         <v>2012</v>
@@ -20557,10 +20569,10 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="70.7" spans="1:6">
       <c r="A30" s="19" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>205</v>
@@ -20575,10 +20587,10 @@
     </row>
     <row r="31" customFormat="1" ht="113.15" spans="1:8">
       <c r="A31" s="19" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>648</v>
@@ -20595,10 +20607,10 @@
     </row>
     <row r="32" s="1" customFormat="1" ht="42.45" spans="1:6">
       <c r="A32" s="19" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>202</v>
@@ -20613,13 +20625,13 @@
     </row>
     <row r="33" customFormat="1" ht="99" spans="1:8">
       <c r="A33" s="19" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="D33" s="19">
         <v>2011</v>
@@ -20633,13 +20645,13 @@
     </row>
     <row r="34" s="1" customFormat="1" ht="42.45" spans="1:6">
       <c r="A34" s="19" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="D34" s="19">
         <v>2011</v>
@@ -20651,13 +20663,13 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="84.85" spans="1:6">
       <c r="A35" s="19" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="D35" s="19">
         <v>2011</v>
@@ -20669,10 +20681,10 @@
     </row>
     <row r="36" customFormat="1" ht="84.85" spans="1:8">
       <c r="A36" s="19" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="C36" s="19" t="s">
         <v>503</v>
@@ -20689,13 +20701,13 @@
     </row>
     <row r="37" customFormat="1" ht="99" spans="1:8">
       <c r="A37" s="19" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="D37" s="19">
         <v>2010</v>
@@ -20704,20 +20716,20 @@
         <v>1</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38" customFormat="1" ht="56.55" spans="1:8">
       <c r="A38" s="19" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="D38" s="19">
         <v>2010</v>
@@ -20731,10 +20743,10 @@
     </row>
     <row r="39" customFormat="1" ht="84.85" spans="1:8">
       <c r="A39" s="19" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>205</v>
@@ -20751,10 +20763,10 @@
     </row>
     <row r="40" customFormat="1" ht="84.85" spans="1:9">
       <c r="A40" s="19" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>494</v>
@@ -20772,10 +20784,10 @@
     </row>
     <row r="41" customFormat="1" ht="56.55" spans="1:8">
       <c r="A41" s="19" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>704</v>
@@ -20792,10 +20804,10 @@
     </row>
     <row r="42" s="1" customFormat="1" ht="56.55" spans="1:6">
       <c r="A42" s="19" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="C42" s="19" t="s">
         <v>202</v>
@@ -20810,13 +20822,13 @@
     </row>
     <row r="43" customFormat="1" ht="84.85" spans="1:8">
       <c r="A43" s="19" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="D43" s="19">
         <v>2010</v>
@@ -20830,10 +20842,10 @@
     </row>
     <row r="44" customFormat="1" ht="70.7" spans="1:6">
       <c r="A44" s="19" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="C44" s="19" t="s">
         <v>632</v>
@@ -20848,13 +20860,13 @@
     </row>
     <row r="45" s="1" customFormat="1" ht="42.45" spans="1:6">
       <c r="A45" s="19" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D45" s="19">
         <v>2008</v>
@@ -20866,13 +20878,13 @@
     </row>
     <row r="46" s="1" customFormat="1" ht="56.55" spans="1:6">
       <c r="A46" s="19" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="D46" s="19">
         <v>2008</v>
@@ -20884,13 +20896,13 @@
     </row>
     <row r="47" s="1" customFormat="1" ht="99" spans="1:6">
       <c r="A47" s="19" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="D47" s="19">
         <v>2008</v>
@@ -20902,10 +20914,10 @@
     </row>
     <row r="48" s="1" customFormat="1" ht="113.15" spans="1:6">
       <c r="A48" s="19" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="C48" s="19" t="s">
         <v>311</v>
@@ -20920,10 +20932,10 @@
     </row>
     <row r="49" s="1" customFormat="1" ht="141" spans="1:6">
       <c r="A49" s="19" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="C49" s="19" t="s">
         <v>494</v>
@@ -20938,10 +20950,10 @@
     </row>
     <row r="50" s="1" customFormat="1" ht="99" spans="1:6">
       <c r="A50" s="19" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="C50" s="19" t="s">
         <v>247</v>
@@ -20956,10 +20968,10 @@
     </row>
     <row r="51" customFormat="1" ht="56.55" spans="1:8">
       <c r="A51" s="19" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="C51" s="19" t="s">
         <v>592</v>
@@ -20976,10 +20988,10 @@
     </row>
     <row r="52" customFormat="1" ht="70.7" spans="1:8">
       <c r="A52" s="19" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>1344</v>
@@ -20996,13 +21008,13 @@
     </row>
     <row r="53" customFormat="1" ht="42.45" spans="1:8">
       <c r="A53" s="19" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="D53" s="19">
         <v>2008</v>
@@ -21016,13 +21028,13 @@
     </row>
     <row r="54" customFormat="1" ht="56.55" spans="1:8">
       <c r="A54" s="19" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="D54" s="19">
         <v>2008</v>
@@ -21036,13 +21048,13 @@
     </row>
     <row r="55" customFormat="1" ht="70.7" spans="1:8">
       <c r="A55" s="19" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="D55" s="19">
         <v>2008</v>
@@ -21056,13 +21068,13 @@
     </row>
     <row r="56" customFormat="1" ht="84.85" spans="1:8">
       <c r="A56" s="19" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="D56" s="19">
         <v>2007</v>
@@ -21076,13 +21088,13 @@
     </row>
     <row r="57" customFormat="1" ht="56.55" spans="1:8">
       <c r="A57" s="19" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D57" s="19">
         <v>2007</v>
@@ -21096,13 +21108,13 @@
     </row>
     <row r="58" s="1" customFormat="1" ht="70.7" spans="1:6">
       <c r="A58" s="19" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D58" s="19">
         <v>2007</v>
@@ -21114,10 +21126,10 @@
     </row>
     <row r="59" customFormat="1" ht="42.45" spans="1:8">
       <c r="A59" s="19" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="C59" s="19" t="s">
         <v>321</v>
@@ -21134,10 +21146,10 @@
     </row>
     <row r="60" customFormat="1" ht="42.45" spans="1:8">
       <c r="A60" s="19" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="C60" s="19" t="s">
         <v>1344</v>
@@ -21154,13 +21166,13 @@
     </row>
     <row r="61" customFormat="1" ht="183.45" spans="1:8">
       <c r="A61" s="19" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="D61" s="19">
         <v>2007</v>
@@ -21174,13 +21186,13 @@
     </row>
     <row r="62" customFormat="1" ht="70.7" spans="1:8">
       <c r="A62" s="19" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="D62" s="19">
         <v>2007</v>
@@ -21194,13 +21206,13 @@
     </row>
     <row r="63" s="1" customFormat="1" ht="84.85" spans="1:6">
       <c r="A63" s="19" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="D63" s="19">
         <v>2007</v>
@@ -21212,10 +21224,10 @@
     </row>
     <row r="64" s="1" customFormat="1" ht="70.7" spans="1:6">
       <c r="A64" s="19" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="C64" s="19" t="s">
         <v>205</v>
@@ -21230,10 +21242,10 @@
     </row>
     <row r="65" customFormat="1" ht="56.55" spans="1:8">
       <c r="A65" s="19" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="C65" s="19" t="s">
         <v>500</v>
@@ -21250,13 +21262,13 @@
     </row>
     <row r="66" s="1" customFormat="1" ht="56.55" spans="1:6">
       <c r="A66" s="19" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="D66" s="19">
         <v>2007</v>
@@ -21268,10 +21280,10 @@
     </row>
     <row r="67" s="1" customFormat="1" ht="42.45" spans="1:6">
       <c r="A67" s="19" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="C67" s="19" t="s">
         <v>494</v>
@@ -21286,13 +21298,13 @@
     </row>
     <row r="68" s="1" customFormat="1" ht="70.7" spans="1:6">
       <c r="A68" s="19" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="D68" s="19">
         <v>2006</v>
@@ -21304,13 +21316,13 @@
     </row>
     <row r="69" customFormat="1" ht="42.45" spans="1:8">
       <c r="A69" s="19" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="D69" s="19">
         <v>2006</v>
@@ -21324,13 +21336,13 @@
     </row>
     <row r="70" s="1" customFormat="1" ht="42.45" spans="1:6">
       <c r="A70" s="19" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="D70" s="19">
         <v>2006</v>
@@ -21342,10 +21354,10 @@
     </row>
     <row r="71" customFormat="1" ht="70.7" spans="1:8">
       <c r="A71" s="19" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="C71" s="19" t="s">
         <v>202</v>
@@ -21362,13 +21374,13 @@
     </row>
     <row r="72" customFormat="1" ht="113.15" spans="1:8">
       <c r="A72" s="19" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D72" s="19">
         <v>2005</v>
@@ -21382,13 +21394,13 @@
     </row>
     <row r="73" s="1" customFormat="1" ht="84.85" spans="1:6">
       <c r="A73" s="19" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="D73" s="19">
         <v>2005</v>
@@ -21400,10 +21412,10 @@
     </row>
     <row r="74" customFormat="1" ht="113.15" spans="1:8">
       <c r="A74" s="19" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>178</v>
@@ -21420,13 +21432,13 @@
     </row>
     <row r="75" customFormat="1" ht="84.85" spans="1:8">
       <c r="A75" s="19" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D75" s="19">
         <v>2005</v>
@@ -21440,13 +21452,13 @@
     </row>
     <row r="76" s="1" customFormat="1" ht="84.85" spans="1:8">
       <c r="A76" s="19" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="D76" s="19">
         <v>2004</v>
@@ -21459,13 +21471,13 @@
     </row>
     <row r="77" customFormat="1" ht="56.55" spans="1:8">
       <c r="A77" s="19" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="D77" s="19">
         <v>2004</v>
@@ -21479,13 +21491,13 @@
     </row>
     <row r="78" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A78" s="19" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D78" s="19">
         <v>2004</v>
@@ -21498,10 +21510,10 @@
     </row>
     <row r="79" customFormat="1" ht="56.55" spans="1:8">
       <c r="A79" s="19" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C79" s="19" t="s">
         <v>45</v>
@@ -21518,13 +21530,13 @@
     </row>
     <row r="80" customFormat="1" ht="42.45" spans="1:8">
       <c r="A80" s="19" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D80" s="19">
         <v>2004</v>
@@ -21538,13 +21550,13 @@
     </row>
     <row r="81" customFormat="1" ht="56.55" spans="1:8">
       <c r="A81" s="19" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="D81" s="19">
         <v>2004</v>
@@ -21558,10 +21570,10 @@
     </row>
     <row r="82" s="1" customFormat="1" ht="84.85" spans="1:8">
       <c r="A82" s="19" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C82" s="19" t="s">
         <v>45</v>
@@ -21577,13 +21589,13 @@
     </row>
     <row r="83" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A83" s="19" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="D83" s="19">
         <v>2004</v>
@@ -21596,10 +21608,10 @@
     </row>
     <row r="84" s="1" customFormat="1" ht="99" spans="1:8">
       <c r="A84" s="19" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="C84" s="19" t="s">
         <v>45</v>
@@ -21615,10 +21627,10 @@
     </row>
     <row r="85" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A85" s="19" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>612</v>
@@ -21634,10 +21646,10 @@
     </row>
     <row r="86" s="1" customFormat="1" ht="84.85" spans="1:8">
       <c r="A86" s="19" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="C86" s="19" t="s">
         <v>205</v>
@@ -21653,11 +21665,11 @@
     </row>
     <row r="87" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A87" s="19" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="B87" s="19"/>
       <c r="C87" s="19" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="D87" s="19">
         <v>2003</v>
@@ -21670,10 +21682,10 @@
     </row>
     <row r="88" customFormat="1" ht="28.3" spans="1:8">
       <c r="A88" s="19" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="C88" s="19" t="s">
         <v>632</v>
@@ -21690,13 +21702,13 @@
     </row>
     <row r="89" s="1" customFormat="1" ht="70.7" spans="1:8">
       <c r="A89" s="19" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="D89" s="19">
         <v>2003</v>
@@ -21709,13 +21721,13 @@
     </row>
     <row r="90" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A90" s="19" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="D90" s="19">
         <v>2002</v>
@@ -21728,13 +21740,13 @@
     </row>
     <row r="91" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A91" s="19" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="D91" s="19">
         <v>2002</v>
@@ -21747,10 +21759,10 @@
     </row>
     <row r="92" customFormat="1" ht="56.55" spans="1:8">
       <c r="A92" s="19" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="C92" s="19" t="s">
         <v>321</v>
@@ -21767,13 +21779,13 @@
     </row>
     <row r="93" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A93" s="19" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="D93" s="19">
         <v>2002</v>
@@ -21786,10 +21798,10 @@
     </row>
     <row r="94" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A94" s="19" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="C94" s="19" t="s">
         <v>45</v>
@@ -21805,13 +21817,13 @@
     </row>
     <row r="95" customFormat="1" ht="70.7" spans="1:8">
       <c r="A95" s="19" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="D95" s="19">
         <v>2000</v>
@@ -21825,13 +21837,13 @@
     </row>
     <row r="96" customFormat="1" ht="70.7" spans="1:8">
       <c r="A96" s="19" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="D96" s="19">
         <v>2000</v>
@@ -21845,13 +21857,13 @@
     </row>
     <row r="97" customFormat="1" ht="70.7" spans="1:8">
       <c r="A97" s="19" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="D97" s="19">
         <v>2000</v>
@@ -21865,10 +21877,10 @@
     </row>
     <row r="98" customFormat="1" ht="42.45" spans="1:8">
       <c r="A98" s="19" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="C98" s="19" t="s">
         <v>523</v>
@@ -21885,13 +21897,13 @@
     </row>
     <row r="99" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A99" s="19" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="D99" s="19">
         <v>2000</v>
@@ -21904,10 +21916,10 @@
     </row>
     <row r="100" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A100" s="19" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="C100" s="19" t="s">
         <v>105</v>
@@ -21923,13 +21935,13 @@
     </row>
     <row r="101" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A101" s="19" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="D101" s="19">
         <v>1999</v>
@@ -21942,13 +21954,13 @@
     </row>
     <row r="102" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A102" s="19" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="D102" s="19">
         <v>1999</v>
@@ -21961,13 +21973,13 @@
     </row>
     <row r="103" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A103" s="19" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="D103" s="19">
         <v>1999</v>
@@ -21980,13 +21992,13 @@
     </row>
     <row r="104" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A104" s="19" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="D104" s="19">
         <v>1998</v>
@@ -21999,10 +22011,10 @@
     </row>
     <row r="105" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A105" s="19" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="C105" s="19" t="s">
         <v>579</v>
@@ -22018,10 +22030,10 @@
     </row>
     <row r="106" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A106" s="19" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="C106" s="19" t="s">
         <v>995</v>
@@ -22037,13 +22049,13 @@
     </row>
     <row r="107" customFormat="1" ht="56.55" spans="1:8">
       <c r="A107" s="19" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="D107" s="19">
         <v>1998</v>
@@ -22057,13 +22069,13 @@
     </row>
     <row r="108" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A108" s="19" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="D108" s="19">
         <v>1998</v>
@@ -22076,10 +22088,10 @@
     </row>
     <row r="109" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A109" s="19" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="C109" s="19" t="s">
         <v>564</v>
@@ -22095,10 +22107,10 @@
     </row>
     <row r="110" customFormat="1" ht="70.7" spans="1:8">
       <c r="A110" s="19" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="C110" s="19" t="s">
         <v>311</v>
@@ -22115,10 +22127,10 @@
     </row>
     <row r="111" s="1" customFormat="1" ht="70.7" spans="1:8">
       <c r="A111" s="19" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="C111" s="19" t="s">
         <v>347</v>
@@ -22134,13 +22146,13 @@
     </row>
     <row r="112" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A112" s="19" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="D112" s="19">
         <v>1997</v>
@@ -22153,10 +22165,10 @@
     </row>
     <row r="113" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A113" s="19" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="C113" s="19" t="s">
         <v>564</v>
@@ -22172,13 +22184,13 @@
     </row>
     <row r="114" customFormat="1" ht="42.45" spans="1:8">
       <c r="A114" s="19" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="D114" s="19">
         <v>1996</v>
@@ -22192,13 +22204,13 @@
     </row>
     <row r="115" customFormat="1" ht="42.45" spans="1:8">
       <c r="A115" s="19" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="D115" s="19">
         <v>1996</v>
@@ -22212,13 +22224,13 @@
     </row>
     <row r="116" customFormat="1" ht="42.45" spans="1:8">
       <c r="A116" s="19" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="D116" s="19">
         <v>1996</v>
@@ -22232,10 +22244,10 @@
     </row>
     <row r="117" customFormat="1" ht="56.55" spans="1:8">
       <c r="A117" s="19" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="C117" s="19" t="s">
         <v>704</v>
@@ -22252,13 +22264,13 @@
     </row>
     <row r="118" customFormat="1" ht="84.85" spans="1:8">
       <c r="A118" s="19" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="D118" s="19">
         <v>1996</v>
@@ -22272,13 +22284,13 @@
     </row>
     <row r="119" customFormat="1" ht="56.55" spans="1:8">
       <c r="A119" s="19" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="D119" s="19">
         <v>1995</v>
@@ -22292,13 +22304,13 @@
     </row>
     <row r="120" customFormat="1" ht="56.55" spans="1:8">
       <c r="A120" s="19" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="D120" s="19">
         <v>1995</v>
@@ -22312,13 +22324,13 @@
     </row>
     <row r="121" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A121" s="19" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="D121" s="19">
         <v>1994</v>
@@ -22331,13 +22343,13 @@
     </row>
     <row r="122" customFormat="1" ht="56.55" spans="1:8">
       <c r="A122" s="19" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="D122" s="19">
         <v>1994</v>
@@ -22351,13 +22363,13 @@
     </row>
     <row r="123" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A123" s="19" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="D123" s="19">
         <v>1994</v>
@@ -22370,13 +22382,13 @@
     </row>
     <row r="124" customFormat="1" ht="56.55" spans="1:8">
       <c r="A124" s="19" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="D124" s="19">
         <v>1994</v>
@@ -22390,13 +22402,13 @@
     </row>
     <row r="125" customFormat="1" ht="56.55" spans="1:8">
       <c r="A125" s="19" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="D125" s="19">
         <v>1994</v>
@@ -22410,13 +22422,13 @@
     </row>
     <row r="126" customFormat="1" ht="56.55" spans="1:8">
       <c r="A126" s="19" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="D126" s="19">
         <v>1993</v>
@@ -22430,13 +22442,13 @@
     </row>
     <row r="127" customFormat="1" ht="56.55" spans="1:8">
       <c r="A127" s="19" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="D127" s="19">
         <v>1993</v>
@@ -22450,13 +22462,13 @@
     </row>
     <row r="128" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A128" s="19" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="D128" s="19">
         <v>1993</v>
@@ -22469,10 +22481,10 @@
     </row>
     <row r="129" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A129" s="19" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="C129" s="19" t="s">
         <v>197</v>
@@ -22488,13 +22500,13 @@
     </row>
     <row r="130" customFormat="1" ht="56.55" spans="1:8">
       <c r="A130" s="19" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="D130" s="19">
         <v>1993</v>
@@ -22508,13 +22520,13 @@
     </row>
     <row r="131" customFormat="1" ht="42.45" spans="1:8">
       <c r="A131" s="19" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="D131" s="19">
         <v>1992</v>
@@ -22528,13 +22540,13 @@
     </row>
     <row r="132" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A132" s="19" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="D132" s="19">
         <v>1992</v>
@@ -22547,13 +22559,13 @@
     </row>
     <row r="133" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A133" s="19" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="D133" s="19">
         <v>1992</v>
@@ -22566,13 +22578,13 @@
     </row>
     <row r="134" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A134" s="19" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="D134" s="19">
         <v>1992</v>
@@ -22585,13 +22597,13 @@
     </row>
     <row r="135" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A135" s="19" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="D135" s="19">
         <v>1991</v>
@@ -22604,13 +22616,13 @@
     </row>
     <row r="136" s="1" customFormat="1" ht="70.7" spans="1:8">
       <c r="A136" s="19" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="D136" s="19">
         <v>1991</v>
@@ -22623,13 +22635,13 @@
     </row>
     <row r="137" s="1" customFormat="1" ht="99" spans="1:8">
       <c r="A137" s="19" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="D137" s="19">
         <v>1991</v>
@@ -22642,13 +22654,13 @@
     </row>
     <row r="138" s="3" customFormat="1" ht="70.7" spans="1:8">
       <c r="A138" s="20" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="D138" s="20">
         <v>1991</v>
@@ -22664,13 +22676,13 @@
     </row>
     <row r="139" s="1" customFormat="1" ht="70.7" spans="1:8">
       <c r="A139" s="19" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="D139" s="19">
         <v>1990</v>
@@ -22683,10 +22695,10 @@
     </row>
     <row r="140" customFormat="1" ht="70.7" spans="1:8">
       <c r="A140" s="19" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="C140" s="19" t="s">
         <v>598</v>
@@ -22703,10 +22715,10 @@
     </row>
     <row r="141" customFormat="1" ht="84.85" spans="1:8">
       <c r="A141" s="19" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="C141" s="19" t="s">
         <v>615</v>
@@ -22723,13 +22735,13 @@
     </row>
     <row r="142" customFormat="1" ht="42.45" spans="1:8">
       <c r="A142" s="19" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="C142" s="19" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="D142" s="19">
         <v>1989</v>
@@ -22743,10 +22755,10 @@
     </row>
     <row r="143" customFormat="1" ht="56.55" spans="1:8">
       <c r="A143" s="19" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="C143" s="19" t="s">
         <v>1148</v>
@@ -22763,10 +22775,10 @@
     </row>
     <row r="144" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A144" s="19" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="C144" s="19" t="s">
         <v>558</v>
@@ -22782,13 +22794,13 @@
     </row>
     <row r="145" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A145" s="19" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="D145" s="19">
         <v>1988</v>
@@ -22801,13 +22813,13 @@
     </row>
     <row r="146" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A146" s="19" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="D146" s="19">
         <v>1988</v>
@@ -22820,13 +22832,13 @@
     </row>
     <row r="147" s="1" customFormat="1" ht="70.7" spans="1:8">
       <c r="A147" s="19" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="D147" s="19">
         <v>1988</v>
@@ -22839,13 +22851,13 @@
     </row>
     <row r="148" customFormat="1" ht="56.55" spans="1:8">
       <c r="A148" s="19" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="D148" s="19">
         <v>1987</v>
@@ -22859,13 +22871,13 @@
     </row>
     <row r="149" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A149" s="19" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="D149" s="19">
         <v>1987</v>
@@ -22878,13 +22890,13 @@
     </row>
     <row r="150" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A150" s="19" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="D150" s="19">
         <v>1987</v>
@@ -22897,10 +22909,10 @@
     </row>
     <row r="151" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A151" s="19" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="C151" s="19" t="s">
         <v>704</v>
@@ -22916,13 +22928,13 @@
     </row>
     <row r="152" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A152" s="19" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="D152" s="19">
         <v>1987</v>
@@ -22935,10 +22947,10 @@
     </row>
     <row r="153" s="1" customFormat="1" ht="28.3" spans="1:8">
       <c r="A153" s="19" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="C153" s="19" t="s">
         <v>638</v>
@@ -22954,10 +22966,10 @@
     </row>
     <row r="154" customFormat="1" ht="28.3" spans="1:8">
       <c r="A154" s="19" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="C154" s="19" t="s">
         <v>96</v>
@@ -22974,10 +22986,10 @@
     </row>
     <row r="155" s="1" customFormat="1" ht="70.7" spans="1:8">
       <c r="A155" s="19" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="C155" s="19" t="s">
         <v>744</v>
@@ -22993,13 +23005,13 @@
     </row>
     <row r="156" customFormat="1" ht="70.7" spans="1:8">
       <c r="A156" s="19" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="D156" s="19">
         <v>1987</v>
@@ -23013,13 +23025,13 @@
     </row>
     <row r="157" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A157" s="19" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="D157" s="19">
         <v>1986</v>
@@ -23032,10 +23044,10 @@
     </row>
     <row r="158" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A158" s="19" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="C158" s="19" t="s">
         <v>629</v>
@@ -23051,13 +23063,13 @@
     </row>
     <row r="159" customFormat="1" ht="42.45" spans="1:8">
       <c r="A159" s="19" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="C159" s="19" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="D159" s="19">
         <v>1986</v>
@@ -23071,10 +23083,10 @@
     </row>
     <row r="160" customFormat="1" ht="42.45" spans="1:8">
       <c r="A160" s="19" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="C160" s="19" t="s">
         <v>606</v>
@@ -23091,13 +23103,13 @@
     </row>
     <row r="161" s="1" customFormat="1" ht="70.7" spans="1:8">
       <c r="A161" s="19" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="C161" s="19" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="D161" s="19">
         <v>1986</v>
@@ -23110,10 +23122,10 @@
     </row>
     <row r="162" customFormat="1" ht="28.3" spans="1:8">
       <c r="A162" s="19" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="C162" s="19" t="s">
         <v>1090</v>
@@ -23130,13 +23142,13 @@
     </row>
     <row r="163" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A163" s="19" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="C163" s="19" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="D163" s="19">
         <v>1986</v>
@@ -23149,13 +23161,13 @@
     </row>
     <row r="164" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A164" s="19" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="C164" s="19" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="D164" s="19">
         <v>1985</v>
@@ -23168,13 +23180,13 @@
     </row>
     <row r="165" customFormat="1" ht="84.85" spans="1:8">
       <c r="A165" s="19" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="C165" s="19" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="D165" s="19">
         <v>1985</v>
@@ -23188,10 +23200,10 @@
     </row>
     <row r="166" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A166" s="19" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="C166" s="19" t="s">
         <v>629</v>
@@ -23207,13 +23219,13 @@
     </row>
     <row r="167" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A167" s="19" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="B167" s="19" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="C167" s="19" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="D167" s="19">
         <v>1985</v>
@@ -23226,13 +23238,13 @@
     </row>
     <row r="168" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A168" s="19" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="D168" s="19">
         <v>1984</v>
@@ -23245,13 +23257,13 @@
     </row>
     <row r="169" s="1" customFormat="1" ht="70.7" spans="1:8">
       <c r="A169" s="19" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="C169" s="19" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="D169" s="19">
         <v>1984</v>
@@ -23264,13 +23276,13 @@
     </row>
     <row r="170" s="1" customFormat="1" ht="56.55" spans="1:8">
       <c r="A170" s="19" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="D170" s="19">
         <v>1983</v>
@@ -23283,13 +23295,13 @@
     </row>
     <row r="171" s="1" customFormat="1" ht="70.7" spans="1:8">
       <c r="A171" s="19" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="D171" s="19">
         <v>1982</v>
@@ -23302,10 +23314,10 @@
     </row>
     <row r="172" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A172" s="19" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="C172" s="19" t="s">
         <v>592</v>
@@ -23321,13 +23333,13 @@
     </row>
     <row r="173" s="1" customFormat="1" ht="42.45" spans="1:8">
       <c r="A173" s="19" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="B173" s="19" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="D173" s="19">
         <v>1982</v>
@@ -23340,13 +23352,13 @@
     </row>
     <row r="174" s="1" customFormat="1" ht="84.85" spans="1:8">
       <c r="A174" s="19" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="C174" s="19" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="D174" s="19">
         <v>1982</v>
@@ -23359,10 +23371,10 @@
     </row>
     <row r="175" s="1" customFormat="1" ht="70.7" spans="1:8">
       <c r="A175" s="19" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="B175" s="19" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="C175" s="19" t="s">
         <v>967</v>
@@ -23378,13 +23390,13 @@
     </row>
     <row r="176" customFormat="1" ht="71.45" spans="1:8">
       <c r="A176" s="19" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="B176" s="19" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="C176" s="19" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="D176" s="19">
         <v>1980</v>
@@ -23398,19 +23410,19 @@
     </row>
     <row r="177" s="1" customFormat="1" ht="50.45" spans="1:7">
       <c r="A177" s="8" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="D177" s="7">
         <v>2016</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="F177" s="12" t="s">
         <v>128</v>
@@ -23421,19 +23433,19 @@
     </row>
     <row r="178" s="1" customFormat="1" ht="62.9" spans="1:7">
       <c r="A178" s="8" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="D178" s="7">
         <v>2015</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="F178" s="12" t="s">
         <v>810</v>
@@ -23444,10 +23456,10 @@
     </row>
     <row r="179" s="1" customFormat="1" ht="62.9" spans="1:7">
       <c r="A179" s="8" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="C179" s="9" t="s">
         <v>110</v>
@@ -23456,24 +23468,24 @@
         <v>2016</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="F179" s="12" t="s">
         <v>1025</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="180" customFormat="1" ht="85.6" spans="1:8">
       <c r="A180" s="19" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="B180" s="19" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="D180" s="19">
         <v>2013</v>
@@ -23487,13 +23499,13 @@
     </row>
     <row r="181" s="1" customFormat="1" ht="75.3" spans="1:7">
       <c r="A181" s="8" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="D181" s="7">
         <v>2016</v>
@@ -23505,15 +23517,15 @@
         <v>410</v>
       </c>
       <c r="G181" s="7" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="182" s="2" customFormat="1" ht="75.3" spans="1:7">
       <c r="A182" s="21" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="B182" s="22" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="C182" s="22" t="s">
         <v>190</v>
@@ -23522,7 +23534,7 @@
         <v>2015</v>
       </c>
       <c r="E182" s="15" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="F182" s="16" t="s">
         <v>792</v>
@@ -23533,10 +23545,10 @@
     </row>
     <row r="183" s="1" customFormat="1" ht="57.3" spans="1:8">
       <c r="A183" s="19" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="B183" s="19" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="C183" s="19" t="s">
         <v>564</v>
@@ -23552,10 +23564,10 @@
     </row>
     <row r="184" s="2" customFormat="1" ht="137.45" spans="1:8">
       <c r="A184" s="13" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="C184" s="14" t="s">
         <v>347</v>
@@ -23564,47 +23576,47 @@
         <v>2016</v>
       </c>
       <c r="E184" s="23" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="F184" s="16" t="s">
         <v>136</v>
       </c>
       <c r="G184" s="23" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="H184" s="24" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="185" s="2" customFormat="1" ht="100.2" spans="1:7">
       <c r="A185" s="13" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="D185" s="15">
         <v>2016</v>
       </c>
       <c r="E185" s="15" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="F185" s="16" t="s">
         <v>294</v>
       </c>
       <c r="G185" s="25" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="186" s="4" customFormat="1" ht="99" spans="1:8">
       <c r="A186" s="26" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="B186" s="26" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="C186" s="26" t="s">
         <v>441</v>
@@ -23616,10 +23628,10 @@
         <v>40</v>
       </c>
       <c r="F186" s="26" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="G186" s="24" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="H186" s="24"/>
     </row>
@@ -24527,13 +24539,13 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="100.2" spans="1:7">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="45" t="s">
         <v>345</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="46" t="s">
         <v>347</v>
       </c>
       <c r="D2" s="7">
@@ -24740,13 +24752,13 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="75.3" spans="1:7">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="39" t="s">
         <v>378</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="40" t="s">
         <v>379</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="40" t="s">
         <v>380</v>
       </c>
       <c r="D2" s="7">
@@ -24801,13 +24813,13 @@
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="38.05" spans="1:7">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="41" t="s">
         <v>387</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="42" t="s">
         <v>388</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="42" t="s">
         <v>389</v>
       </c>
       <c r="D5" s="7">
@@ -24916,13 +24928,13 @@
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="62.9" spans="1:7">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="43" t="s">
         <v>412</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="44" t="s">
         <v>413</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="44" t="s">
         <v>414</v>
       </c>
       <c r="D10" s="7">
@@ -27304,13 +27316,13 @@
       <c r="H135" s="6"/>
     </row>
     <row r="136" s="4" customFormat="1" ht="112.6" spans="1:8">
-      <c r="A136" s="38" t="s">
+      <c r="A136" s="36" t="s">
         <v>763</v>
       </c>
-      <c r="B136" s="39" t="s">
+      <c r="B136" s="37" t="s">
         <v>764</v>
       </c>
-      <c r="C136" s="39" t="s">
+      <c r="C136" s="37" t="s">
         <v>380</v>
       </c>
       <c r="D136" s="25">
@@ -27695,7 +27707,7 @@
       <c r="E10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="38" t="s">
         <v>832</v>
       </c>
       <c r="G10" s="7" t="s">
@@ -29213,7 +29225,7 @@
       <c r="E22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="40" t="s">
+      <c r="F22" s="38" t="s">
         <v>1052</v>
       </c>
       <c r="G22" s="7" t="s">
